--- a/data/Existing Power Stations SA.xlsx
+++ b/data/Existing Power Stations SA.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889BF84F-2401-4980-BEA8-68AB849F6CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9216" yWindow="720" windowWidth="10608" windowHeight="8472"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="114">
   <si>
     <t>Owner</t>
   </si>
@@ -31,9 +50,6 @@
     <t>Eskom</t>
   </si>
   <si>
-    <t>Coal</t>
-  </si>
-  <si>
     <t>Existing</t>
   </si>
   <si>
@@ -94,18 +110,9 @@
     <t>Sere</t>
   </si>
   <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
     <t>Drakensberg</t>
   </si>
   <si>
-    <t>Pumped Storage</t>
-  </si>
-  <si>
     <t>Ingula</t>
   </si>
   <si>
@@ -115,9 +122,6 @@
     <t>Gariep</t>
   </si>
   <si>
-    <t>Hydro</t>
-  </si>
-  <si>
     <t>Vanderkloof</t>
   </si>
   <si>
@@ -136,9 +140,6 @@
     <t>Biomass_Round3</t>
   </si>
   <si>
-    <t>Biomass</t>
-  </si>
-  <si>
     <t>Biomass_Round4</t>
   </si>
   <si>
@@ -172,18 +173,12 @@
     <t>Landfill_Gas_Round3</t>
   </si>
   <si>
-    <t>Biogas</t>
-  </si>
-  <si>
     <t>Landfill_Gas_Round4_Expedited</t>
   </si>
   <si>
     <t>Photovoltaic_Round1</t>
   </si>
   <si>
-    <t>Solar PV</t>
-  </si>
-  <si>
     <t>Photovoltaic_Round2</t>
   </si>
   <si>
@@ -250,9 +245,6 @@
     <t>Sasol_Infrach_Engines</t>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
     <t>Sasol_OCGT</t>
   </si>
   <si>
@@ -271,9 +263,6 @@
     <t>Steenbras</t>
   </si>
   <si>
-    <t>Pumped storage</t>
-  </si>
-  <si>
     <t>Power Station Name</t>
   </si>
   <si>
@@ -301,12 +290,6 @@
     <t>Number units</t>
   </si>
   <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Jet fuel</t>
-  </si>
-  <si>
     <t>Heat Rate (GJ/MWh)</t>
   </si>
   <si>
@@ -365,12 +348,39 @@
   </si>
   <si>
     <t>4907 (includes capex)</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>onwind</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>PHS</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,6 +472,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -509,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,9 +555,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,6 +607,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,38 +799,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M59" sqref="M59"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5"/>
-    <col min="8" max="8" width="17.109375" style="5" customWidth="1"/>
-    <col min="9" max="11" width="11.109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="5" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="5"/>
-    <col min="17" max="17" width="11.88671875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="5"/>
-    <col min="21" max="21" width="11.109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="5"/>
+    <col min="8" max="8" width="17.08984375" style="5" customWidth="1"/>
+    <col min="9" max="11" width="11.08984375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16.90625" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" style="5" customWidth="1"/>
+    <col min="15" max="16" width="8.90625" style="5"/>
+    <col min="17" max="17" width="11.90625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="5"/>
+    <col min="21" max="21" width="11.08984375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -795,58 +842,58 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="O1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="S1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="V1" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -857,7 +904,7 @@
       <c r="AC1" s="8"/>
       <c r="AD1" s="8"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -865,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="5">
         <v>2220</v>
@@ -898,19 +945,19 @@
         <v>594</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S2">
         <v>10</v>
@@ -933,18 +980,18 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="5">
         <v>1520</v>
@@ -974,19 +1021,19 @@
         <v>594</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S3">
         <v>10</v>
@@ -1009,18 +1056,18 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="5">
         <v>2900</v>
@@ -1050,19 +1097,19 @@
         <v>594</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S4">
         <v>10</v>
@@ -1085,18 +1132,18 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>1080</v>
@@ -1126,19 +1173,19 @@
         <v>594</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S5">
         <v>10</v>
@@ -1161,18 +1208,18 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
       <c r="E6" s="5">
         <v>1900</v>
@@ -1202,19 +1249,19 @@
         <v>594</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1237,18 +1284,18 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
       <c r="E7" s="5">
         <v>3840</v>
@@ -1278,19 +1325,19 @@
         <v>594</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S7">
         <v>10</v>
@@ -1313,18 +1360,18 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
       </c>
       <c r="E8" s="5">
         <v>900</v>
@@ -1354,19 +1401,19 @@
         <v>594</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S8">
         <v>10</v>
@@ -1389,18 +1436,18 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
       </c>
       <c r="E9" s="5">
         <v>2880</v>
@@ -1430,19 +1477,19 @@
         <v>594</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1465,18 +1512,18 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1488,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I10" s="6">
         <v>9.8119999999999994</v>
@@ -1503,22 +1550,22 @@
         <v>80</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -1541,18 +1588,18 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
         <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
       <c r="E11" s="5">
         <v>3540</v>
@@ -1582,19 +1629,19 @@
         <v>594</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -1617,18 +1664,18 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
         <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
       </c>
       <c r="E12" s="5">
         <v>1830</v>
@@ -1658,19 +1705,19 @@
         <v>594</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S12">
         <v>10</v>
@@ -1693,18 +1740,18 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
         <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
       </c>
       <c r="E13" s="5">
         <v>2010</v>
@@ -1734,19 +1781,19 @@
         <v>594</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S13">
         <v>10</v>
@@ -1769,18 +1816,18 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
       </c>
       <c r="E14" s="5">
         <v>3720</v>
@@ -1810,19 +1857,19 @@
         <v>594</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S14">
         <v>10</v>
@@ -1845,18 +1892,18 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
       </c>
       <c r="E15" s="5">
         <v>3480</v>
@@ -1886,19 +1933,19 @@
         <v>594</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S15">
         <v>10</v>
@@ -1921,18 +1968,18 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5">
         <v>722</v>
@@ -1944,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I16" s="6">
         <v>9.8119999999999994</v>
@@ -1959,22 +2006,22 @@
         <v>80</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S16">
         <v>10</v>
@@ -1997,18 +2044,18 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
         <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
       </c>
       <c r="E17" s="5">
         <v>3480</v>
@@ -2038,19 +2085,19 @@
         <v>594</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2073,18 +2120,18 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="5">
         <v>100</v>
@@ -2099,13 +2146,13 @@
         <v>49064</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L18" s="6">
         <v>700</v>
@@ -2114,19 +2161,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2149,18 +2196,18 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="5">
         <f>930*2</f>
@@ -2182,7 +2229,7 @@
         <v>8.1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L19" s="6">
         <v>37</v>
@@ -2191,19 +2238,19 @@
         <v>968</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S19">
         <v>3</v>
@@ -2226,18 +2273,18 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="5">
         <v>1000</v>
@@ -2249,16 +2296,16 @@
         <v>4</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -2281,7 +2328,7 @@
         <v>21.7</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -2304,18 +2351,18 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="5">
         <v>1332</v>
@@ -2327,22 +2374,22 @@
         <v>4</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N21" s="6">
         <v>78</v>
@@ -2359,7 +2406,7 @@
         <v>27.4</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -2382,18 +2429,18 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="5">
         <v>400</v>
@@ -2405,16 +2452,16 @@
         <v>2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L22" s="6">
         <v>0</v>
@@ -2437,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -2460,18 +2507,18 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="5">
         <v>360</v>
@@ -2483,16 +2530,16 @@
         <v>4</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L23" s="6">
         <v>30</v>
@@ -2501,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S23">
         <v>3</v>
@@ -2536,18 +2583,18 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5">
         <v>240</v>
@@ -2559,16 +2606,16 @@
         <v>2</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L24" s="6">
         <v>30</v>
@@ -2577,19 +2624,19 @@
         <v>0</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -2612,18 +2659,18 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5">
         <v>171</v>
@@ -2653,19 +2700,19 @@
         <v>161</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S25">
         <v>6.9</v>
@@ -2688,18 +2735,18 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="5">
         <v>1332</v>
@@ -2729,19 +2776,19 @@
         <v>161</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S26">
         <v>6.9</v>
@@ -2764,18 +2811,18 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="5">
         <v>740</v>
@@ -2805,19 +2852,19 @@
         <v>161</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S27">
         <v>6.9</v>
@@ -2840,18 +2887,18 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="5">
         <v>171</v>
@@ -2881,19 +2928,19 @@
         <v>161</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S28">
         <v>6.9</v>
@@ -2916,37 +2963,37 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J29" s="5">
         <v>32</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L29" s="6">
         <v>1650</v>
@@ -2955,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S29">
         <v>6</v>
@@ -2984,36 +3031,36 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J30" s="5">
         <v>32</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L30" s="6">
         <v>1610</v>
@@ -3022,19 +3069,19 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S30">
         <v>6</v>
@@ -3051,36 +3098,36 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J31" s="5">
         <v>32</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L31" s="6">
         <v>1610</v>
@@ -3089,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S31">
         <v>6</v>
@@ -3118,36 +3165,36 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="5">
         <v>50</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L32" s="6">
         <v>3324</v>
@@ -3156,16 +3203,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R32" s="6">
         <v>9</v>
@@ -3191,36 +3238,36 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L33" s="6">
         <v>3114</v>
@@ -3229,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R33" s="6">
         <v>6</v>
@@ -3264,36 +3311,36 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
         <v>23</v>
       </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
       <c r="E34" s="5">
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L34" s="6">
         <v>2902</v>
@@ -3302,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R34" s="6">
         <v>6</v>
@@ -3331,36 +3378,36 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="5">
         <v>100</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L35" s="6">
         <v>3554</v>
@@ -3369,16 +3416,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R35" s="6">
         <v>3</v>
@@ -3404,36 +3451,36 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="5">
         <v>50</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L36" s="6">
         <v>3554</v>
@@ -3442,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R36" s="6">
         <v>6</v>
@@ -3477,36 +3524,36 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
       <c r="E37" s="5">
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L37" s="6">
         <v>2902</v>
@@ -3515,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R37" s="6">
         <v>9</v>
@@ -3544,36 +3591,36 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
       <c r="E38" s="5">
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L38" s="6">
         <v>2020</v>
@@ -3582,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R38" s="6">
         <v>9</v>
@@ -3611,36 +3658,36 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L39" s="6">
         <v>3114</v>
@@ -3649,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R39" s="6">
         <v>6</v>
@@ -3678,36 +3725,36 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J40" s="5">
         <v>0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L40" s="6">
         <v>1109</v>
@@ -3716,19 +3763,19 @@
         <v>0</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S40">
         <v>5</v>
@@ -3745,36 +3792,36 @@
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J41" s="5">
         <v>0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L41" s="6">
         <v>1109</v>
@@ -3783,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S41">
         <v>5</v>
@@ -3812,36 +3859,36 @@
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5">
         <v>627</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L42" s="6">
         <v>3649</v>
@@ -3850,19 +3897,19 @@
         <v>0</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S42">
         <v>5</v>
@@ -3879,36 +3926,36 @@
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="5">
         <v>417</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L43" s="6">
         <v>2176</v>
@@ -3917,19 +3964,19 @@
         <v>0</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S43">
         <v>5</v>
@@ -3946,36 +3993,36 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="5">
         <v>435</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L44" s="6">
         <v>1165</v>
@@ -3984,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -4013,36 +4060,36 @@
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L45" s="6">
         <v>872</v>
@@ -4051,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S45">
         <v>5</v>
@@ -4080,36 +4127,36 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L46" s="6">
         <v>946</v>
@@ -4118,19 +4165,19 @@
         <v>0</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S46">
         <v>5</v>
@@ -4147,36 +4194,36 @@
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L47" s="6">
         <v>617</v>
@@ -4185,19 +4232,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S47">
         <v>5</v>
@@ -4214,39 +4261,39 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="5">
         <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L48" s="6">
         <v>1363</v>
@@ -4255,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S48">
         <v>3</v>
@@ -4284,39 +4331,39 @@
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L49" s="6">
         <v>1240</v>
@@ -4325,19 +4372,19 @@
         <v>0</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S49">
         <v>3</v>
@@ -4354,39 +4401,39 @@
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L50" s="6">
         <v>1240</v>
@@ -4395,19 +4442,19 @@
         <v>0</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S50">
         <v>3</v>
@@ -4424,36 +4471,36 @@
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="5">
         <v>634</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L51" s="6">
         <v>1513</v>
@@ -4462,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S51">
         <v>6</v>
@@ -4491,36 +4538,36 @@
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" s="5">
         <v>564</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L52" s="6">
         <v>1186</v>
@@ -4529,19 +4576,19 @@
         <v>0</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S52">
         <v>6</v>
@@ -4558,36 +4605,36 @@
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="5">
         <v>154</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L53" s="6">
         <v>868</v>
@@ -4596,19 +4643,19 @@
         <v>0</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S53">
         <v>6</v>
@@ -4625,36 +4672,36 @@
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L54" s="6">
         <v>687</v>
@@ -4663,19 +4710,19 @@
         <v>0</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S54">
         <v>6</v>
@@ -4692,36 +4739,36 @@
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L55" s="6">
         <v>801</v>
@@ -4730,19 +4777,19 @@
         <v>0</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S55">
         <v>6</v>
@@ -4759,36 +4806,36 @@
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L56" s="6">
         <v>617</v>
@@ -4797,19 +4844,19 @@
         <v>0</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S56">
         <v>6</v>
@@ -4826,18 +4873,18 @@
       <c r="AC56" s="8"/>
       <c r="AD56" s="8"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
@@ -4846,10 +4893,10 @@
         <v>153</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I57" s="6">
         <v>10.788</v>
@@ -4864,22 +4911,22 @@
         <v>173</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S57">
         <v>6</v>
@@ -4896,18 +4943,18 @@
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -4916,10 +4963,10 @@
         <v>140</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I58" s="6">
         <v>10.788</v>
@@ -4934,22 +4981,22 @@
         <v>173</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S58">
         <v>6</v>
@@ -4966,27 +5013,27 @@
       <c r="AC58" s="8"/>
       <c r="AD58" s="8"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
         <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
       </c>
       <c r="E59" s="5">
         <v>160</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I59" s="6">
         <v>12.372</v>
@@ -5004,19 +5051,19 @@
         <v>0</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S59">
         <v>10</v>
@@ -5039,27 +5086,27 @@
       <c r="AC59" s="8"/>
       <c r="AD59" s="8"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
         <v>5</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
       </c>
       <c r="E60" s="5">
         <v>600</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I60" s="6">
         <v>12.372</v>
@@ -5077,19 +5124,19 @@
         <v>0</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S60">
         <v>10</v>
@@ -5112,18 +5159,18 @@
       <c r="AC60" s="8"/>
       <c r="AD60" s="8"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E61" s="5">
         <v>670</v>
@@ -5150,19 +5197,19 @@
         <v>101</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S61">
         <v>6.9</v>
@@ -5185,18 +5232,18 @@
       <c r="AC61" s="8"/>
       <c r="AD61" s="8"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" s="5">
         <v>335</v>
@@ -5223,19 +5270,19 @@
         <v>101</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S62">
         <v>6.9</v>
@@ -5258,18 +5305,18 @@
       <c r="AC62" s="8"/>
       <c r="AD62" s="8"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="5">
         <v>175</v>
@@ -5296,19 +5343,19 @@
         <v>0</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S63">
         <v>6.9</v>
@@ -5331,18 +5378,18 @@
       <c r="AC63" s="8"/>
       <c r="AD63" s="8"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="5">
         <v>250</v>
@@ -5369,19 +5416,19 @@
         <v>0</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S64">
         <v>6.9</v>
@@ -5404,18 +5451,18 @@
       <c r="AC64" s="8"/>
       <c r="AD64" s="8"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="5">
         <v>1500</v>
@@ -5427,13 +5474,13 @@
         <v>6</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L65" s="6">
         <v>300</v>
@@ -5442,19 +5489,19 @@
         <v>0</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S65">
         <v>3</v>
@@ -5471,18 +5518,18 @@
       <c r="AC65" s="8"/>
       <c r="AD65" s="8"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" s="5">
         <v>65</v>
@@ -5494,16 +5541,16 @@
         <v>1</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L66" s="6">
         <v>300</v>
@@ -5512,19 +5559,19 @@
         <v>0</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S66">
         <v>5</v>
@@ -5547,18 +5594,18 @@
       <c r="AC66" s="8"/>
       <c r="AD66" s="8"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67" s="5">
         <v>120</v>
@@ -5570,10 +5617,10 @@
         <v>4</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K67" s="6">
         <v>0.5</v>
@@ -5585,19 +5632,19 @@
         <v>0</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S67">
         <v>10</v>
@@ -5614,18 +5661,18 @@
       <c r="AC67" s="8"/>
       <c r="AD67" s="8"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="5">
         <v>144</v>
@@ -5637,10 +5684,10 @@
         <v>4</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K68" s="6">
         <v>0.5</v>
@@ -5652,19 +5699,19 @@
         <v>0</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S68">
         <v>10</v>
@@ -5687,18 +5734,18 @@
       <c r="AC68" s="8"/>
       <c r="AD68" s="8"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69" s="5">
         <v>180</v>
@@ -5710,16 +5757,16 @@
         <v>4</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L69" s="6">
         <v>300</v>
@@ -5742,7 +5789,7 @@
         <v>2.7</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -5765,7 +5812,7 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="8"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -5779,7 +5826,7 @@
       <c r="AC70" s="8"/>
       <c r="AD70" s="8"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -5793,9 +5840,9 @@
       <c r="AC71" s="8"/>
       <c r="AD71" s="8"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -5809,7 +5856,7 @@
       <c r="AC72" s="8"/>
       <c r="AD72" s="8"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -5822,7 +5869,7 @@
       <c r="AC73" s="8"/>
       <c r="AD73" s="8"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -5840,7 +5887,7 @@
       <c r="AC74" s="8"/>
       <c r="AD74" s="8"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -5858,7 +5905,7 @@
       <c r="AC75" s="8"/>
       <c r="AD75" s="8"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -5876,7 +5923,7 @@
       <c r="AC76" s="8"/>
       <c r="AD76" s="8"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -5894,7 +5941,7 @@
       <c r="AC77" s="8"/>
       <c r="AD77" s="8"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -5912,7 +5959,7 @@
       <c r="AC78" s="8"/>
       <c r="AD78" s="8"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -5930,7 +5977,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="8"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="M80" s="3"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -5945,7 +5992,7 @@
       <c r="AC80" s="8"/>
       <c r="AD80" s="8"/>
     </row>
-    <row r="81" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M81" s="3"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -5960,7 +6007,7 @@
       <c r="AC81" s="8"/>
       <c r="AD81" s="8"/>
     </row>
-    <row r="82" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="13:30" x14ac:dyDescent="0.35">
       <c r="M82" s="3"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -5975,7 +6022,7 @@
       <c r="AC82" s="8"/>
       <c r="AD82" s="8"/>
     </row>
-    <row r="83" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -5989,7 +6036,7 @@
       <c r="AC83" s="8"/>
       <c r="AD83" s="8"/>
     </row>
-    <row r="84" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
@@ -6003,7 +6050,7 @@
       <c r="AC84" s="8"/>
       <c r="AD84" s="8"/>
     </row>
-    <row r="85" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -6017,7 +6064,7 @@
       <c r="AC85" s="8"/>
       <c r="AD85" s="8"/>
     </row>
-    <row r="86" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
@@ -6031,7 +6078,7 @@
       <c r="AC86" s="8"/>
       <c r="AD86" s="8"/>
     </row>
-    <row r="87" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
@@ -6045,7 +6092,7 @@
       <c r="AC87" s="8"/>
       <c r="AD87" s="8"/>
     </row>
-    <row r="88" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -6059,7 +6106,7 @@
       <c r="AC88" s="8"/>
       <c r="AD88" s="8"/>
     </row>
-    <row r="89" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
@@ -6073,7 +6120,7 @@
       <c r="AC89" s="8"/>
       <c r="AD89" s="8"/>
     </row>
-    <row r="90" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
@@ -6087,7 +6134,7 @@
       <c r="AC90" s="8"/>
       <c r="AD90" s="8"/>
     </row>
-    <row r="91" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
@@ -6101,7 +6148,7 @@
       <c r="AC91" s="8"/>
       <c r="AD91" s="8"/>
     </row>
-    <row r="92" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
@@ -6115,7 +6162,7 @@
       <c r="AC92" s="8"/>
       <c r="AD92" s="8"/>
     </row>
-    <row r="93" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -6129,7 +6176,7 @@
       <c r="AC93" s="8"/>
       <c r="AD93" s="8"/>
     </row>
-    <row r="94" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
@@ -6143,7 +6190,7 @@
       <c r="AC94" s="8"/>
       <c r="AD94" s="8"/>
     </row>
-    <row r="95" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -6157,7 +6204,7 @@
       <c r="AC95" s="8"/>
       <c r="AD95" s="8"/>
     </row>
-    <row r="96" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="13:30" x14ac:dyDescent="0.35">
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -6171,7 +6218,7 @@
       <c r="AC96" s="8"/>
       <c r="AD96" s="8"/>
     </row>
-    <row r="97" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
@@ -6185,7 +6232,7 @@
       <c r="AC97" s="8"/>
       <c r="AD97" s="8"/>
     </row>
-    <row r="98" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -6199,7 +6246,7 @@
       <c r="AC98" s="8"/>
       <c r="AD98" s="8"/>
     </row>
-    <row r="99" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -6213,7 +6260,7 @@
       <c r="AC99" s="8"/>
       <c r="AD99" s="8"/>
     </row>
-    <row r="100" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
@@ -6227,7 +6274,7 @@
       <c r="AC100" s="8"/>
       <c r="AD100" s="8"/>
     </row>
-    <row r="101" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
@@ -6240,7 +6287,7 @@
       <c r="AC101" s="8"/>
       <c r="AD101" s="8"/>
     </row>
-    <row r="102" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
@@ -6253,7 +6300,7 @@
       <c r="AC102" s="8"/>
       <c r="AD102" s="8"/>
     </row>
-    <row r="103" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
@@ -6266,337 +6313,337 @@
       <c r="AC103" s="8"/>
       <c r="AD103" s="8"/>
     </row>
-    <row r="104" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
     </row>
-    <row r="105" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
     </row>
-    <row r="106" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
     </row>
-    <row r="107" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
     </row>
-    <row r="108" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
     </row>
-    <row r="109" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
     </row>
-    <row r="110" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
     </row>
-    <row r="111" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
     </row>
-    <row r="112" spans="14:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="14:30" x14ac:dyDescent="0.35">
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
     </row>
-    <row r="113" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
     </row>
-    <row r="114" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
     </row>
-    <row r="115" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
     </row>
-    <row r="116" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
     </row>
-    <row r="117" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
     </row>
-    <row r="118" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
     </row>
-    <row r="119" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
     </row>
-    <row r="120" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
     </row>
-    <row r="121" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
     </row>
-    <row r="122" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
     </row>
-    <row r="123" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
     </row>
-    <row r="124" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
     </row>
-    <row r="125" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
     </row>
-    <row r="126" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
     </row>
-    <row r="127" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
     </row>
-    <row r="128" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
     </row>
-    <row r="129" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
     </row>
-    <row r="130" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
     </row>
-    <row r="131" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
     </row>
-    <row r="132" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O132" s="6"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
     </row>
-    <row r="133" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
     </row>
-    <row r="134" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
     </row>
-    <row r="135" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
     </row>
-    <row r="136" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
     </row>
-    <row r="137" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
     </row>
-    <row r="138" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
     </row>
-    <row r="139" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
     </row>
-    <row r="140" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
     </row>
-    <row r="141" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
     </row>
-    <row r="142" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
     </row>
-    <row r="143" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
     </row>
-    <row r="144" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O144" s="6"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
     </row>
-    <row r="145" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O145" s="6"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
     </row>
-    <row r="146" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O146" s="6"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
     </row>
-    <row r="147" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
     </row>
-    <row r="148" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O148" s="6"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
     </row>
-    <row r="149" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O149" s="6"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
     </row>
-    <row r="150" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O150" s="6"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
     </row>
-    <row r="151" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O151" s="6"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
     </row>
-    <row r="152" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O152" s="6"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
     </row>
-    <row r="153" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O153" s="6"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
     </row>
-    <row r="154" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
     </row>
-    <row r="155" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
     </row>
-    <row r="156" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
     </row>
-    <row r="157" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
     </row>
-    <row r="158" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
     </row>
-    <row r="159" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
     </row>
-    <row r="160" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
     </row>
-    <row r="161" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
     </row>
-    <row r="162" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
     </row>
-    <row r="164" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
     </row>
-    <row r="167" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
     </row>
-    <row r="169" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
     </row>
-    <row r="170" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O170" s="6"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>

--- a/data/Existing Power Stations SA.xlsx
+++ b/data/Existing Power Stations SA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889BF84F-2401-4980-BEA8-68AB849F6CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BF476-78E8-482C-9BFA-54821EEE9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="114">
   <si>
     <t>Owner</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Installed/ Operational Capacity in 2016 (MW)</t>
   </si>
   <si>
-    <t>Note: Committed and Under construction commissioning dates are available if needed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Koeberg </t>
   </si>
   <si>
@@ -375,13 +372,16 @@
   </si>
   <si>
     <t>gas</t>
+  </si>
+  <si>
+    <t>Commissioning Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,13 +397,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -418,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -461,6 +473,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,35 +815,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD170"/>
+  <dimension ref="A1:AE163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C42" sqref="C42"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="73.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.54296875" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.90625" style="5"/>
-    <col min="8" max="8" width="17.08984375" style="5" customWidth="1"/>
-    <col min="9" max="11" width="11.08984375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.08984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.90625" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" style="5" customWidth="1"/>
-    <col min="15" max="16" width="8.90625" style="5"/>
-    <col min="17" max="17" width="11.90625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="5"/>
-    <col min="21" max="21" width="11.08984375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="5" customWidth="1"/>
+    <col min="10" max="12" width="11.08984375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" style="5" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="5"/>
+    <col min="18" max="18" width="11.90625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" style="5"/>
+    <col min="22" max="22" width="11.08984375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -841,70 +857,73 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="8"/>
+      <c r="AC1" s="3"/>
       <c r="AD1" s="8"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -912,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -926,61 +945,62 @@
       <c r="G2" s="5">
         <v>6</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
         <v>45658</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>11.654</v>
       </c>
-      <c r="J2" s="13">
+      <c r="K2" s="13">
         <v>16.8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>2.1</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>57</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>594</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T2">
         <v>10</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2" s="8">
         <v>-25.94444</v>
       </c>
-      <c r="V2" s="8">
+      <c r="W2" s="8">
         <v>29.79166</v>
       </c>
-      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
-      <c r="AC2" s="8"/>
+      <c r="AC2" s="3"/>
       <c r="AD2" s="8"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE2" s="8"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1002,61 +1022,62 @@
       <c r="G3" s="5">
         <v>8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
         <v>44927</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>12.420999999999999</v>
       </c>
-      <c r="J3" s="13">
+      <c r="K3" s="13">
         <v>23.1</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>57</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>594</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T3">
         <v>10</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3" s="8">
         <v>-26.620069999999998</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <v>30.09113</v>
       </c>
-      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="8"/>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="8"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE3" s="8"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1078,61 +1099,62 @@
       <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
         <v>48945</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>11.034000000000001</v>
       </c>
-      <c r="J4" s="13">
+      <c r="K4" s="13">
         <v>11.8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>3.3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>57</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>594</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T4">
         <v>10</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4" s="8">
         <v>-25.959540000000001</v>
       </c>
-      <c r="V4" s="8">
+      <c r="W4" s="8">
         <v>29.34094</v>
       </c>
-      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="8"/>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="8"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1154,61 +1176,62 @@
       <c r="G5" s="5">
         <v>6</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
         <v>46753</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>12.61</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
         <v>22.1</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>0.9</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>57</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>594</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T5">
         <v>10</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5" s="8">
         <v>-26.769549999999999</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <v>28.499510000000001</v>
       </c>
-      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="8"/>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="8"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1230,61 +1253,62 @@
       <c r="G6" s="5">
         <v>10</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
         <v>46023</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>12.131</v>
       </c>
-      <c r="J6" s="13">
+      <c r="K6" s="13">
         <v>17</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>57</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>594</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T6">
         <v>10</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6" s="8">
         <v>-26.031379999999999</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <v>29.601379999999999</v>
       </c>
-      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="8"/>
+      <c r="AC6" s="3"/>
       <c r="AD6" s="8"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1306,61 +1330,62 @@
       <c r="G7" s="5">
         <v>6</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
         <v>52232</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>11.753</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>18.600000000000001</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>1.8</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>57</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>594</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T7">
         <v>10</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7" s="8">
         <v>-26.088049999999999</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <v>28.968879999999999</v>
       </c>
-      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="8"/>
+      <c r="AC7" s="3"/>
       <c r="AD7" s="8"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1382,61 +1407,62 @@
       <c r="G8" s="5">
         <v>9</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
         <v>46753</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>13.829000000000001</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="13">
         <v>17.600000000000001</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>0.5</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>57</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>594</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T8">
         <v>10</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8" s="8">
         <v>-26.090779999999999</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>29.474460000000001</v>
       </c>
-      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="8"/>
+      <c r="AC8" s="3"/>
       <c r="AD8" s="8"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE8" s="8"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1444,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1458,61 +1484,62 @@
       <c r="G9" s="5">
         <v>6</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
         <v>47119</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>11.243</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K9" s="13">
         <v>18.600000000000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>3.6</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>57</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>594</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T9">
         <v>10</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9" s="8">
         <v>-26.25404</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <v>29.18008</v>
       </c>
-      <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="8"/>
+      <c r="AC9" s="3"/>
       <c r="AD9" s="8"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1534,61 +1561,64 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9">
+        <v>45658</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6">
+        <v>9.8119999999999994</v>
+      </c>
+      <c r="K10" s="13">
+        <v>16.3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>80</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="6">
-        <v>9.8119999999999994</v>
-      </c>
-      <c r="J10" s="13">
-        <v>16.3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="L10" s="6">
-        <v>80</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T10">
         <v>10</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10" s="8">
         <v>-25.5459</v>
       </c>
-      <c r="V10" s="8">
+      <c r="W10" s="8">
         <v>28.5502</v>
       </c>
-      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="8"/>
+      <c r="AC10" s="3"/>
       <c r="AD10" s="8"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1596,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1610,61 +1640,62 @@
       <c r="G11" s="5">
         <v>6</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
         <v>51136</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>10.975</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K11" s="13">
         <v>11.2</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>5.9</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>57</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>594</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T11">
         <v>10</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11" s="8">
         <v>-26.740269999999999</v>
       </c>
-      <c r="V11" s="8">
+      <c r="W11" s="8">
         <v>27.975000000000001</v>
       </c>
-      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="8"/>
+      <c r="AC11" s="3"/>
       <c r="AD11" s="8"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1686,61 +1717,62 @@
       <c r="G12" s="5">
         <v>3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
         <v>54058</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>11.753</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <v>21.8</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>1.7</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>57</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>594</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S12">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T12">
         <v>10</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" s="8">
         <v>-27.095549999999999</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <v>29.77055</v>
       </c>
-      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="8"/>
+      <c r="AC12" s="3"/>
       <c r="AD12" s="8"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1762,61 +1794,62 @@
       <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
         <v>55154</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>11.004</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K13" s="13">
         <v>23.3</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>1.9</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>57</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>594</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T13">
         <v>10</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13" s="8">
         <v>-27.095549999999999</v>
       </c>
-      <c r="V13" s="8">
+      <c r="W13" s="8">
         <v>29.77055</v>
       </c>
-      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="8"/>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="8"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1838,61 +1871,62 @@
       <c r="G14" s="5">
         <v>6</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
         <v>51502</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>11.654</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="13">
         <v>11.4</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>57</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>594</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S14">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T14">
         <v>10</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14" s="8">
         <v>-23.667770000000001</v>
       </c>
-      <c r="V14" s="8">
+      <c r="W14" s="8">
         <v>27.612770000000001</v>
       </c>
-      <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="3"/>
       <c r="AD14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE14" s="8"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1900,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1914,61 +1948,62 @@
       <c r="G15" s="5">
         <v>6</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
         <v>48580</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>11.034000000000001</v>
       </c>
-      <c r="J15" s="13">
+      <c r="K15" s="13">
         <v>22.9</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>2.4</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>57</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>594</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S15">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T15">
         <v>10</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15" s="8">
         <v>-26.280360000000002</v>
       </c>
-      <c r="V15" s="8">
+      <c r="W15" s="8">
         <v>29.142289999999999</v>
       </c>
-      <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="3"/>
       <c r="AD15" s="8"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE15" s="8"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1976,10 +2011,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E16" s="5">
         <v>722</v>
@@ -1990,61 +2025,62 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="6">
+        <v>9.8119999999999994</v>
+      </c>
+      <c r="K16" s="13">
+        <v>16.3</v>
+      </c>
+      <c r="L16" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>80</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="6">
-        <v>9.8119999999999994</v>
-      </c>
-      <c r="J16" s="13">
-        <v>16.3</v>
-      </c>
-      <c r="K16" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>80</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S16">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T16">
         <v>10</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16" s="8">
         <v>-23.42</v>
       </c>
-      <c r="V16" s="8">
+      <c r="W16" s="8">
         <v>27.33</v>
       </c>
-      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-      <c r="AC16" s="8"/>
+      <c r="AC16" s="3"/>
       <c r="AD16" s="8"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE16" s="8"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2052,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -2066,61 +2102,62 @@
       <c r="G17" s="5">
         <v>6</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9"/>
+      <c r="I17" s="11">
         <v>51136</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>10.917999999999999</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <v>26</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>3.2</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>57</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <v>594</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T17">
         <v>10</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17" s="8">
         <v>-26.775649999999999</v>
       </c>
-      <c r="V17" s="8">
+      <c r="W17" s="8">
         <v>29.352119999999999</v>
       </c>
-      <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
-      <c r="AC17" s="8"/>
+      <c r="AC17" s="3"/>
       <c r="AD17" s="8"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE17" s="8"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2128,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -2142,69 +2179,70 @@
       <c r="G18" s="5">
         <v>50</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="9"/>
+      <c r="I18" s="14">
         <v>49064</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="6">
+        <v>85</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="6">
         <v>700</v>
       </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>86</v>
+      <c r="N18" s="6">
+        <v>0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S18">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T18">
         <v>10</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18" s="5">
         <v>-31.501799999999999</v>
       </c>
-      <c r="V18" s="8">
+      <c r="W18" s="8">
         <v>18.1143</v>
       </c>
-      <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="8"/>
+      <c r="AC18" s="3"/>
       <c r="AD18" s="8"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE18" s="8"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -2219,61 +2257,62 @@
       <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9"/>
+      <c r="I19" s="11">
         <v>52597</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>11.111000000000001</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>8.1</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="6">
         <v>37</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>968</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19">
+        <v>85</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6</v>
       </c>
-      <c r="U19" s="8">
+      <c r="V19" s="8">
         <v>-33.673659999999998</v>
       </c>
-      <c r="V19" s="8">
+      <c r="W19" s="8">
         <v>18.42811</v>
       </c>
-      <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="8"/>
+      <c r="AC19" s="3"/>
       <c r="AD19" s="8"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE19" s="8"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2281,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2295,63 +2334,64 @@
       <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>86</v>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
         <v>201</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>73.7</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <f>G20</f>
         <v>4</v>
       </c>
-      <c r="P20" s="6">
-        <f t="shared" ref="P20:P22" si="0">F20</f>
+      <c r="Q20" s="6">
+        <f t="shared" ref="Q20:Q22" si="0">F20</f>
         <v>250</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <v>21.7</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S20">
+      <c r="S20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>2.4</v>
       </c>
-      <c r="U20" s="8">
+      <c r="V20" s="8">
         <v>-28.562830000000002</v>
       </c>
-      <c r="V20" s="8">
+      <c r="W20" s="8">
         <v>29.082750000000001</v>
       </c>
-      <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="8"/>
+      <c r="AC20" s="3"/>
       <c r="AD20" s="8"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE20" s="8"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2359,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2373,63 +2413,64 @@
       <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>86</v>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="6">
+        <v>85</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="6">
         <v>78</v>
       </c>
-      <c r="O21" s="6">
-        <f t="shared" ref="O21:O69" si="1">G21</f>
+      <c r="P21" s="6">
+        <f t="shared" ref="P21:P69" si="1">G21</f>
         <v>4</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <v>27.4</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S21">
+      <c r="S21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2.4</v>
       </c>
-      <c r="U21" s="8">
+      <c r="V21" s="8">
         <v>-28.164999999999999</v>
       </c>
-      <c r="V21" s="8">
+      <c r="W21" s="8">
         <v>29.351199999999999</v>
       </c>
-      <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
-      <c r="AC21" s="8"/>
+      <c r="AC21" s="3"/>
       <c r="AD21" s="8"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE21" s="8"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2437,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2451,63 +2492,64 @@
       <c r="G22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>86</v>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>201</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <v>77.900000000000006</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <v>10</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S22">
+      <c r="S22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2.4</v>
       </c>
-      <c r="U22" s="8">
+      <c r="V22" s="8">
         <v>-34.197220000000002</v>
       </c>
-      <c r="V22" s="8">
+      <c r="W22" s="8">
         <v>18.973610000000001</v>
       </c>
-      <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="3"/>
       <c r="AD22" s="8"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE22" s="8"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2515,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2529,61 +2571,62 @@
       <c r="G23" s="5">
         <v>4</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>86</v>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="6">
+        <v>85</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="6">
         <v>30</v>
       </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>86</v>
+      <c r="N23" s="6">
+        <v>0</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S23">
+        <v>85</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2.4</v>
       </c>
-      <c r="U23" s="8">
+      <c r="V23" s="8">
         <v>-30.62396</v>
       </c>
-      <c r="V23" s="8">
+      <c r="W23" s="8">
         <v>25.50403</v>
       </c>
-      <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="3"/>
       <c r="AD23" s="8"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE23" s="8"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2591,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -2605,61 +2648,62 @@
       <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>86</v>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="6">
+        <v>85</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="6">
         <v>30</v>
       </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>86</v>
+      <c r="N24" s="6">
+        <v>0</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S24">
+        <v>85</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2.4</v>
       </c>
-      <c r="U24" s="8">
+      <c r="V24" s="8">
         <v>-29.993369999999999</v>
       </c>
-      <c r="V24" s="8">
+      <c r="W24" s="8">
         <v>24.733840000000001</v>
       </c>
-      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="8"/>
+      <c r="AC24" s="3"/>
       <c r="AD24" s="8"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE24" s="8"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2667,7 +2711,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -2681,61 +2725,62 @@
       <c r="G25" s="5">
         <v>3</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9"/>
+      <c r="I25" s="12">
         <v>46022</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>11.519</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>270</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <v>3.4</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>161</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S25">
+        <v>85</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T25">
         <v>6.9</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U25" s="8">
+      <c r="V25" s="8">
         <v>-33.884079999999997</v>
       </c>
-      <c r="V25" s="8">
+      <c r="W25" s="8">
         <v>18.533609999999999</v>
       </c>
-      <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="8"/>
+      <c r="AC25" s="3"/>
       <c r="AD25" s="8"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE25" s="8"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2743,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -2757,61 +2802,62 @@
       <c r="G26" s="5">
         <v>9</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="9"/>
+      <c r="I26" s="12">
         <v>50040</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>11.519</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>250</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>9</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>2</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>161</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S26">
+        <v>85</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26">
         <v>6.9</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U26" s="8">
+      <c r="V26" s="8">
         <v>-33.591999999999999</v>
       </c>
-      <c r="V26" s="8">
+      <c r="W26" s="8">
         <v>18.460699999999999</v>
       </c>
-      <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="8"/>
+      <c r="AC26" s="3"/>
       <c r="AD26" s="8"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE26" s="8"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2819,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -2833,61 +2879,62 @@
       <c r="G27" s="5">
         <v>5</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="9"/>
+      <c r="I27" s="12">
         <v>50040</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>11.519</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>250</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>9</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>2</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>161</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27">
+        <v>85</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T27">
         <v>6.9</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U27" s="8">
+      <c r="V27" s="8">
         <v>-34.165260000000004</v>
       </c>
-      <c r="V27" s="8">
+      <c r="W27" s="8">
         <v>21.96077</v>
       </c>
-      <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="8"/>
+      <c r="AC27" s="3"/>
       <c r="AD27" s="8"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE27" s="8"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2895,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -2909,61 +2956,62 @@
       <c r="G28" s="5">
         <v>3</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="9"/>
+      <c r="I28" s="12">
         <v>46022</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>11.519</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>270</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>3.4</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>2</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>161</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S28">
+        <v>85</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T28">
         <v>6.9</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U28" s="8">
+      <c r="V28" s="8">
         <v>-33.027389999999997</v>
       </c>
-      <c r="V28" s="8">
+      <c r="W28" s="8">
         <v>27.88382</v>
       </c>
-      <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="8"/>
+      <c r="AC28" s="3"/>
       <c r="AD28" s="8"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE28" s="8"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2971,7 +3019,7 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -2980,58 +3028,63 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="5">
+        <v>85</v>
+      </c>
+      <c r="H29" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="5">
         <v>32</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="6">
         <v>1650</v>
       </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>86</v>
+      <c r="N29" s="6">
+        <v>0</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S29">
+        <v>85</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T29">
         <v>6</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>4</v>
       </c>
-      <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="8"/>
+      <c r="AC29" s="3"/>
       <c r="AD29" s="8"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE29" s="8"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3039,7 +3092,7 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -3048,57 +3101,63 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="5">
+        <v>85</v>
+      </c>
+      <c r="H30" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="5">
         <v>32</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="6">
         <v>1610</v>
       </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>86</v>
+      <c r="N30" s="6">
+        <v>0</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S30">
+        <v>85</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30">
         <v>6</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>4</v>
       </c>
-      <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-      <c r="AC30" s="8"/>
+      <c r="AC30" s="3"/>
       <c r="AD30" s="8"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE30" s="8"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3106,7 +3165,7 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -3115,57 +3174,63 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="5">
+        <v>85</v>
+      </c>
+      <c r="H31" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="5">
         <v>32</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="6">
         <v>1610</v>
       </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>86</v>
+      <c r="N31" s="6">
+        <v>0</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S31">
+        <v>85</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T31">
         <v>6</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4</v>
       </c>
-      <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-      <c r="AC31" s="8"/>
+      <c r="AC31" s="3"/>
       <c r="AD31" s="8"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE31" s="8"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3182,63 +3247,67 @@
         <v>50</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f>I31</f>
+        <v>beyond 2050</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="6">
+        <v>85</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="6">
         <v>3324</v>
       </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>86</v>
+      <c r="N32" s="6">
+        <v>0</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R32" s="6">
+        <v>85</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S32" s="6">
         <v>9</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>8</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8">
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
         <v>-28.432696</v>
       </c>
-      <c r="V32" s="8">
+      <c r="W32" s="8">
         <v>21.593488000000001</v>
       </c>
-      <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="8"/>
+      <c r="AC32" s="3"/>
       <c r="AD32" s="8"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE32" s="8"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3255,63 +3324,70 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H33" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" ref="I33:I47" si="2">I32</f>
+        <v>beyond 2050</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="6">
+        <v>85</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="6">
         <v>3114</v>
       </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>86</v>
+      <c r="N33" s="6">
+        <v>0</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R33" s="6">
+        <v>85</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S33" s="6">
         <v>6</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>8</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33" s="8">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
         <v>-27.872260000000001</v>
       </c>
-      <c r="V33" s="8">
+      <c r="W33" s="8">
         <v>26.68751</v>
       </c>
-      <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="8"/>
+      <c r="AC33" s="3"/>
       <c r="AD33" s="8"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE33" s="8"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3328,57 +3404,64 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H34" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="6">
+        <v>85</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M34" s="6">
         <v>2902</v>
       </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>86</v>
+      <c r="N34" s="6">
+        <v>0</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R34" s="6">
+        <v>85</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="6">
         <v>6</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>8</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="W34" s="3"/>
+      <c r="U34">
+        <v>0</v>
+      </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="8"/>
+      <c r="AC34" s="3"/>
       <c r="AD34" s="8"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE34" s="8"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -3395,63 +3478,67 @@
         <v>100</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L35" s="6">
+        <v>85</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" s="6">
         <v>3554</v>
       </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>86</v>
+      <c r="N35" s="6">
+        <v>0</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R35" s="6">
+        <v>85</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S35" s="6">
         <v>3</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>8</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35" s="8">
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
         <v>-28.525200000000002</v>
       </c>
-      <c r="V35" s="8">
+      <c r="W35" s="8">
         <v>19.3535</v>
       </c>
-      <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="8"/>
+      <c r="AC35" s="3"/>
       <c r="AD35" s="8"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE35" s="8"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3468,63 +3555,67 @@
         <v>50</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L36" s="6">
+        <v>85</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="6">
         <v>3554</v>
       </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>86</v>
+      <c r="N36" s="6">
+        <v>0</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R36" s="6">
+        <v>85</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S36" s="6">
         <v>6</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>8</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
         <v>-28.321400000000001</v>
       </c>
-      <c r="V36" s="8">
+      <c r="W36" s="8">
         <v>21.439</v>
       </c>
-      <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="8"/>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="8"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE36" s="8"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3541,57 +3632,64 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H37" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" s="6">
+        <v>85</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" s="6">
         <v>2902</v>
       </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>86</v>
+      <c r="N37" s="6">
+        <v>0</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R37" s="6">
+        <v>85</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S37" s="6">
         <v>9</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>8</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="W37" s="3"/>
+      <c r="U37">
+        <v>0</v>
+      </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="8"/>
+      <c r="AC37" s="3"/>
       <c r="AD37" s="8"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE37" s="8"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3608,57 +3706,64 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H38" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L38" s="6">
+        <v>85</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="6">
         <v>2020</v>
       </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>86</v>
+      <c r="N38" s="6">
+        <v>0</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R38" s="6">
+        <v>85</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S38" s="6">
         <v>9</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>8</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="W38" s="3"/>
+      <c r="U38">
+        <v>0</v>
+      </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-      <c r="AC38" s="8"/>
+      <c r="AC38" s="3"/>
       <c r="AD38" s="8"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE38" s="8"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -3675,57 +3780,61 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L39" s="6">
+        <v>85</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" s="6">
         <v>3114</v>
       </c>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>86</v>
+      <c r="N39" s="6">
+        <v>0</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R39" s="6">
+        <v>85</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S39" s="6">
         <v>6</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>8</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="W39" s="3"/>
+      <c r="U39">
+        <v>0</v>
+      </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-      <c r="AC39" s="8"/>
+      <c r="AC39" s="3"/>
       <c r="AD39" s="8"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE39" s="8"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3733,7 +3842,7 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -3742,57 +3851,61 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L40" s="6">
+        <v>85</v>
+      </c>
+      <c r="I40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="6">
         <v>1109</v>
       </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>86</v>
+      <c r="N40" s="6">
+        <v>0</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S40">
+        <v>85</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T40">
         <v>5</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>10</v>
       </c>
-      <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-      <c r="AC40" s="8"/>
+      <c r="AC40" s="3"/>
       <c r="AD40" s="8"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE40" s="8"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3800,7 +3913,7 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3809,57 +3922,64 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L41" s="6">
+        <v>85</v>
+      </c>
+      <c r="H41" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I41" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="6">
         <v>1109</v>
       </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>86</v>
+      <c r="N41" s="6">
+        <v>0</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S41">
+        <v>85</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T41">
         <v>5</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>10</v>
       </c>
-      <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
-      <c r="AC41" s="8"/>
+      <c r="AC41" s="3"/>
       <c r="AD41" s="8"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE41" s="8"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3867,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -3876,57 +3996,61 @@
         <v>627</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I42" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L42" s="6">
+        <v>85</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" s="6">
         <v>3649</v>
       </c>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>86</v>
+      <c r="N42" s="6">
+        <v>0</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S42">
+        <v>85</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T42">
         <v>5</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3"/>
+      <c r="U42">
+        <v>0</v>
+      </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
-      <c r="AC42" s="8"/>
+      <c r="AC42" s="3"/>
       <c r="AD42" s="8"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE42" s="8"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3934,7 +4058,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -3943,57 +4067,61 @@
         <v>417</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I43" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L43" s="6">
+        <v>85</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M43" s="6">
         <v>2176</v>
       </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>86</v>
+      <c r="N43" s="6">
+        <v>0</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S43">
+        <v>85</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T43">
         <v>5</v>
       </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3"/>
+      <c r="U43">
+        <v>0</v>
+      </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="8"/>
+      <c r="AC43" s="3"/>
       <c r="AD43" s="8"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE43" s="8"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4001,7 +4129,7 @@
         <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4010,57 +4138,61 @@
         <v>435</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I44" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L44" s="6">
+        <v>85</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" s="6">
         <v>1165</v>
       </c>
-      <c r="M44" s="6">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>86</v>
+      <c r="N44" s="6">
+        <v>0</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S44">
+        <v>85</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T44">
         <v>5</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3"/>
+      <c r="U44">
+        <v>0</v>
+      </c>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="8"/>
+      <c r="AC44" s="3"/>
       <c r="AD44" s="8"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE44" s="8"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4068,7 +4200,7 @@
         <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -4077,57 +4209,64 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H45" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I45" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L45" s="6">
+        <v>85</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M45" s="6">
         <v>872</v>
       </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>86</v>
+      <c r="N45" s="6">
+        <v>0</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S45">
+        <v>85</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T45">
         <v>5</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3"/>
+      <c r="U45">
+        <v>0</v>
+      </c>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-      <c r="AC45" s="8"/>
+      <c r="AC45" s="3"/>
       <c r="AD45" s="8"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE45" s="8"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4135,7 +4274,7 @@
         <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -4144,57 +4283,64 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H46" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I46" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L46" s="6">
+        <v>85</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M46" s="6">
         <v>946</v>
       </c>
-      <c r="M46" s="6">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>86</v>
+      <c r="N46" s="6">
+        <v>0</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S46">
+        <v>85</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T46">
         <v>5</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3"/>
+      <c r="U46">
+        <v>0</v>
+      </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-      <c r="AC46" s="8"/>
+      <c r="AC46" s="3"/>
       <c r="AD46" s="8"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE46" s="8"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4202,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -4211,57 +4357,64 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H47" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I47" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L47" s="6">
+        <v>85</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M47" s="6">
         <v>617</v>
       </c>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>86</v>
+      <c r="N47" s="6">
+        <v>0</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S47">
+        <v>85</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T47">
         <v>5</v>
       </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3"/>
+      <c r="U47">
+        <v>0</v>
+      </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
-      <c r="AC47" s="8"/>
+      <c r="AC47" s="3"/>
       <c r="AD47" s="8"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE47" s="8"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -4269,7 +4422,7 @@
         <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -4278,60 +4431,60 @@
         <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L48" s="6">
+        <v>85</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M48" s="6">
         <v>1363</v>
       </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>86</v>
+      <c r="N48" s="6">
+        <v>0</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S48">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
-      <c r="W48" s="3"/>
+      <c r="U48">
+        <v>3</v>
+      </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="8"/>
+      <c r="AC48" s="3"/>
       <c r="AD48" s="8"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE48" s="8"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4339,7 +4492,7 @@
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -4348,60 +4501,64 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H49" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I49" s="10" t="str">
+        <f>I48</f>
+        <v>beyond 2050</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L49" s="6">
+        <v>85</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49" s="6">
         <v>1240</v>
       </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>86</v>
+      <c r="N49" s="6">
+        <v>0</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S49">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
-      <c r="W49" s="3"/>
+      <c r="U49">
+        <v>3</v>
+      </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
-      <c r="AC49" s="8"/>
+      <c r="AC49" s="3"/>
       <c r="AD49" s="8"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE49" s="8"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4409,7 +4566,7 @@
         <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -4418,60 +4575,64 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H50" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I50" s="10" t="str">
+        <f t="shared" ref="I50:I69" si="3">I49</f>
+        <v>beyond 2050</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L50" s="6">
+        <v>85</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" s="6">
         <v>1240</v>
       </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>86</v>
+      <c r="N50" s="6">
+        <v>0</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S50">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
-      <c r="W50" s="3"/>
+      <c r="U50">
+        <v>3</v>
+      </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
-      <c r="AC50" s="8"/>
+      <c r="AC50" s="3"/>
       <c r="AD50" s="8"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE50" s="8"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4479,7 +4640,7 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -4488,57 +4649,61 @@
         <v>634</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I51" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L51" s="6">
+        <v>85</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" s="6">
         <v>1513</v>
       </c>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>86</v>
+      <c r="N51" s="6">
+        <v>0</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S51">
+        <v>85</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T51">
         <v>6</v>
       </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="W51" s="3"/>
+      <c r="U51">
+        <v>0</v>
+      </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
-      <c r="AC51" s="8"/>
+      <c r="AC51" s="3"/>
       <c r="AD51" s="8"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE51" s="8"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4546,7 +4711,7 @@
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -4555,57 +4720,61 @@
         <v>564</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I52" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L52" s="6">
+        <v>85</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M52" s="6">
         <v>1186</v>
       </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>86</v>
+      <c r="N52" s="6">
+        <v>0</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S52">
+        <v>85</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T52">
         <v>6</v>
       </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3"/>
+      <c r="U52">
+        <v>0</v>
+      </c>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
-      <c r="AC52" s="8"/>
+      <c r="AC52" s="3"/>
       <c r="AD52" s="8"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE52" s="8"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -4613,7 +4782,7 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -4622,57 +4791,61 @@
         <v>154</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I53" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L53" s="6">
+        <v>85</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M53" s="6">
         <v>868</v>
       </c>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>86</v>
+      <c r="N53" s="6">
+        <v>0</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S53">
+        <v>85</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T53">
         <v>6</v>
       </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="W53" s="3"/>
+      <c r="U53">
+        <v>0</v>
+      </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
-      <c r="AC53" s="8"/>
+      <c r="AC53" s="3"/>
       <c r="AD53" s="8"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE53" s="8"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4680,7 +4853,7 @@
         <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -4689,57 +4862,64 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H54" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I54" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L54" s="6">
+        <v>85</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M54" s="6">
         <v>687</v>
       </c>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>86</v>
+      <c r="N54" s="6">
+        <v>0</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S54">
+        <v>85</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T54">
         <v>6</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3"/>
+      <c r="U54">
+        <v>0</v>
+      </c>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
-      <c r="AC54" s="8"/>
+      <c r="AC54" s="3"/>
       <c r="AD54" s="8"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE54" s="8"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -4747,7 +4927,7 @@
         <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -4756,57 +4936,64 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H55" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I55" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L55" s="6">
+        <v>85</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M55" s="6">
         <v>801</v>
       </c>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>86</v>
+      <c r="N55" s="6">
+        <v>0</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S55">
+        <v>85</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T55">
         <v>6</v>
       </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="W55" s="3"/>
+      <c r="U55">
+        <v>0</v>
+      </c>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-      <c r="AC55" s="8"/>
+      <c r="AC55" s="3"/>
       <c r="AD55" s="8"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE55" s="8"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -4814,7 +5001,7 @@
         <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -4823,57 +5010,64 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="H56" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I56" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L56" s="6">
+        <v>85</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" s="6">
         <v>617</v>
       </c>
-      <c r="M56" s="6">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>86</v>
+      <c r="N56" s="6">
+        <v>0</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S56">
+        <v>85</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T56">
         <v>6</v>
       </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="W56" s="3"/>
+      <c r="U56">
+        <v>0</v>
+      </c>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-      <c r="AC56" s="8"/>
+      <c r="AC56" s="3"/>
       <c r="AD56" s="8"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE56" s="8"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -4881,7 +5075,7 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -4893,57 +5087,61 @@
         <v>153</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="6">
+        <v>85</v>
+      </c>
+      <c r="H57" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I57" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J57" s="6">
         <v>10.788</v>
       </c>
-      <c r="J57" s="5">
+      <c r="K57" s="5">
         <v>13.7</v>
       </c>
-      <c r="K57" s="6">
+      <c r="L57" s="6">
         <v>3.06</v>
       </c>
-      <c r="L57" s="6">
+      <c r="M57" s="6">
         <v>173</v>
       </c>
-      <c r="M57" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="N57" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S57">
+        <v>85</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T57">
         <v>6</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>5</v>
       </c>
-      <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
-      <c r="AC57" s="8"/>
+      <c r="AC57" s="3"/>
       <c r="AD57" s="8"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE57" s="8"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -4951,7 +5149,7 @@
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -4963,57 +5161,61 @@
         <v>140</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I58" s="6">
+        <v>85</v>
+      </c>
+      <c r="H58" s="12">
+        <v>46023</v>
+      </c>
+      <c r="I58" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J58" s="6">
         <v>10.788</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>13.7</v>
       </c>
-      <c r="K58" s="6">
+      <c r="L58" s="6">
         <v>2.7865000000000002</v>
       </c>
-      <c r="L58" s="6">
+      <c r="M58" s="6">
         <v>173</v>
       </c>
-      <c r="M58" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="N58" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S58">
+        <v>85</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T58">
         <v>6</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>5</v>
       </c>
-      <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
-      <c r="AC58" s="8"/>
+      <c r="AC58" s="3"/>
       <c r="AD58" s="8"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE58" s="8"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -5021,7 +5223,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -5030,63 +5232,67 @@
         <v>160</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I59" s="6">
+        <v>85</v>
+      </c>
+      <c r="I59" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J59" s="6">
         <v>12.372</v>
       </c>
-      <c r="J59" s="5">
+      <c r="K59" s="5">
         <v>13.7</v>
       </c>
-      <c r="K59" s="6">
+      <c r="L59" s="6">
         <v>0.5</v>
       </c>
-      <c r="L59" s="6">
+      <c r="M59" s="6">
         <v>80</v>
       </c>
-      <c r="M59" s="6">
-        <v>0</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>86</v>
+      <c r="N59" s="6">
+        <v>0</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S59">
+        <v>85</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T59">
         <v>10</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>15</v>
       </c>
-      <c r="U59" s="8">
+      <c r="V59" s="8">
         <v>-26.658000000000001</v>
       </c>
-      <c r="V59" s="8">
+      <c r="W59" s="8">
         <v>28.113800000000001</v>
       </c>
-      <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
-      <c r="AC59" s="8"/>
+      <c r="AC59" s="3"/>
       <c r="AD59" s="8"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE59" s="8"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -5094,7 +5300,7 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -5103,63 +5309,67 @@
         <v>600</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60" s="6">
+        <v>85</v>
+      </c>
+      <c r="I60" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J60" s="6">
         <v>12.372</v>
       </c>
-      <c r="J60" s="5">
+      <c r="K60" s="5">
         <v>13.7</v>
       </c>
-      <c r="K60" s="6">
+      <c r="L60" s="6">
         <v>0.5</v>
       </c>
-      <c r="L60" s="6">
+      <c r="M60" s="6">
         <v>900</v>
       </c>
-      <c r="M60" s="6">
-        <v>0</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>86</v>
+      <c r="N60" s="6">
+        <v>0</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S60">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T60">
         <v>10</v>
       </c>
-      <c r="U60" s="5">
+      <c r="U60">
+        <v>10</v>
+      </c>
+      <c r="V60" s="5">
         <v>-26.503599999999999</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>29.180299999999999</v>
       </c>
-      <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
-      <c r="AC60" s="8"/>
+      <c r="AC60" s="3"/>
       <c r="AD60" s="8"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE60" s="8"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -5167,7 +5377,7 @@
         <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -5181,58 +5391,62 @@
       <c r="G61" s="5">
         <v>4</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J61" s="6">
         <v>11.519</v>
       </c>
-      <c r="J61" s="5">
+      <c r="K61" s="5">
         <v>250</v>
       </c>
-      <c r="K61" s="6">
+      <c r="L61" s="6">
         <v>11</v>
       </c>
-      <c r="L61" s="6">
+      <c r="M61" s="6">
         <v>2</v>
       </c>
-      <c r="M61" s="6">
+      <c r="N61" s="6">
         <v>101</v>
       </c>
-      <c r="N61" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S61">
+        <v>85</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T61">
         <v>6.9</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U61" s="8">
+      <c r="V61" s="8">
         <v>-29.251000000000001</v>
       </c>
-      <c r="V61" s="8">
+      <c r="W61" s="8">
         <v>31.094100000000001</v>
       </c>
-      <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
-      <c r="AC61" s="8"/>
+      <c r="AC61" s="3"/>
       <c r="AD61" s="8"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE61" s="8"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -5240,7 +5454,7 @@
         <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -5254,58 +5468,62 @@
       <c r="G62" s="5">
         <v>2</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J62" s="6">
         <v>11.519</v>
       </c>
-      <c r="J62" s="5">
+      <c r="K62" s="5">
         <v>250</v>
       </c>
-      <c r="K62" s="6">
+      <c r="L62" s="6">
         <v>11</v>
       </c>
-      <c r="L62" s="6">
+      <c r="M62" s="6">
         <v>2</v>
       </c>
-      <c r="M62" s="6">
+      <c r="N62" s="6">
         <v>101</v>
       </c>
-      <c r="N62" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O62" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S62">
+        <v>85</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T62">
         <v>6.9</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U62" s="8">
+      <c r="V62" s="8">
         <v>-33.443300000000001</v>
       </c>
-      <c r="V62" s="8">
+      <c r="W62" s="8">
         <v>25.402200000000001</v>
       </c>
-      <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
-      <c r="AC62" s="8"/>
+      <c r="AC62" s="3"/>
       <c r="AD62" s="8"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE62" s="8"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -5313,7 +5531,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -5327,58 +5545,62 @@
       <c r="G63" s="5">
         <v>18</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J63" s="6">
         <v>7.6</v>
       </c>
-      <c r="J63" s="5">
+      <c r="K63" s="5">
         <v>200</v>
       </c>
-      <c r="K63" s="6">
+      <c r="L63" s="6">
         <v>8</v>
       </c>
-      <c r="L63" s="6">
+      <c r="M63" s="6">
         <v>950</v>
       </c>
-      <c r="M63" s="6">
-        <v>0</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>86</v>
+      <c r="N63" s="6">
+        <v>0</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S63">
+        <v>85</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T63">
         <v>6.9</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U63" s="5">
+      <c r="V63" s="5">
         <v>-26.810199999999998</v>
       </c>
-      <c r="V63" s="8">
+      <c r="W63" s="8">
         <v>27.8277</v>
       </c>
-      <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
-      <c r="AC63" s="8"/>
+      <c r="AC63" s="3"/>
       <c r="AD63" s="8"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE63" s="8"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -5386,7 +5608,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -5400,58 +5622,62 @@
       <c r="G64" s="5">
         <v>5</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
+      </c>
+      <c r="J64" s="6">
         <v>11.519</v>
       </c>
-      <c r="J64" s="5">
+      <c r="K64" s="5">
         <v>200</v>
       </c>
-      <c r="K64" s="6">
+      <c r="L64" s="6">
         <v>2</v>
       </c>
-      <c r="L64" s="6">
+      <c r="M64" s="6">
         <v>950</v>
       </c>
-      <c r="M64" s="6">
-        <v>0</v>
-      </c>
-      <c r="N64" s="6" t="s">
-        <v>86</v>
+      <c r="N64" s="6">
+        <v>0</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S64">
+        <v>85</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T64">
         <v>6.9</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U64" s="5">
+      <c r="V64" s="5">
         <v>-26.810199999999998</v>
       </c>
-      <c r="V64" s="8">
+      <c r="W64" s="8">
         <v>27.8277</v>
       </c>
-      <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
-      <c r="AC64" s="8"/>
+      <c r="AC64" s="3"/>
       <c r="AD64" s="8"/>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE64" s="8"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -5459,7 +5685,7 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -5473,52 +5699,56 @@
       <c r="G65" s="5">
         <v>6</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>86</v>
+      <c r="I65" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L65" s="6">
+        <v>85</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M65" s="6">
         <v>300</v>
       </c>
-      <c r="M65" s="6">
-        <v>0</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>86</v>
+      <c r="N65" s="6">
+        <v>0</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S65">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="S65" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
-      <c r="W65" s="3"/>
+      <c r="U65">
+        <v>3</v>
+      </c>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
-      <c r="AC65" s="8"/>
+      <c r="AC65" s="3"/>
       <c r="AD65" s="8"/>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE65" s="8"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -5526,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -5540,61 +5770,62 @@
       <c r="G66" s="5">
         <v>1</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>86</v>
+      <c r="I66" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L66" s="6">
+        <v>85</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M66" s="6">
         <v>300</v>
       </c>
-      <c r="M66" s="6">
-        <v>0</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>86</v>
+      <c r="N66" s="6">
+        <v>0</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S66">
-        <v>5</v>
+        <v>85</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T66">
         <v>5</v>
       </c>
-      <c r="U66" s="8">
+      <c r="U66">
+        <v>5</v>
+      </c>
+      <c r="V66" s="8">
         <v>-32.049999999999997</v>
       </c>
-      <c r="V66" s="8">
+      <c r="W66" s="8">
         <v>28.58333</v>
       </c>
-      <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
-      <c r="AC66" s="8"/>
+      <c r="AC66" s="3"/>
       <c r="AD66" s="8"/>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE66" s="8"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -5602,7 +5833,7 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -5616,52 +5847,56 @@
       <c r="G67" s="5">
         <v>4</v>
       </c>
-      <c r="I67" s="5" t="s">
-        <v>86</v>
+      <c r="I67" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K67" s="6">
+        <v>85</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L67" s="6">
         <v>0.5</v>
       </c>
-      <c r="L67" s="6">
+      <c r="M67" s="6">
         <v>500</v>
       </c>
-      <c r="M67" s="6">
-        <v>0</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>86</v>
+      <c r="N67" s="6">
+        <v>0</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S67">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T67">
         <v>10</v>
       </c>
-      <c r="W67" s="3"/>
+      <c r="U67">
+        <v>10</v>
+      </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-      <c r="AC67" s="8"/>
+      <c r="AC67" s="3"/>
       <c r="AD67" s="8"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE67" s="8"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -5669,7 +5904,7 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -5683,58 +5918,62 @@
       <c r="G68" s="5">
         <v>4</v>
       </c>
-      <c r="I68" s="5" t="s">
-        <v>86</v>
+      <c r="I68" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K68" s="6">
+        <v>85</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L68" s="6">
         <v>0.5</v>
       </c>
-      <c r="L68" s="6">
+      <c r="M68" s="6">
         <v>500</v>
       </c>
-      <c r="M68" s="6">
-        <v>0</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>86</v>
+      <c r="N68" s="6">
+        <v>0</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S68">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="T68">
         <v>10</v>
       </c>
-      <c r="U68" s="5">
+      <c r="U68">
+        <v>10</v>
+      </c>
+      <c r="V68" s="5">
         <v>-25.3447</v>
       </c>
-      <c r="V68" s="8">
+      <c r="W68" s="8">
         <v>30.393999999999998</v>
       </c>
-      <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
-      <c r="AC68" s="8"/>
+      <c r="AC68" s="3"/>
       <c r="AD68" s="8"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE68" s="8"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -5742,7 +5981,7 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -5756,899 +5995,790 @@
       <c r="G69" s="5">
         <v>4</v>
       </c>
-      <c r="H69" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>86</v>
+      <c r="I69" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond 2050</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L69" s="6">
+        <v>85</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M69" s="6">
         <v>300</v>
       </c>
-      <c r="M69" s="6">
-        <v>0</v>
-      </c>
       <c r="N69" s="6">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
         <v>72</v>
       </c>
-      <c r="O69" s="6">
+      <c r="P69" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P69" s="6">
-        <f t="shared" ref="P69" si="2">F69</f>
+      <c r="Q69" s="6">
+        <f t="shared" ref="Q69" si="4">F69</f>
         <v>45</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="R69" s="6">
         <v>2.7</v>
       </c>
-      <c r="R69" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S69">
+      <c r="S69" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T69">
         <v>3</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>2.4</v>
       </c>
-      <c r="U69" s="8">
+      <c r="V69" s="8">
         <v>-34.152999999999999</v>
       </c>
-      <c r="V69" s="8">
+      <c r="W69" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
-      <c r="AC69" s="8"/>
+      <c r="AC69" s="3"/>
       <c r="AD69" s="8"/>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="N70" s="6"/>
+      <c r="AE69" s="8"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="N70" s="3"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
-      <c r="W70" s="3"/>
+      <c r="R70" s="6"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
-      <c r="AC70" s="8"/>
+      <c r="AC70" s="3"/>
       <c r="AD70" s="8"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="N71" s="6"/>
+      <c r="AE70" s="8"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="N71" s="3"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
-      <c r="W71" s="3"/>
+      <c r="R71" s="6"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
-      <c r="AC71" s="8"/>
+      <c r="AC71" s="3"/>
       <c r="AD71" s="8"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>81</v>
-      </c>
+      <c r="AE71" s="8"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="N72" s="3"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
-      <c r="W72" s="3"/>
+      <c r="R72" s="6"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
-      <c r="AC72" s="8"/>
+      <c r="AC72" s="3"/>
       <c r="AD72" s="8"/>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE72" s="8"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="N73" s="3"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
-      <c r="W73" s="3"/>
+      <c r="R73" s="6"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
-      <c r="AC73" s="8"/>
+      <c r="AC73" s="3"/>
       <c r="AD73" s="8"/>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="6"/>
+      <c r="AE73" s="8"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="N74" s="3"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
-      <c r="W74" s="3"/>
+      <c r="R74" s="6"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
-      <c r="AC74" s="8"/>
+      <c r="AC74" s="3"/>
       <c r="AD74" s="8"/>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="6"/>
+      <c r="AE74" s="8"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="N75" s="3"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
-      <c r="W75" s="3"/>
+      <c r="R75" s="6"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
-      <c r="AC75" s="8"/>
+      <c r="AC75" s="3"/>
       <c r="AD75" s="8"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="6"/>
+      <c r="AE75" s="8"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
-      <c r="W76" s="3"/>
+      <c r="R76" s="6"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
-      <c r="AC76" s="8"/>
+      <c r="AC76" s="3"/>
       <c r="AD76" s="8"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="6"/>
+      <c r="AE76" s="8"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
-      <c r="W77" s="3"/>
+      <c r="R77" s="6"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
-      <c r="AC77" s="8"/>
+      <c r="AC77" s="3"/>
       <c r="AD77" s="8"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="6"/>
+      <c r="AE77" s="8"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
-      <c r="W78" s="3"/>
+      <c r="R78" s="6"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
-      <c r="AC78" s="8"/>
+      <c r="AC78" s="3"/>
       <c r="AD78" s="8"/>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="6"/>
+      <c r="AE78" s="8"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
-      <c r="W79" s="3"/>
+      <c r="R79" s="6"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
-      <c r="AC79" s="8"/>
+      <c r="AC79" s="3"/>
       <c r="AD79" s="8"/>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="M80" s="3"/>
-      <c r="N80" s="6"/>
+      <c r="AE79" s="8"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
-      <c r="W80" s="3"/>
+      <c r="R80" s="6"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
-      <c r="AC80" s="8"/>
+      <c r="AC80" s="3"/>
       <c r="AD80" s="8"/>
-    </row>
-    <row r="81" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="M81" s="3"/>
-      <c r="N81" s="6"/>
+      <c r="AE80" s="8"/>
+    </row>
+    <row r="81" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
-      <c r="W81" s="3"/>
+      <c r="R81" s="6"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
-      <c r="AC81" s="8"/>
+      <c r="AC81" s="3"/>
       <c r="AD81" s="8"/>
-    </row>
-    <row r="82" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="M82" s="3"/>
-      <c r="N82" s="6"/>
+      <c r="AE81" s="8"/>
+    </row>
+    <row r="82" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
-      <c r="W82" s="3"/>
+      <c r="R82" s="6"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-      <c r="AC82" s="8"/>
+      <c r="AC82" s="3"/>
       <c r="AD82" s="8"/>
-    </row>
-    <row r="83" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N83" s="6"/>
+      <c r="AE82" s="8"/>
+    </row>
+    <row r="83" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
-      <c r="W83" s="3"/>
+      <c r="R83" s="6"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
-      <c r="AC83" s="8"/>
+      <c r="AC83" s="3"/>
       <c r="AD83" s="8"/>
-    </row>
-    <row r="84" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N84" s="6"/>
+      <c r="AE83" s="8"/>
+    </row>
+    <row r="84" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
-      <c r="W84" s="3"/>
+      <c r="R84" s="6"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
-      <c r="AC84" s="8"/>
+      <c r="AC84" s="3"/>
       <c r="AD84" s="8"/>
-    </row>
-    <row r="85" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N85" s="6"/>
+      <c r="AE84" s="8"/>
+    </row>
+    <row r="85" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
-      <c r="W85" s="3"/>
+      <c r="R85" s="6"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
-      <c r="AC85" s="8"/>
+      <c r="AC85" s="3"/>
       <c r="AD85" s="8"/>
-    </row>
-    <row r="86" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N86" s="6"/>
+      <c r="AE85" s="8"/>
+    </row>
+    <row r="86" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
-      <c r="W86" s="3"/>
+      <c r="R86" s="6"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
-      <c r="AC86" s="8"/>
+      <c r="AC86" s="3"/>
       <c r="AD86" s="8"/>
-    </row>
-    <row r="87" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N87" s="6"/>
+      <c r="AE86" s="8"/>
+    </row>
+    <row r="87" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
-      <c r="W87" s="3"/>
+      <c r="R87" s="6"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
-      <c r="AC87" s="8"/>
+      <c r="AC87" s="3"/>
       <c r="AD87" s="8"/>
-    </row>
-    <row r="88" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N88" s="6"/>
+      <c r="AE87" s="8"/>
+    </row>
+    <row r="88" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
-      <c r="W88" s="3"/>
+      <c r="R88" s="6"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
-      <c r="AC88" s="8"/>
+      <c r="AC88" s="3"/>
       <c r="AD88" s="8"/>
-    </row>
-    <row r="89" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N89" s="6"/>
+      <c r="AE88" s="8"/>
+    </row>
+    <row r="89" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
-      <c r="W89" s="3"/>
+      <c r="R89" s="6"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
-      <c r="AC89" s="8"/>
+      <c r="AC89" s="3"/>
       <c r="AD89" s="8"/>
-    </row>
-    <row r="90" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N90" s="6"/>
+      <c r="AE89" s="8"/>
+    </row>
+    <row r="90" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-      <c r="W90" s="3"/>
+      <c r="R90" s="6"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-      <c r="AC90" s="8"/>
+      <c r="AC90" s="3"/>
       <c r="AD90" s="8"/>
-    </row>
-    <row r="91" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N91" s="6"/>
+      <c r="AE90" s="8"/>
+    </row>
+    <row r="91" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
-      <c r="W91" s="3"/>
+      <c r="R91" s="6"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
-      <c r="AC91" s="8"/>
+      <c r="AC91" s="3"/>
       <c r="AD91" s="8"/>
-    </row>
-    <row r="92" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N92" s="6"/>
+      <c r="AE91" s="8"/>
+    </row>
+    <row r="92" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-      <c r="W92" s="3"/>
+      <c r="R92" s="6"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
-      <c r="AC92" s="8"/>
+      <c r="AC92" s="3"/>
       <c r="AD92" s="8"/>
-    </row>
-    <row r="93" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N93" s="6"/>
+      <c r="AE92" s="8"/>
+    </row>
+    <row r="93" spans="15:31" x14ac:dyDescent="0.35">
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-      <c r="W93" s="3"/>
+      <c r="R93" s="6"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
-      <c r="AC93" s="8"/>
+      <c r="AC93" s="3"/>
       <c r="AD93" s="8"/>
-    </row>
-    <row r="94" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
+      <c r="AE93" s="8"/>
+    </row>
+    <row r="94" spans="15:31" x14ac:dyDescent="0.35">
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-      <c r="W94" s="3"/>
+      <c r="R94" s="6"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
-      <c r="AC94" s="8"/>
+      <c r="AC94" s="3"/>
       <c r="AD94" s="8"/>
-    </row>
-    <row r="95" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
+      <c r="AE94" s="8"/>
+    </row>
+    <row r="95" spans="15:31" x14ac:dyDescent="0.35">
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-      <c r="W95" s="3"/>
+      <c r="R95" s="6"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-      <c r="AC95" s="8"/>
+      <c r="AC95" s="3"/>
       <c r="AD95" s="8"/>
-    </row>
-    <row r="96" spans="13:30" x14ac:dyDescent="0.35">
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
+      <c r="AE95" s="8"/>
+    </row>
+    <row r="96" spans="15:31" x14ac:dyDescent="0.35">
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-      <c r="W96" s="3"/>
+      <c r="R96" s="6"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
-      <c r="AC96" s="8"/>
+      <c r="AC96" s="3"/>
       <c r="AD96" s="8"/>
-    </row>
-    <row r="97" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
+      <c r="AE96" s="8"/>
+    </row>
+    <row r="97" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
-      <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="8"/>
-      <c r="AD97" s="8"/>
-    </row>
-    <row r="98" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
+      <c r="R97" s="6"/>
+    </row>
+    <row r="98" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="8"/>
-      <c r="AD98" s="8"/>
-    </row>
-    <row r="99" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
+      <c r="R98" s="6"/>
+    </row>
+    <row r="99" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="8"/>
-      <c r="AD99" s="8"/>
-    </row>
-    <row r="100" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
+      <c r="R99" s="6"/>
+    </row>
+    <row r="100" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="8"/>
-      <c r="AD100" s="8"/>
-    </row>
-    <row r="101" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O101" s="6"/>
+      <c r="R100" s="6"/>
+    </row>
+    <row r="101" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="8"/>
-      <c r="AD101" s="8"/>
-    </row>
-    <row r="102" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O102" s="6"/>
+      <c r="R101" s="6"/>
+    </row>
+    <row r="102" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="8"/>
-      <c r="AD102" s="8"/>
-    </row>
-    <row r="103" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O103" s="6"/>
+      <c r="R102" s="6"/>
+    </row>
+    <row r="103" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
-      <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="8"/>
-      <c r="AD103" s="8"/>
-    </row>
-    <row r="104" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O104" s="6"/>
+      <c r="R103" s="6"/>
+    </row>
+    <row r="104" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
-    </row>
-    <row r="105" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O105" s="6"/>
+      <c r="R104" s="6"/>
+    </row>
+    <row r="105" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O106" s="6"/>
+      <c r="R105" s="6"/>
+    </row>
+    <row r="106" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
-    </row>
-    <row r="107" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O107" s="6"/>
+      <c r="R106" s="6"/>
+    </row>
+    <row r="107" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
-    </row>
-    <row r="108" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O108" s="6"/>
+      <c r="R107" s="6"/>
+    </row>
+    <row r="108" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
-    </row>
-    <row r="109" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O109" s="6"/>
+      <c r="R108" s="6"/>
+    </row>
+    <row r="109" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
-    </row>
-    <row r="110" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O110" s="6"/>
+      <c r="R109" s="6"/>
+    </row>
+    <row r="110" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
-    </row>
-    <row r="111" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O111" s="6"/>
+      <c r="R110" s="6"/>
+    </row>
+    <row r="111" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
-    </row>
-    <row r="112" spans="14:30" x14ac:dyDescent="0.35">
-      <c r="O112" s="6"/>
+      <c r="R111" s="6"/>
+    </row>
+    <row r="112" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
-    </row>
-    <row r="113" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O113" s="6"/>
+      <c r="R112" s="6"/>
+    </row>
+    <row r="113" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
-    </row>
-    <row r="114" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O114" s="6"/>
+      <c r="R113" s="6"/>
+    </row>
+    <row r="114" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
-    </row>
-    <row r="115" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O115" s="6"/>
+      <c r="R114" s="6"/>
+    </row>
+    <row r="115" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
-    </row>
-    <row r="116" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O116" s="6"/>
+      <c r="R115" s="6"/>
+    </row>
+    <row r="116" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
-    </row>
-    <row r="117" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O117" s="6"/>
+      <c r="R116" s="6"/>
+    </row>
+    <row r="117" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
-    </row>
-    <row r="118" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O118" s="6"/>
+      <c r="R117" s="6"/>
+    </row>
+    <row r="118" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
-    </row>
-    <row r="119" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O119" s="6"/>
+      <c r="R118" s="6"/>
+    </row>
+    <row r="119" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
-    </row>
-    <row r="120" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O120" s="6"/>
+      <c r="R119" s="6"/>
+    </row>
+    <row r="120" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
-    </row>
-    <row r="121" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O121" s="6"/>
+      <c r="R120" s="6"/>
+    </row>
+    <row r="121" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
-    </row>
-    <row r="122" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O122" s="6"/>
+      <c r="R121" s="6"/>
+    </row>
+    <row r="122" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
-    </row>
-    <row r="123" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O123" s="6"/>
+      <c r="R122" s="6"/>
+    </row>
+    <row r="123" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
-    </row>
-    <row r="124" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O124" s="6"/>
+      <c r="R123" s="6"/>
+    </row>
+    <row r="124" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
-    </row>
-    <row r="125" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O125" s="6"/>
+      <c r="R124" s="6"/>
+    </row>
+    <row r="125" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
-    </row>
-    <row r="126" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O126" s="6"/>
+      <c r="R125" s="6"/>
+    </row>
+    <row r="126" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
-    </row>
-    <row r="127" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O127" s="6"/>
+      <c r="R126" s="6"/>
+    </row>
+    <row r="127" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
-    </row>
-    <row r="128" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O128" s="6"/>
+      <c r="R127" s="6"/>
+    </row>
+    <row r="128" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
-    </row>
-    <row r="129" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O129" s="6"/>
+      <c r="R128" s="6"/>
+    </row>
+    <row r="129" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
-    </row>
-    <row r="130" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O130" s="6"/>
+      <c r="R129" s="6"/>
+    </row>
+    <row r="130" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
-    </row>
-    <row r="131" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O131" s="6"/>
+      <c r="R130" s="6"/>
+    </row>
+    <row r="131" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
-    </row>
-    <row r="132" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O132" s="6"/>
+      <c r="R131" s="6"/>
+    </row>
+    <row r="132" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
-    </row>
-    <row r="133" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O133" s="6"/>
+      <c r="R132" s="6"/>
+    </row>
+    <row r="133" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
-    </row>
-    <row r="134" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O134" s="6"/>
+      <c r="R133" s="6"/>
+    </row>
+    <row r="134" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
-    </row>
-    <row r="135" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O135" s="6"/>
+      <c r="R134" s="6"/>
+    </row>
+    <row r="135" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
-    </row>
-    <row r="136" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O136" s="6"/>
+      <c r="R135" s="6"/>
+    </row>
+    <row r="136" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
-    </row>
-    <row r="137" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O137" s="6"/>
+      <c r="R136" s="6"/>
+    </row>
+    <row r="137" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
-    </row>
-    <row r="138" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O138" s="6"/>
+      <c r="R137" s="6"/>
+    </row>
+    <row r="138" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
-    </row>
-    <row r="139" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O139" s="6"/>
+      <c r="R138" s="6"/>
+    </row>
+    <row r="139" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
-    </row>
-    <row r="140" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O140" s="6"/>
+      <c r="R139" s="6"/>
+    </row>
+    <row r="140" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
-    </row>
-    <row r="141" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O141" s="6"/>
+      <c r="R140" s="6"/>
+    </row>
+    <row r="141" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
-    </row>
-    <row r="142" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O142" s="6"/>
+      <c r="R141" s="6"/>
+    </row>
+    <row r="142" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
-    </row>
-    <row r="143" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O143" s="6"/>
+      <c r="R142" s="6"/>
+    </row>
+    <row r="143" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
-    </row>
-    <row r="144" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O144" s="6"/>
+      <c r="R143" s="6"/>
+    </row>
+    <row r="144" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
-    </row>
-    <row r="145" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O145" s="6"/>
+      <c r="R144" s="6"/>
+    </row>
+    <row r="145" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
-    </row>
-    <row r="146" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O146" s="6"/>
+      <c r="R145" s="6"/>
+    </row>
+    <row r="146" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
-    </row>
-    <row r="147" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O147" s="6"/>
+      <c r="R146" s="6"/>
+    </row>
+    <row r="147" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
-    </row>
-    <row r="148" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O148" s="6"/>
+      <c r="R147" s="6"/>
+    </row>
+    <row r="148" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
-    </row>
-    <row r="149" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O149" s="6"/>
+      <c r="R148" s="6"/>
+    </row>
+    <row r="149" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
-    </row>
-    <row r="150" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O150" s="6"/>
+      <c r="R149" s="6"/>
+    </row>
+    <row r="150" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
-    </row>
-    <row r="151" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O151" s="6"/>
+      <c r="R150" s="6"/>
+    </row>
+    <row r="151" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
-    </row>
-    <row r="152" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O152" s="6"/>
+      <c r="R151" s="6"/>
+    </row>
+    <row r="152" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
-    </row>
-    <row r="153" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O153" s="6"/>
+      <c r="R152" s="6"/>
+    </row>
+    <row r="153" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
-    </row>
-    <row r="154" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O154" s="6"/>
+      <c r="R153" s="6"/>
+    </row>
+    <row r="154" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
-    </row>
-    <row r="155" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O155" s="6"/>
+      <c r="R154" s="6"/>
+    </row>
+    <row r="155" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
-    </row>
-    <row r="156" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O156" s="6"/>
+      <c r="R155" s="6"/>
+    </row>
+    <row r="156" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
-    </row>
-    <row r="157" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O157" s="6"/>
+      <c r="R156" s="6"/>
+    </row>
+    <row r="157" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
-    </row>
-    <row r="158" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O158" s="6"/>
+      <c r="R157" s="6"/>
+    </row>
+    <row r="158" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
-    </row>
-    <row r="159" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O159" s="6"/>
+      <c r="R158" s="6"/>
+    </row>
+    <row r="159" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
-    </row>
-    <row r="160" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O160" s="6"/>
+      <c r="R159" s="6"/>
+    </row>
+    <row r="160" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
-    </row>
-    <row r="161" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O161" s="6"/>
+      <c r="R160" s="6"/>
+    </row>
+    <row r="161" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
-    </row>
-    <row r="162" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O162" s="6"/>
+      <c r="R161" s="6"/>
+    </row>
+    <row r="162" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
-    </row>
-    <row r="163" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O163" s="6"/>
+      <c r="R162" s="6"/>
+    </row>
+    <row r="163" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
-    </row>
-    <row r="164" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-    </row>
-    <row r="165" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-    </row>
-    <row r="166" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
-    </row>
-    <row r="167" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O167" s="6"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="6"/>
-    </row>
-    <row r="168" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-    </row>
-    <row r="169" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O169" s="6"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-    </row>
-    <row r="170" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O170" s="6"/>
-      <c r="P170" s="6"/>
-      <c r="Q170" s="6"/>
+      <c r="R163" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Existing Power Stations SA.xlsx
+++ b/data/Existing Power Stations SA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BF476-78E8-482C-9BFA-54821EEE9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD220B-AE7E-4591-8924-E798F2F895D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="115">
   <si>
     <t>Owner</t>
   </si>
@@ -275,12 +275,6 @@
     <t>South African Municipality</t>
   </si>
   <si>
-    <t>Installed/ Operational Capacity in 2016 (MW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koeberg </t>
-  </si>
-  <si>
     <t>Unit size (MW)</t>
   </si>
   <si>
@@ -375,13 +369,22 @@
   </si>
   <si>
     <t>Commissioning Date</t>
+  </si>
+  <si>
+    <t>Koeberg</t>
+  </si>
+  <si>
+    <t>Installed/ Operational Capacity in 2022 (MW)</t>
+  </si>
+  <si>
+    <t>Min Stable Level (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +402,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,10 +437,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,9 +488,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE163"/>
+  <dimension ref="A1:AF163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,18 +851,18 @@
     <col min="7" max="7" width="8.90625" style="5"/>
     <col min="8" max="8" width="15.36328125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.08984375" style="5" customWidth="1"/>
-    <col min="10" max="12" width="11.08984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.90625" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" style="5" customWidth="1"/>
-    <col min="16" max="17" width="8.90625" style="5"/>
-    <col min="18" max="18" width="11.90625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="5"/>
-    <col min="22" max="22" width="11.08984375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="10" max="13" width="11.08984375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" style="5" customWidth="1"/>
+    <col min="17" max="18" width="8.90625" style="5"/>
+    <col min="19" max="19" width="11.90625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.90625" style="5"/>
+    <col min="23" max="23" width="11.08984375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -858,72 +876,75 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="8"/>
+      <c r="AD1" s="3"/>
       <c r="AE1" s="8"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -931,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="5">
-        <v>2220</v>
+        <v>2100</v>
       </c>
       <c r="F2" s="5">
         <v>370</v>
@@ -958,49 +979,52 @@
       <c r="L2" s="6">
         <v>2.1</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="6">
         <v>57</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>594</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U2">
         <v>10</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2" s="8">
         <v>-25.94444</v>
       </c>
-      <c r="W2" s="8">
+      <c r="X2" s="8">
         <v>29.79166</v>
       </c>
-      <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="8"/>
+      <c r="AD2" s="3"/>
       <c r="AE2" s="8"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF2" s="8"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1008,13 +1032,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>1520</v>
+        <v>1481</v>
       </c>
       <c r="F3" s="5">
         <v>190</v>
@@ -1035,49 +1059,52 @@
       <c r="L3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="6">
         <v>57</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>594</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U3">
         <v>10</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3" s="8">
         <v>-26.620069999999998</v>
       </c>
-      <c r="W3" s="8">
+      <c r="X3" s="8">
         <v>30.09113</v>
       </c>
-      <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
-      <c r="AD3" s="8"/>
+      <c r="AD3" s="3"/>
       <c r="AE3" s="8"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1085,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>2900</v>
+        <v>2875</v>
       </c>
       <c r="F4" s="5">
         <v>580</v>
@@ -1112,49 +1139,52 @@
       <c r="L4" s="6">
         <v>3.3</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="6">
         <v>57</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>594</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8">
         <v>-25.959540000000001</v>
       </c>
-      <c r="W4" s="8">
+      <c r="X4" s="8">
         <v>29.34094</v>
       </c>
-      <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="3"/>
       <c r="AE4" s="8"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF4" s="8"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1162,13 +1192,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>1080</v>
+        <v>570</v>
       </c>
       <c r="F5" s="5">
         <v>180</v>
@@ -1189,49 +1219,52 @@
       <c r="L5" s="6">
         <v>0.9</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="6">
         <v>57</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>594</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U5">
         <v>10</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5" s="8">
         <v>-26.769549999999999</v>
       </c>
-      <c r="W5" s="8">
+      <c r="X5" s="8">
         <v>28.499510000000001</v>
       </c>
-      <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="8"/>
+      <c r="AD5" s="3"/>
       <c r="AE5" s="8"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF5" s="8"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1239,13 +1272,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="5">
-        <v>1900</v>
+        <v>1098</v>
       </c>
       <c r="F6" s="5">
         <v>190</v>
@@ -1266,49 +1299,52 @@
       <c r="L6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="6">
         <v>57</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>594</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U6">
         <v>10</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6" s="8">
         <v>-26.031379999999999</v>
       </c>
-      <c r="W6" s="8">
+      <c r="X6" s="8">
         <v>29.601379999999999</v>
       </c>
-      <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="3"/>
       <c r="AE6" s="8"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF6" s="8"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1343,49 +1379,52 @@
       <c r="L7" s="6">
         <v>1.8</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="6">
         <v>57</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>594</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T7">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U7">
         <v>10</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7" s="8">
         <v>-26.088049999999999</v>
       </c>
-      <c r="W7" s="8">
+      <c r="X7" s="8">
         <v>28.968879999999999</v>
       </c>
-      <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="8"/>
+      <c r="AD7" s="3"/>
       <c r="AE7" s="8"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF7" s="8"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1393,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5">
-        <v>900</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5">
         <v>100</v>
@@ -1420,49 +1459,52 @@
       <c r="L8" s="6">
         <v>0.5</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="6">
         <v>57</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>594</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T8">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U8">
         <v>10</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8" s="8">
         <v>-26.090779999999999</v>
       </c>
-      <c r="W8" s="8">
+      <c r="X8" s="8">
         <v>29.474460000000001</v>
       </c>
-      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="8"/>
+      <c r="AD8" s="3"/>
       <c r="AE8" s="8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF8" s="8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1470,13 +1512,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5">
-        <v>2880</v>
+        <v>2850</v>
       </c>
       <c r="F9" s="5">
         <v>480</v>
@@ -1497,49 +1539,52 @@
       <c r="L9" s="6">
         <v>3.6</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="6">
         <v>57</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>594</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U9">
         <v>10</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9" s="8">
         <v>-26.25404</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <v>29.18008</v>
       </c>
-      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="8"/>
+      <c r="AD9" s="3"/>
       <c r="AE9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF9" s="8"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1547,13 +1592,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="F10" s="5">
         <v>723</v>
@@ -1565,7 +1610,7 @@
         <v>45658</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J10" s="6">
         <v>9.8119999999999994</v>
@@ -1576,49 +1621,52 @@
       <c r="L10" s="6">
         <v>7.2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="6">
         <v>80</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="O10" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U10">
         <v>10</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10" s="8">
         <v>-25.5459</v>
       </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
         <v>28.5502</v>
       </c>
-      <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="8"/>
+      <c r="AD10" s="3"/>
       <c r="AE10" s="8"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF10" s="8"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1626,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5">
-        <v>3540</v>
+        <v>3558</v>
       </c>
       <c r="F11" s="5">
         <v>590</v>
@@ -1653,49 +1701,52 @@
       <c r="L11" s="6">
         <v>5.9</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="6">
         <v>57</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>594</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T11">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U11">
         <v>10</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11" s="8">
         <v>-26.740269999999999</v>
       </c>
-      <c r="W11" s="8">
+      <c r="X11" s="8">
         <v>27.975000000000001</v>
       </c>
-      <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="8"/>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="8"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF11" s="8"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1703,13 +1754,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="5">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="F12" s="5">
         <v>610</v>
@@ -1730,49 +1781,52 @@
       <c r="L12" s="6">
         <v>1.7</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="6">
         <v>57</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>594</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U12">
         <v>10</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12" s="8">
         <v>-27.095549999999999</v>
       </c>
-      <c r="W12" s="8">
+      <c r="X12" s="8">
         <v>29.77055</v>
       </c>
-      <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="8"/>
+      <c r="AD12" s="3"/>
       <c r="AE12" s="8"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF12" s="8"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1780,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1807,49 +1861,52 @@
       <c r="L13" s="6">
         <v>1.9</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="6">
         <v>57</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>594</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U13">
         <v>10</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13" s="8">
         <v>-27.095549999999999</v>
       </c>
-      <c r="W13" s="8">
+      <c r="X13" s="8">
         <v>29.77055</v>
       </c>
-      <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="8"/>
+      <c r="AD13" s="3"/>
       <c r="AE13" s="8"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF13" s="8"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1857,13 +1914,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="5">
-        <v>3720</v>
+        <v>3690</v>
       </c>
       <c r="F14" s="5">
         <v>620</v>
@@ -1884,49 +1941,52 @@
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="6">
         <v>57</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>594</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14" s="8">
         <v>-23.667770000000001</v>
       </c>
-      <c r="W14" s="8">
+      <c r="X14" s="8">
         <v>27.612770000000001</v>
       </c>
-      <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="8"/>
+      <c r="AD14" s="3"/>
       <c r="AE14" s="8"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF14" s="8"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1934,13 +1994,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="5">
-        <v>3480</v>
+        <v>3450</v>
       </c>
       <c r="F15" s="5">
         <v>580</v>
@@ -1961,49 +2021,52 @@
       <c r="L15" s="6">
         <v>2.4</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="6">
         <v>57</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>594</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P15" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U15">
         <v>10</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15" s="8">
         <v>-26.280360000000002</v>
       </c>
-      <c r="W15" s="8">
+      <c r="X15" s="8">
         <v>29.142289999999999</v>
       </c>
-      <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="8"/>
+      <c r="AD15" s="3"/>
       <c r="AE15" s="8"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF15" s="8"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2074,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="5">
-        <v>722</v>
+        <v>3597</v>
       </c>
       <c r="F16" s="5">
         <v>722</v>
@@ -2027,7 +2090,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J16" s="6">
         <v>9.8119999999999994</v>
@@ -2038,49 +2101,52 @@
       <c r="L16" s="6">
         <v>7.2</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="6">
         <v>80</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="O16" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U16">
         <v>10</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16" s="8">
         <v>-23.42</v>
       </c>
-      <c r="W16" s="8">
+      <c r="X16" s="8">
         <v>27.33</v>
       </c>
-      <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="8"/>
+      <c r="AD16" s="3"/>
       <c r="AE16" s="8"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF16" s="8"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2088,13 +2154,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="5">
-        <v>3480</v>
+        <v>3510</v>
       </c>
       <c r="F17" s="5">
         <v>580</v>
@@ -2115,49 +2181,52 @@
       <c r="L17" s="6">
         <v>3.2</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="6">
         <v>57</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>594</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T17">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U17">
         <v>10</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17">
+        <v>10</v>
+      </c>
+      <c r="W17" s="8">
         <v>-26.775649999999999</v>
       </c>
-      <c r="W17" s="8">
+      <c r="X17" s="8">
         <v>29.352119999999999</v>
       </c>
-      <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="8"/>
+      <c r="AD17" s="3"/>
       <c r="AE17" s="8"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF17" s="8"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2165,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -2184,72 +2253,74 @@
         <v>49064</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="6">
+        <v>83</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="6">
         <v>700</v>
       </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>85</v>
+      <c r="O18" s="6">
+        <v>0</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T18">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U18">
         <v>10</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18" s="5">
         <v>-31.501799999999999</v>
       </c>
-      <c r="W18" s="8">
+      <c r="X18" s="8">
         <v>18.1143</v>
       </c>
-      <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="8"/>
+      <c r="AD18" s="3"/>
       <c r="AE18" s="8"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF18" s="8"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="5">
-        <f>930*2</f>
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="F19" s="5">
         <v>930</v>
@@ -2268,51 +2339,54 @@
         <v>8.1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="6">
+        <v>83</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="6">
         <v>37</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <v>968</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T19">
+        <v>83</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6</v>
       </c>
-      <c r="V19" s="8">
+      <c r="W19" s="8">
         <v>-33.673659999999998</v>
       </c>
-      <c r="W19" s="8">
+      <c r="X19" s="8">
         <v>18.42811</v>
       </c>
-      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="8"/>
+      <c r="AD19" s="3"/>
       <c r="AE19" s="8"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF19" s="8"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2320,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2336,62 +2410,65 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
         <v>201</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>73.7</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <f>G20</f>
         <v>4</v>
       </c>
-      <c r="Q20" s="6">
-        <f t="shared" ref="Q20:Q22" si="0">F20</f>
+      <c r="R20" s="6">
+        <f t="shared" ref="R20:R22" si="0">F20</f>
         <v>250</v>
       </c>
-      <c r="R20" s="6">
+      <c r="S20" s="6">
         <v>21.7</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T20">
+      <c r="T20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20">
         <v>3</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2.4</v>
       </c>
-      <c r="V20" s="8">
+      <c r="W20" s="8">
         <v>-28.562830000000002</v>
       </c>
-      <c r="W20" s="8">
+      <c r="X20" s="8">
         <v>29.082750000000001</v>
       </c>
-      <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="8"/>
+      <c r="AD20" s="3"/>
       <c r="AE20" s="8"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF20" s="8"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2399,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2415,62 +2492,65 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <v>78</v>
       </c>
-      <c r="P21" s="6">
-        <f t="shared" ref="P21:P69" si="1">G21</f>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21:Q69" si="1">G21</f>
         <v>4</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="R21" s="6">
+      <c r="S21" s="6">
         <v>27.4</v>
       </c>
-      <c r="S21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21">
+      <c r="T21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2.4</v>
       </c>
-      <c r="V21" s="8">
+      <c r="W21" s="8">
         <v>-28.164999999999999</v>
       </c>
-      <c r="W21" s="8">
+      <c r="X21" s="8">
         <v>29.351199999999999</v>
       </c>
-      <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="8"/>
+      <c r="AD21" s="3"/>
       <c r="AE21" s="8"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF21" s="8"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2478,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2494,62 +2574,65 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
         <v>201</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <v>77.900000000000006</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="R22" s="6">
+      <c r="S22" s="6">
         <v>10</v>
       </c>
-      <c r="S22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T22">
+      <c r="T22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2.4</v>
       </c>
-      <c r="V22" s="8">
+      <c r="W22" s="8">
         <v>-34.197220000000002</v>
       </c>
-      <c r="W22" s="8">
+      <c r="X22" s="8">
         <v>18.973610000000001</v>
       </c>
-      <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="8"/>
+      <c r="AD22" s="3"/>
       <c r="AE22" s="8"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF22" s="8"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2557,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2573,60 +2656,63 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="6">
+        <v>83</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="6">
         <v>30</v>
       </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>85</v>
+      <c r="O23" s="6">
+        <v>0</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T23">
+        <v>83</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2.4</v>
       </c>
-      <c r="V23" s="8">
+      <c r="W23" s="8">
         <v>-30.62396</v>
       </c>
-      <c r="W23" s="8">
+      <c r="X23" s="8">
         <v>25.50403</v>
       </c>
-      <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-      <c r="AD23" s="8"/>
+      <c r="AD23" s="3"/>
       <c r="AE23" s="8"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF23" s="8"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2634,7 +2720,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -2650,60 +2736,63 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" s="6">
+        <v>83</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="6">
         <v>30</v>
       </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>85</v>
+      <c r="O24" s="6">
+        <v>0</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T24">
+        <v>83</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U24">
         <v>3</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2.4</v>
       </c>
-      <c r="V24" s="8">
+      <c r="W24" s="8">
         <v>-29.993369999999999</v>
       </c>
-      <c r="W24" s="8">
+      <c r="X24" s="8">
         <v>24.733840000000001</v>
       </c>
-      <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="8"/>
+      <c r="AD24" s="3"/>
       <c r="AE24" s="8"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF24" s="8"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2711,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -2738,49 +2827,52 @@
       <c r="L25" s="6">
         <v>3.4</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N25" s="6">
         <v>2</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <v>161</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P25" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T25">
+        <v>83</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U25">
         <v>6.9</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V25" s="8">
+      <c r="W25" s="8">
         <v>-33.884079999999997</v>
       </c>
-      <c r="W25" s="8">
+      <c r="X25" s="8">
         <v>18.533609999999999</v>
       </c>
-      <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="8"/>
+      <c r="AD25" s="3"/>
       <c r="AE25" s="8"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF25" s="8"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2788,13 +2880,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="5">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="F26" s="5">
         <v>148</v>
@@ -2815,49 +2907,52 @@
       <c r="L26" s="6">
         <v>9</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="6">
         <v>2</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <v>161</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P26" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T26">
+        <v>83</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26">
         <v>6.9</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V26" s="8">
+      <c r="W26" s="8">
         <v>-33.591999999999999</v>
       </c>
-      <c r="W26" s="8">
+      <c r="X26" s="8">
         <v>18.460699999999999</v>
       </c>
-      <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="8"/>
+      <c r="AD26" s="3"/>
       <c r="AE26" s="8"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF26" s="8"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2865,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -2892,49 +2987,52 @@
       <c r="L27" s="6">
         <v>9</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" s="6">
         <v>2</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <v>161</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P27" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T27">
+        <v>83</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U27">
         <v>6.9</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V27" s="8">
+      <c r="W27" s="8">
         <v>-34.165260000000004</v>
       </c>
-      <c r="W27" s="8">
+      <c r="X27" s="8">
         <v>21.96077</v>
       </c>
-      <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="8"/>
+      <c r="AD27" s="3"/>
       <c r="AE27" s="8"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF27" s="8"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2942,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -2969,49 +3067,52 @@
       <c r="L28" s="6">
         <v>3.4</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="6">
         <v>2</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <v>161</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P28" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T28">
+        <v>83</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28">
         <v>6.9</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V28" s="8">
+      <c r="W28" s="8">
         <v>-33.027389999999997</v>
       </c>
-      <c r="W28" s="8">
+      <c r="X28" s="8">
         <v>27.88382</v>
       </c>
-      <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="8"/>
+      <c r="AD28" s="3"/>
       <c r="AE28" s="8"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF28" s="8"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -3019,7 +3120,7 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -3028,63 +3129,66 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H29" s="12">
         <v>46023</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K29" s="5">
         <v>32</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="6">
+        <v>83</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="6">
         <v>1650</v>
       </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>85</v>
+      <c r="O29" s="6">
+        <v>0</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T29">
+        <v>83</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U29">
         <v>6</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>4</v>
       </c>
-      <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="8"/>
+      <c r="AD29" s="3"/>
       <c r="AE29" s="8"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF29" s="8"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3092,7 +3196,7 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -3101,63 +3205,66 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H30" s="12">
         <v>46023</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K30" s="5">
         <v>32</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="6">
+        <v>83</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="6">
         <v>1610</v>
       </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>85</v>
+      <c r="O30" s="6">
+        <v>0</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T30">
+        <v>83</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U30">
         <v>6</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4</v>
       </c>
-      <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="8"/>
+      <c r="AD30" s="3"/>
       <c r="AE30" s="8"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF30" s="8"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3165,7 +3272,7 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -3174,63 +3281,66 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H31" s="12">
         <v>46023</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K31" s="5">
         <v>32</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="6">
+        <v>83</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="6">
         <v>1610</v>
       </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>85</v>
+      <c r="O31" s="6">
+        <v>0</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T31">
+        <v>83</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U31">
         <v>6</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4</v>
       </c>
-      <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="8"/>
+      <c r="AD31" s="3"/>
       <c r="AE31" s="8"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF31" s="8"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3247,67 +3357,70 @@
         <v>50</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="10" t="str">
         <f>I31</f>
         <v>beyond 2050</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M32" s="6">
+        <v>83</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N32" s="6">
         <v>3324</v>
       </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>85</v>
+      <c r="O32" s="6">
+        <v>0</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S32" s="6">
+        <v>83</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T32" s="6">
         <v>9</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>8</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32" s="8">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" s="8">
         <v>-28.432696</v>
       </c>
-      <c r="W32" s="8">
+      <c r="X32" s="8">
         <v>21.593488000000001</v>
       </c>
-      <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="8"/>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="8"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF32" s="8"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3324,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H33" s="12">
         <v>46023</v>
@@ -3337,57 +3450,60 @@
         <v>beyond 2050</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" s="6">
+        <v>83</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" s="6">
         <v>3114</v>
       </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>85</v>
+      <c r="O33" s="6">
+        <v>0</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S33" s="6">
+        <v>83</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T33" s="6">
         <v>6</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>8</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33" s="8">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
         <v>-27.872260000000001</v>
       </c>
-      <c r="W33" s="8">
+      <c r="X33" s="8">
         <v>26.68751</v>
       </c>
-      <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="8"/>
+      <c r="AD33" s="3"/>
       <c r="AE33" s="8"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF33" s="8"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3404,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34" s="12">
         <v>46023</v>
@@ -3417,51 +3533,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M34" s="6">
+        <v>83</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="6">
         <v>2902</v>
       </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>85</v>
+      <c r="O34" s="6">
+        <v>0</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S34" s="6">
+        <v>83</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T34" s="6">
         <v>6</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>8</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="X34" s="3"/>
+      <c r="V34">
+        <v>0</v>
+      </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-      <c r="AD34" s="8"/>
+      <c r="AD34" s="3"/>
       <c r="AE34" s="8"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF34" s="8"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -3478,67 +3597,70 @@
         <v>100</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M35" s="6">
+        <v>83</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="6">
         <v>3554</v>
       </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>85</v>
+      <c r="O35" s="6">
+        <v>0</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S35" s="6">
+        <v>83</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T35" s="6">
         <v>3</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>8</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35" s="8">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
         <v>-28.525200000000002</v>
       </c>
-      <c r="W35" s="8">
+      <c r="X35" s="8">
         <v>19.3535</v>
       </c>
-      <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="8"/>
+      <c r="AD35" s="3"/>
       <c r="AE35" s="8"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF35" s="8"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3555,67 +3677,70 @@
         <v>50</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M36" s="6">
+        <v>83</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="6">
         <v>3554</v>
       </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>85</v>
+      <c r="O36" s="6">
+        <v>0</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S36" s="6">
+        <v>83</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T36" s="6">
         <v>6</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>8</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
         <v>-28.321400000000001</v>
       </c>
-      <c r="W36" s="8">
+      <c r="X36" s="8">
         <v>21.439</v>
       </c>
-      <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AD36" s="8"/>
+      <c r="AD36" s="3"/>
       <c r="AE36" s="8"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF36" s="8"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -3632,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H37" s="12">
         <v>46023</v>
@@ -3645,51 +3770,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M37" s="6">
+        <v>83</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N37" s="6">
         <v>2902</v>
       </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>85</v>
+      <c r="O37" s="6">
+        <v>0</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S37" s="6">
+        <v>83</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T37" s="6">
         <v>9</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>8</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="X37" s="3"/>
+      <c r="V37">
+        <v>0</v>
+      </c>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-      <c r="AD37" s="8"/>
+      <c r="AD37" s="3"/>
       <c r="AE37" s="8"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF37" s="8"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3706,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H38" s="12">
         <v>46023</v>
@@ -3719,51 +3847,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M38" s="6">
+        <v>83</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="6">
         <v>2020</v>
       </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>85</v>
+      <c r="O38" s="6">
+        <v>0</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S38" s="6">
+        <v>83</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T38" s="6">
         <v>9</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>8</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3"/>
+      <c r="V38">
+        <v>0</v>
+      </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="8"/>
+      <c r="AD38" s="3"/>
       <c r="AE38" s="8"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF38" s="8"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -3780,61 +3911,64 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M39" s="6">
+        <v>83</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="6">
         <v>3114</v>
       </c>
-      <c r="N39" s="6">
-        <v>0</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>85</v>
+      <c r="O39" s="6">
+        <v>0</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S39" s="6">
+        <v>83</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="6">
         <v>6</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>8</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="X39" s="3"/>
+      <c r="V39">
+        <v>0</v>
+      </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-      <c r="AD39" s="8"/>
+      <c r="AD39" s="3"/>
       <c r="AE39" s="8"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF39" s="8"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3842,7 +3976,7 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -3851,61 +3985,64 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K40" s="5">
         <v>0</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M40" s="6">
+        <v>83</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N40" s="6">
         <v>1109</v>
       </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>85</v>
+      <c r="O40" s="6">
+        <v>0</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T40">
+        <v>83</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U40">
         <v>5</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>10</v>
       </c>
-      <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-      <c r="AD40" s="8"/>
+      <c r="AD40" s="3"/>
       <c r="AE40" s="8"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF40" s="8"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3913,7 +4050,7 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3922,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H41" s="12">
         <v>46023</v>
@@ -3935,51 +4072,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K41" s="5">
         <v>0</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="6">
+        <v>83</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="6">
         <v>1109</v>
       </c>
-      <c r="N41" s="6">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>85</v>
+      <c r="O41" s="6">
+        <v>0</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T41">
+        <v>83</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U41">
         <v>5</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>10</v>
       </c>
-      <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="8"/>
+      <c r="AD41" s="3"/>
       <c r="AE41" s="8"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF41" s="8"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3987,7 +4127,7 @@
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -3996,61 +4136,64 @@
         <v>627</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="6">
+        <v>83</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="6">
         <v>3649</v>
       </c>
-      <c r="N42" s="6">
-        <v>0</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>85</v>
+      <c r="O42" s="6">
+        <v>0</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T42">
+        <v>83</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U42">
         <v>5</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3"/>
+      <c r="V42">
+        <v>0</v>
+      </c>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="8"/>
+      <c r="AD42" s="3"/>
       <c r="AE42" s="8"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF42" s="8"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4058,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -4067,61 +4210,64 @@
         <v>417</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M43" s="6">
+        <v>83</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N43" s="6">
         <v>2176</v>
       </c>
-      <c r="N43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>85</v>
+      <c r="O43" s="6">
+        <v>0</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T43">
+        <v>83</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U43">
         <v>5</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3"/>
+      <c r="V43">
+        <v>0</v>
+      </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="8"/>
+      <c r="AD43" s="3"/>
       <c r="AE43" s="8"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF43" s="8"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4129,7 +4275,7 @@
         <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4138,61 +4284,64 @@
         <v>435</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M44" s="6">
+        <v>83</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="6">
         <v>1165</v>
       </c>
-      <c r="N44" s="6">
-        <v>0</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>85</v>
+      <c r="O44" s="6">
+        <v>0</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T44">
+        <v>83</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U44">
         <v>5</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3"/>
+      <c r="V44">
+        <v>0</v>
+      </c>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="8"/>
+      <c r="AD44" s="3"/>
       <c r="AE44" s="8"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF44" s="8"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4200,7 +4349,7 @@
         <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -4209,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H45" s="12">
         <v>46023</v>
@@ -4222,51 +4371,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M45" s="6">
+        <v>83</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45" s="6">
         <v>872</v>
       </c>
-      <c r="N45" s="6">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>85</v>
+      <c r="O45" s="6">
+        <v>0</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T45">
+        <v>83</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U45">
         <v>5</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3"/>
+      <c r="V45">
+        <v>0</v>
+      </c>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="8"/>
+      <c r="AD45" s="3"/>
       <c r="AE45" s="8"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF45" s="8"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -4274,7 +4426,7 @@
         <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -4283,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H46" s="12">
         <v>46023</v>
@@ -4296,51 +4448,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M46" s="6">
+        <v>83</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N46" s="6">
         <v>946</v>
       </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>85</v>
+      <c r="O46" s="6">
+        <v>0</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T46">
+        <v>83</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U46">
         <v>5</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3"/>
+      <c r="V46">
+        <v>0</v>
+      </c>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-      <c r="AD46" s="8"/>
+      <c r="AD46" s="3"/>
       <c r="AE46" s="8"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF46" s="8"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -4348,7 +4503,7 @@
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -4357,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H47" s="12">
         <v>46023</v>
@@ -4370,51 +4525,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M47" s="6">
+        <v>83</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N47" s="6">
         <v>617</v>
       </c>
-      <c r="N47" s="6">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>85</v>
+      <c r="O47" s="6">
+        <v>0</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T47">
+        <v>83</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U47">
         <v>5</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3"/>
+      <c r="V47">
+        <v>0</v>
+      </c>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="8"/>
+      <c r="AD47" s="3"/>
       <c r="AE47" s="8"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF47" s="8"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -4422,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -4431,60 +4589,63 @@
         <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M48" s="6">
+        <v>83</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48" s="6">
         <v>1363</v>
       </c>
-      <c r="N48" s="6">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>85</v>
+      <c r="O48" s="6">
+        <v>0</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T48">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U48">
         <v>3</v>
       </c>
-      <c r="X48" s="3"/>
+      <c r="V48">
+        <v>3</v>
+      </c>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="8"/>
+      <c r="AD48" s="3"/>
       <c r="AE48" s="8"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF48" s="8"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4492,7 +4653,7 @@
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -4501,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H49" s="12">
         <v>46023</v>
@@ -4514,51 +4675,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M49" s="6">
+        <v>83</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N49" s="6">
         <v>1240</v>
       </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>85</v>
+      <c r="O49" s="6">
+        <v>0</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T49">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U49">
         <v>3</v>
       </c>
-      <c r="X49" s="3"/>
+      <c r="V49">
+        <v>3</v>
+      </c>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="8"/>
+      <c r="AD49" s="3"/>
       <c r="AE49" s="8"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF49" s="8"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4566,7 +4730,7 @@
         <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -4575,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H50" s="12">
         <v>46023</v>
@@ -4588,51 +4752,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M50" s="6">
+        <v>83</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="6">
         <v>1240</v>
       </c>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>85</v>
+      <c r="O50" s="6">
+        <v>0</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U50">
         <v>3</v>
       </c>
-      <c r="X50" s="3"/>
+      <c r="V50">
+        <v>3</v>
+      </c>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="8"/>
+      <c r="AD50" s="3"/>
       <c r="AE50" s="8"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF50" s="8"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -4640,7 +4807,7 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -4649,61 +4816,64 @@
         <v>634</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="10" t="str">
         <f t="shared" si="3"/>
         <v>beyond 2050</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M51" s="6">
+        <v>83</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="6">
         <v>1513</v>
       </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>85</v>
+      <c r="O51" s="6">
+        <v>0</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T51">
+        <v>83</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U51">
         <v>6</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="X51" s="3"/>
+      <c r="V51">
+        <v>0</v>
+      </c>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="8"/>
+      <c r="AD51" s="3"/>
       <c r="AE51" s="8"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF51" s="8"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4711,7 +4881,7 @@
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -4720,61 +4890,64 @@
         <v>564</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" s="10" t="str">
         <f t="shared" si="3"/>
         <v>beyond 2050</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M52" s="6">
+        <v>83</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N52" s="6">
         <v>1186</v>
       </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>85</v>
+      <c r="O52" s="6">
+        <v>0</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T52">
+        <v>83</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U52">
         <v>6</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3"/>
+      <c r="V52">
+        <v>0</v>
+      </c>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="8"/>
+      <c r="AD52" s="3"/>
       <c r="AE52" s="8"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF52" s="8"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -4782,7 +4955,7 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -4791,61 +4964,64 @@
         <v>154</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53" s="10" t="str">
         <f t="shared" si="3"/>
         <v>beyond 2050</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M53" s="6">
+        <v>83</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N53" s="6">
         <v>868</v>
       </c>
-      <c r="N53" s="6">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>85</v>
+      <c r="O53" s="6">
+        <v>0</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T53">
+        <v>83</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U53">
         <v>6</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="X53" s="3"/>
+      <c r="V53">
+        <v>0</v>
+      </c>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-      <c r="AD53" s="8"/>
+      <c r="AD53" s="3"/>
       <c r="AE53" s="8"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF53" s="8"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4853,7 +5029,7 @@
         <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -4862,10 +5038,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54" s="12">
         <v>46023</v>
@@ -4875,51 +5051,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M54" s="6">
+        <v>83</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54" s="6">
         <v>687</v>
       </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>85</v>
+      <c r="O54" s="6">
+        <v>0</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T54">
+        <v>83</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U54">
         <v>6</v>
       </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3"/>
+      <c r="V54">
+        <v>0</v>
+      </c>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-      <c r="AD54" s="8"/>
+      <c r="AD54" s="3"/>
       <c r="AE54" s="8"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF54" s="8"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -4927,7 +5106,7 @@
         <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -4936,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H55" s="12">
         <v>46023</v>
@@ -4949,51 +5128,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M55" s="6">
+        <v>83</v>
+      </c>
+      <c r="M55" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N55" s="6">
         <v>801</v>
       </c>
-      <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>85</v>
+      <c r="O55" s="6">
+        <v>0</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T55">
+        <v>83</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U55">
         <v>6</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="X55" s="3"/>
+      <c r="V55">
+        <v>0</v>
+      </c>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-      <c r="AD55" s="8"/>
+      <c r="AD55" s="3"/>
       <c r="AE55" s="8"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF55" s="8"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -5001,7 +5183,7 @@
         <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -5010,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H56" s="12">
         <v>46023</v>
@@ -5023,51 +5205,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M56" s="6">
+        <v>83</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56" s="6">
         <v>617</v>
       </c>
-      <c r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>85</v>
+      <c r="O56" s="6">
+        <v>0</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T56">
+        <v>83</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U56">
         <v>6</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="X56" s="3"/>
+      <c r="V56">
+        <v>0</v>
+      </c>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-      <c r="AD56" s="8"/>
+      <c r="AD56" s="3"/>
       <c r="AE56" s="8"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF56" s="8"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -5075,7 +5260,7 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -5087,7 +5272,7 @@
         <v>153</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H57" s="12">
         <v>46023</v>
@@ -5105,43 +5290,46 @@
       <c r="L57" s="6">
         <v>3.06</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="6">
         <v>173</v>
       </c>
-      <c r="N57" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="O57" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T57">
+        <v>83</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U57">
         <v>6</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>5</v>
       </c>
-      <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="8"/>
+      <c r="AD57" s="3"/>
       <c r="AE57" s="8"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF57" s="8"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -5149,7 +5337,7 @@
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -5161,7 +5349,7 @@
         <v>140</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H58" s="12">
         <v>46023</v>
@@ -5179,43 +5367,46 @@
       <c r="L58" s="6">
         <v>2.7865000000000002</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N58" s="6">
         <v>173</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="O58" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T58">
+        <v>83</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U58">
         <v>6</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>5</v>
       </c>
-      <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
-      <c r="AD58" s="8"/>
+      <c r="AD58" s="3"/>
       <c r="AE58" s="8"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF58" s="8"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -5223,7 +5414,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -5232,10 +5423,10 @@
         <v>160</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5250,49 +5441,52 @@
       <c r="L59" s="6">
         <v>0.5</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N59" s="6">
         <v>80</v>
       </c>
-      <c r="N59" s="6">
-        <v>0</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>85</v>
+      <c r="O59" s="6">
+        <v>0</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T59">
+        <v>83</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U59">
         <v>10</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>15</v>
       </c>
-      <c r="V59" s="8">
+      <c r="W59" s="8">
         <v>-26.658000000000001</v>
       </c>
-      <c r="W59" s="8">
+      <c r="X59" s="8">
         <v>28.113800000000001</v>
       </c>
-      <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
-      <c r="AD59" s="8"/>
+      <c r="AD59" s="3"/>
       <c r="AE59" s="8"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF59" s="8"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -5300,7 +5494,7 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -5309,10 +5503,10 @@
         <v>600</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5327,49 +5521,52 @@
       <c r="L60" s="6">
         <v>0.5</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="6">
         <v>900</v>
       </c>
-      <c r="N60" s="6">
-        <v>0</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>85</v>
+      <c r="O60" s="6">
+        <v>0</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T60">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U60">
         <v>10</v>
       </c>
-      <c r="V60" s="5">
+      <c r="V60">
+        <v>10</v>
+      </c>
+      <c r="W60" s="5">
         <v>-26.503599999999999</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>29.180299999999999</v>
       </c>
-      <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
-      <c r="AD60" s="8"/>
+      <c r="AD60" s="3"/>
       <c r="AE60" s="8"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF60" s="8"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -5377,7 +5574,7 @@
         <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -5404,49 +5601,52 @@
       <c r="L61" s="6">
         <v>11</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N61" s="6">
         <v>2</v>
       </c>
-      <c r="N61" s="6">
+      <c r="O61" s="6">
         <v>101</v>
       </c>
-      <c r="O61" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P61" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T61">
+        <v>83</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U61">
         <v>6.9</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V61" s="8">
+      <c r="W61" s="8">
         <v>-29.251000000000001</v>
       </c>
-      <c r="W61" s="8">
+      <c r="X61" s="8">
         <v>31.094100000000001</v>
       </c>
-      <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
-      <c r="AD61" s="8"/>
+      <c r="AD61" s="3"/>
       <c r="AE61" s="8"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF61" s="8"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -5454,7 +5654,7 @@
         <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -5481,49 +5681,52 @@
       <c r="L62" s="6">
         <v>11</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N62" s="6">
         <v>2</v>
       </c>
-      <c r="N62" s="6">
+      <c r="O62" s="6">
         <v>101</v>
       </c>
-      <c r="O62" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="P62" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T62">
+        <v>83</v>
+      </c>
+      <c r="T62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U62">
         <v>6.9</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V62" s="8">
+      <c r="W62" s="8">
         <v>-33.443300000000001</v>
       </c>
-      <c r="W62" s="8">
+      <c r="X62" s="8">
         <v>25.402200000000001</v>
       </c>
-      <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-      <c r="AD62" s="8"/>
+      <c r="AD62" s="3"/>
       <c r="AE62" s="8"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF62" s="8"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -5531,7 +5734,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -5558,49 +5761,52 @@
       <c r="L63" s="6">
         <v>8</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N63" s="6">
         <v>950</v>
       </c>
-      <c r="N63" s="6">
-        <v>0</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>85</v>
+      <c r="O63" s="6">
+        <v>0</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T63">
+        <v>83</v>
+      </c>
+      <c r="T63" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U63">
         <v>6.9</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V63" s="5">
+      <c r="W63" s="5">
         <v>-26.810199999999998</v>
       </c>
-      <c r="W63" s="8">
+      <c r="X63" s="8">
         <v>27.8277</v>
       </c>
-      <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="8"/>
+      <c r="AD63" s="3"/>
       <c r="AE63" s="8"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF63" s="8"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -5608,7 +5814,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -5635,49 +5841,52 @@
       <c r="L64" s="6">
         <v>2</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N64" s="6">
         <v>950</v>
       </c>
-      <c r="N64" s="6">
-        <v>0</v>
-      </c>
-      <c r="O64" s="6" t="s">
-        <v>85</v>
+      <c r="O64" s="6">
+        <v>0</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T64">
+        <v>83</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U64">
         <v>6.9</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V64" s="5">
+      <c r="W64" s="5">
         <v>-26.810199999999998</v>
       </c>
-      <c r="W64" s="8">
+      <c r="X64" s="8">
         <v>27.8277</v>
       </c>
-      <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-      <c r="AD64" s="8"/>
+      <c r="AD64" s="3"/>
       <c r="AE64" s="8"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF64" s="8"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +5894,7 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -5704,51 +5913,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M65" s="6">
+        <v>83</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N65" s="6">
         <v>300</v>
       </c>
-      <c r="N65" s="6">
-        <v>0</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>85</v>
+      <c r="O65" s="6">
+        <v>0</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T65">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="T65" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U65">
         <v>3</v>
       </c>
-      <c r="X65" s="3"/>
+      <c r="V65">
+        <v>3</v>
+      </c>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
-      <c r="AD65" s="8"/>
+      <c r="AD65" s="3"/>
       <c r="AE65" s="8"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF65" s="8"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -5756,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -5775,57 +5987,60 @@
         <v>beyond 2050</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M66" s="6">
+        <v>83</v>
+      </c>
+      <c r="M66" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N66" s="6">
         <v>300</v>
       </c>
-      <c r="N66" s="6">
-        <v>0</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>85</v>
+      <c r="O66" s="6">
+        <v>0</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T66">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U66">
         <v>5</v>
       </c>
-      <c r="V66" s="8">
+      <c r="V66">
+        <v>5</v>
+      </c>
+      <c r="W66" s="8">
         <v>-32.049999999999997</v>
       </c>
-      <c r="W66" s="8">
+      <c r="X66" s="8">
         <v>28.58333</v>
       </c>
-      <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
-      <c r="AD66" s="8"/>
+      <c r="AD66" s="3"/>
       <c r="AE66" s="8"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF66" s="8"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -5833,7 +6048,7 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -5852,51 +6067,54 @@
         <v>beyond 2050</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L67" s="6">
         <v>0.5</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N67" s="6">
         <v>500</v>
       </c>
-      <c r="N67" s="6">
-        <v>0</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>85</v>
+      <c r="O67" s="6">
+        <v>0</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T67">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U67">
         <v>10</v>
       </c>
-      <c r="X67" s="3"/>
+      <c r="V67">
+        <v>10</v>
+      </c>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-      <c r="AD67" s="8"/>
+      <c r="AD67" s="3"/>
       <c r="AE67" s="8"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF67" s="8"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -5904,7 +6122,7 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -5923,57 +6141,60 @@
         <v>beyond 2050</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L68" s="6">
         <v>0.5</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M68" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N68" s="6">
         <v>500</v>
       </c>
-      <c r="N68" s="6">
-        <v>0</v>
-      </c>
-      <c r="O68" s="6" t="s">
-        <v>85</v>
+      <c r="O68" s="6">
+        <v>0</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T68">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U68">
         <v>10</v>
       </c>
-      <c r="V68" s="5">
+      <c r="V68">
+        <v>10</v>
+      </c>
+      <c r="W68" s="5">
         <v>-25.3447</v>
       </c>
-      <c r="W68" s="8">
+      <c r="X68" s="8">
         <v>30.393999999999998</v>
       </c>
-      <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
-      <c r="AD68" s="8"/>
+      <c r="AD68" s="3"/>
       <c r="AE68" s="8"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF68" s="8"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -5981,7 +6202,7 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -6000,782 +6221,788 @@
         <v>beyond 2050</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M69" s="6">
+        <v>83</v>
+      </c>
+      <c r="M69" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N69" s="6">
         <v>300</v>
       </c>
-      <c r="N69" s="6">
-        <v>0</v>
-      </c>
       <c r="O69" s="6">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6">
         <v>72</v>
       </c>
-      <c r="P69" s="6">
+      <c r="Q69" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q69" s="6">
-        <f t="shared" ref="Q69" si="4">F69</f>
+      <c r="R69" s="6">
+        <f t="shared" ref="R69" si="4">F69</f>
         <v>45</v>
       </c>
-      <c r="R69" s="6">
+      <c r="S69" s="6">
         <v>2.7</v>
       </c>
-      <c r="S69" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T69">
+      <c r="T69" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U69">
         <v>3</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>2.4</v>
       </c>
-      <c r="V69" s="8">
+      <c r="W69" s="8">
         <v>-34.152999999999999</v>
       </c>
-      <c r="W69" s="8">
+      <c r="X69" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
-      <c r="AD69" s="8"/>
+      <c r="AD69" s="3"/>
       <c r="AE69" s="8"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF69" s="8"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="O70" s="3"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="X70" s="3"/>
+      <c r="S70" s="6"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
-      <c r="AD70" s="8"/>
+      <c r="AD70" s="3"/>
       <c r="AE70" s="8"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF70" s="8"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="O71" s="3"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
-      <c r="X71" s="3"/>
+      <c r="S71" s="6"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
-      <c r="AD71" s="8"/>
+      <c r="AD71" s="3"/>
       <c r="AE71" s="8"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF71" s="8"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="O72" s="3"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
-      <c r="X72" s="3"/>
+      <c r="S72" s="6"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
-      <c r="AD72" s="8"/>
+      <c r="AD72" s="3"/>
       <c r="AE72" s="8"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="N73" s="3"/>
-      <c r="O73" s="6"/>
+      <c r="AF72" s="8"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="O73" s="3"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="X73" s="3"/>
+      <c r="S73" s="6"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
-      <c r="AD73" s="8"/>
+      <c r="AD73" s="3"/>
       <c r="AE73" s="8"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="N74" s="3"/>
-      <c r="O74" s="6"/>
+      <c r="AF73" s="8"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="O74" s="3"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
-      <c r="X74" s="3"/>
+      <c r="S74" s="6"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
-      <c r="AD74" s="8"/>
+      <c r="AD74" s="3"/>
       <c r="AE74" s="8"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="N75" s="3"/>
-      <c r="O75" s="6"/>
+      <c r="AF74" s="8"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="O75" s="3"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
-      <c r="X75" s="3"/>
+      <c r="S75" s="6"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
-      <c r="AD75" s="8"/>
+      <c r="AD75" s="3"/>
       <c r="AE75" s="8"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="O76" s="6"/>
+      <c r="AF75" s="8"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
-      <c r="X76" s="3"/>
+      <c r="S76" s="6"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
-      <c r="AD76" s="8"/>
+      <c r="AD76" s="3"/>
       <c r="AE76" s="8"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="O77" s="6"/>
+      <c r="AF76" s="8"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
-      <c r="X77" s="3"/>
+      <c r="S77" s="6"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
-      <c r="AD77" s="8"/>
+      <c r="AD77" s="3"/>
       <c r="AE77" s="8"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="O78" s="6"/>
+      <c r="AF77" s="8"/>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
-      <c r="X78" s="3"/>
+      <c r="S78" s="6"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
-      <c r="AD78" s="8"/>
+      <c r="AD78" s="3"/>
       <c r="AE78" s="8"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="O79" s="6"/>
+      <c r="AF78" s="8"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
-      <c r="X79" s="3"/>
+      <c r="S79" s="6"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
-      <c r="AD79" s="8"/>
+      <c r="AD79" s="3"/>
       <c r="AE79" s="8"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="O80" s="6"/>
+      <c r="AF79" s="8"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
-      <c r="X80" s="3"/>
+      <c r="S80" s="6"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
-      <c r="AD80" s="8"/>
+      <c r="AD80" s="3"/>
       <c r="AE80" s="8"/>
-    </row>
-    <row r="81" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O81" s="6"/>
+      <c r="AF80" s="8"/>
+    </row>
+    <row r="81" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
-      <c r="X81" s="3"/>
+      <c r="S81" s="6"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
-      <c r="AD81" s="8"/>
+      <c r="AD81" s="3"/>
       <c r="AE81" s="8"/>
-    </row>
-    <row r="82" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O82" s="6"/>
+      <c r="AF81" s="8"/>
+    </row>
+    <row r="82" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
-      <c r="X82" s="3"/>
+      <c r="S82" s="6"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-      <c r="AD82" s="8"/>
+      <c r="AD82" s="3"/>
       <c r="AE82" s="8"/>
-    </row>
-    <row r="83" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O83" s="6"/>
+      <c r="AF82" s="8"/>
+    </row>
+    <row r="83" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
-      <c r="X83" s="3"/>
+      <c r="S83" s="6"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
-      <c r="AD83" s="8"/>
+      <c r="AD83" s="3"/>
       <c r="AE83" s="8"/>
-    </row>
-    <row r="84" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O84" s="6"/>
+      <c r="AF83" s="8"/>
+    </row>
+    <row r="84" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
-      <c r="X84" s="3"/>
+      <c r="S84" s="6"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
-      <c r="AD84" s="8"/>
+      <c r="AD84" s="3"/>
       <c r="AE84" s="8"/>
-    </row>
-    <row r="85" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O85" s="6"/>
+      <c r="AF84" s="8"/>
+    </row>
+    <row r="85" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
-      <c r="X85" s="3"/>
+      <c r="S85" s="6"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-      <c r="AD85" s="8"/>
+      <c r="AD85" s="3"/>
       <c r="AE85" s="8"/>
-    </row>
-    <row r="86" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O86" s="6"/>
+      <c r="AF85" s="8"/>
+    </row>
+    <row r="86" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
-      <c r="X86" s="3"/>
+      <c r="S86" s="6"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
-      <c r="AD86" s="8"/>
+      <c r="AD86" s="3"/>
       <c r="AE86" s="8"/>
-    </row>
-    <row r="87" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O87" s="6"/>
+      <c r="AF86" s="8"/>
+    </row>
+    <row r="87" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
-      <c r="X87" s="3"/>
+      <c r="S87" s="6"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
-      <c r="AD87" s="8"/>
+      <c r="AD87" s="3"/>
       <c r="AE87" s="8"/>
-    </row>
-    <row r="88" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O88" s="6"/>
+      <c r="AF87" s="8"/>
+    </row>
+    <row r="88" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
-      <c r="X88" s="3"/>
+      <c r="S88" s="6"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
-      <c r="AD88" s="8"/>
+      <c r="AD88" s="3"/>
       <c r="AE88" s="8"/>
-    </row>
-    <row r="89" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O89" s="6"/>
+      <c r="AF88" s="8"/>
+    </row>
+    <row r="89" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
-      <c r="X89" s="3"/>
+      <c r="S89" s="6"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
-      <c r="AD89" s="8"/>
+      <c r="AD89" s="3"/>
       <c r="AE89" s="8"/>
-    </row>
-    <row r="90" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O90" s="6"/>
+      <c r="AF89" s="8"/>
+    </row>
+    <row r="90" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
-      <c r="X90" s="3"/>
+      <c r="S90" s="6"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-      <c r="AD90" s="8"/>
+      <c r="AD90" s="3"/>
       <c r="AE90" s="8"/>
-    </row>
-    <row r="91" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O91" s="6"/>
+      <c r="AF90" s="8"/>
+    </row>
+    <row r="91" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
-      <c r="X91" s="3"/>
+      <c r="S91" s="6"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
-      <c r="AD91" s="8"/>
+      <c r="AD91" s="3"/>
       <c r="AE91" s="8"/>
-    </row>
-    <row r="92" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O92" s="6"/>
+      <c r="AF91" s="8"/>
+    </row>
+    <row r="92" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="X92" s="3"/>
+      <c r="S92" s="6"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
-      <c r="AD92" s="8"/>
+      <c r="AD92" s="3"/>
       <c r="AE92" s="8"/>
-    </row>
-    <row r="93" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="O93" s="6"/>
+      <c r="AF92" s="8"/>
+    </row>
+    <row r="93" spans="16:32" x14ac:dyDescent="0.35">
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
-      <c r="X93" s="3"/>
+      <c r="S93" s="6"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
-      <c r="AD93" s="8"/>
+      <c r="AD93" s="3"/>
       <c r="AE93" s="8"/>
-    </row>
-    <row r="94" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="P94" s="6"/>
+      <c r="AF93" s="8"/>
+    </row>
+    <row r="94" spans="16:32" x14ac:dyDescent="0.35">
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
-      <c r="X94" s="3"/>
+      <c r="S94" s="6"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
-      <c r="AD94" s="8"/>
+      <c r="AD94" s="3"/>
       <c r="AE94" s="8"/>
-    </row>
-    <row r="95" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="P95" s="6"/>
+      <c r="AF94" s="8"/>
+    </row>
+    <row r="95" spans="16:32" x14ac:dyDescent="0.35">
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
-      <c r="X95" s="3"/>
+      <c r="S95" s="6"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-      <c r="AD95" s="8"/>
+      <c r="AD95" s="3"/>
       <c r="AE95" s="8"/>
-    </row>
-    <row r="96" spans="15:31" x14ac:dyDescent="0.35">
-      <c r="P96" s="6"/>
+      <c r="AF95" s="8"/>
+    </row>
+    <row r="96" spans="16:32" x14ac:dyDescent="0.35">
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
-      <c r="X96" s="3"/>
+      <c r="S96" s="6"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
-      <c r="AD96" s="8"/>
+      <c r="AD96" s="3"/>
       <c r="AE96" s="8"/>
-    </row>
-    <row r="97" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P97" s="6"/>
+      <c r="AF96" s="8"/>
+    </row>
+    <row r="97" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
-    </row>
-    <row r="98" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P98" s="6"/>
+      <c r="S97" s="6"/>
+    </row>
+    <row r="98" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
-    </row>
-    <row r="99" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P99" s="6"/>
+      <c r="S98" s="6"/>
+    </row>
+    <row r="99" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
-    </row>
-    <row r="100" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P100" s="6"/>
+      <c r="S99" s="6"/>
+    </row>
+    <row r="100" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
-    </row>
-    <row r="101" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P101" s="6"/>
+      <c r="S100" s="6"/>
+    </row>
+    <row r="101" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
-    </row>
-    <row r="102" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P102" s="6"/>
+      <c r="S101" s="6"/>
+    </row>
+    <row r="102" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
-    </row>
-    <row r="103" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P103" s="6"/>
+      <c r="S102" s="6"/>
+    </row>
+    <row r="103" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
-    </row>
-    <row r="104" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P104" s="6"/>
+      <c r="S103" s="6"/>
+    </row>
+    <row r="104" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
-    </row>
-    <row r="105" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P105" s="6"/>
+      <c r="S104" s="6"/>
+    </row>
+    <row r="105" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
-    </row>
-    <row r="106" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P106" s="6"/>
+      <c r="S105" s="6"/>
+    </row>
+    <row r="106" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
-    </row>
-    <row r="107" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P107" s="6"/>
+      <c r="S106" s="6"/>
+    </row>
+    <row r="107" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
-    </row>
-    <row r="108" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P108" s="6"/>
+      <c r="S107" s="6"/>
+    </row>
+    <row r="108" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
-    </row>
-    <row r="109" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P109" s="6"/>
+      <c r="S108" s="6"/>
+    </row>
+    <row r="109" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
-    </row>
-    <row r="110" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P110" s="6"/>
+      <c r="S109" s="6"/>
+    </row>
+    <row r="110" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
-    </row>
-    <row r="111" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P111" s="6"/>
+      <c r="S110" s="6"/>
+    </row>
+    <row r="111" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
-    </row>
-    <row r="112" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P112" s="6"/>
+      <c r="S111" s="6"/>
+    </row>
+    <row r="112" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
-    </row>
-    <row r="113" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P113" s="6"/>
+      <c r="S112" s="6"/>
+    </row>
+    <row r="113" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
-    </row>
-    <row r="114" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P114" s="6"/>
+      <c r="S113" s="6"/>
+    </row>
+    <row r="114" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
-    </row>
-    <row r="115" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P115" s="6"/>
+      <c r="S114" s="6"/>
+    </row>
+    <row r="115" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
-    </row>
-    <row r="116" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P116" s="6"/>
+      <c r="S115" s="6"/>
+    </row>
+    <row r="116" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
-    </row>
-    <row r="117" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P117" s="6"/>
+      <c r="S116" s="6"/>
+    </row>
+    <row r="117" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
-    </row>
-    <row r="118" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P118" s="6"/>
+      <c r="S117" s="6"/>
+    </row>
+    <row r="118" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
-    </row>
-    <row r="119" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P119" s="6"/>
+      <c r="S118" s="6"/>
+    </row>
+    <row r="119" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
-    </row>
-    <row r="120" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P120" s="6"/>
+      <c r="S119" s="6"/>
+    </row>
+    <row r="120" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
-    </row>
-    <row r="121" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P121" s="6"/>
+      <c r="S120" s="6"/>
+    </row>
+    <row r="121" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
-    </row>
-    <row r="122" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P122" s="6"/>
+      <c r="S121" s="6"/>
+    </row>
+    <row r="122" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
-    </row>
-    <row r="123" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P123" s="6"/>
+      <c r="S122" s="6"/>
+    </row>
+    <row r="123" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
-    </row>
-    <row r="124" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P124" s="6"/>
+      <c r="S123" s="6"/>
+    </row>
+    <row r="124" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
-    </row>
-    <row r="125" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P125" s="6"/>
+      <c r="S124" s="6"/>
+    </row>
+    <row r="125" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
-    </row>
-    <row r="126" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P126" s="6"/>
+      <c r="S125" s="6"/>
+    </row>
+    <row r="126" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
-    </row>
-    <row r="127" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P127" s="6"/>
+      <c r="S126" s="6"/>
+    </row>
+    <row r="127" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
-    </row>
-    <row r="128" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P128" s="6"/>
+      <c r="S127" s="6"/>
+    </row>
+    <row r="128" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
-    </row>
-    <row r="129" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P129" s="6"/>
+      <c r="S128" s="6"/>
+    </row>
+    <row r="129" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
-    </row>
-    <row r="130" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P130" s="6"/>
+      <c r="S129" s="6"/>
+    </row>
+    <row r="130" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
-    </row>
-    <row r="131" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P131" s="6"/>
+      <c r="S130" s="6"/>
+    </row>
+    <row r="131" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
-    </row>
-    <row r="132" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P132" s="6"/>
+      <c r="S131" s="6"/>
+    </row>
+    <row r="132" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
-    </row>
-    <row r="133" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P133" s="6"/>
+      <c r="S132" s="6"/>
+    </row>
+    <row r="133" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
-    </row>
-    <row r="134" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P134" s="6"/>
+      <c r="S133" s="6"/>
+    </row>
+    <row r="134" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
-    </row>
-    <row r="135" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P135" s="6"/>
+      <c r="S134" s="6"/>
+    </row>
+    <row r="135" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
-    </row>
-    <row r="136" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P136" s="6"/>
+      <c r="S135" s="6"/>
+    </row>
+    <row r="136" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
-    </row>
-    <row r="137" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P137" s="6"/>
+      <c r="S136" s="6"/>
+    </row>
+    <row r="137" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
-    </row>
-    <row r="138" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P138" s="6"/>
+      <c r="S137" s="6"/>
+    </row>
+    <row r="138" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
-    </row>
-    <row r="139" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P139" s="6"/>
+      <c r="S138" s="6"/>
+    </row>
+    <row r="139" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
-    </row>
-    <row r="140" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P140" s="6"/>
+      <c r="S139" s="6"/>
+    </row>
+    <row r="140" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
-    </row>
-    <row r="141" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P141" s="6"/>
+      <c r="S140" s="6"/>
+    </row>
+    <row r="141" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
-    </row>
-    <row r="142" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P142" s="6"/>
+      <c r="S141" s="6"/>
+    </row>
+    <row r="142" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
-    </row>
-    <row r="143" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P143" s="6"/>
+      <c r="S142" s="6"/>
+    </row>
+    <row r="143" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
-    </row>
-    <row r="144" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P144" s="6"/>
+      <c r="S143" s="6"/>
+    </row>
+    <row r="144" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
-    </row>
-    <row r="145" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P145" s="6"/>
+      <c r="S144" s="6"/>
+    </row>
+    <row r="145" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
-    </row>
-    <row r="146" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P146" s="6"/>
+      <c r="S145" s="6"/>
+    </row>
+    <row r="146" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
-    </row>
-    <row r="147" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P147" s="6"/>
+      <c r="S146" s="6"/>
+    </row>
+    <row r="147" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
-    </row>
-    <row r="148" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P148" s="6"/>
+      <c r="S147" s="6"/>
+    </row>
+    <row r="148" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
-    </row>
-    <row r="149" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P149" s="6"/>
+      <c r="S148" s="6"/>
+    </row>
+    <row r="149" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
-    </row>
-    <row r="150" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P150" s="6"/>
+      <c r="S149" s="6"/>
+    </row>
+    <row r="150" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
-    </row>
-    <row r="151" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P151" s="6"/>
+      <c r="S150" s="6"/>
+    </row>
+    <row r="151" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
-    </row>
-    <row r="152" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P152" s="6"/>
+      <c r="S151" s="6"/>
+    </row>
+    <row r="152" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
-    </row>
-    <row r="153" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P153" s="6"/>
+      <c r="S152" s="6"/>
+    </row>
+    <row r="153" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
-    </row>
-    <row r="154" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P154" s="6"/>
+      <c r="S153" s="6"/>
+    </row>
+    <row r="154" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
-    </row>
-    <row r="155" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P155" s="6"/>
+      <c r="S154" s="6"/>
+    </row>
+    <row r="155" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
-    </row>
-    <row r="156" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P156" s="6"/>
+      <c r="S155" s="6"/>
+    </row>
+    <row r="156" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
-    </row>
-    <row r="157" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P157" s="6"/>
+      <c r="S156" s="6"/>
+    </row>
+    <row r="157" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
-    </row>
-    <row r="158" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P158" s="6"/>
+      <c r="S157" s="6"/>
+    </row>
+    <row r="158" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
-    </row>
-    <row r="159" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P159" s="6"/>
+      <c r="S158" s="6"/>
+    </row>
+    <row r="159" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
-    </row>
-    <row r="160" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P160" s="6"/>
+      <c r="S159" s="6"/>
+    </row>
+    <row r="160" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
-    </row>
-    <row r="161" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P161" s="6"/>
+      <c r="S160" s="6"/>
+    </row>
+    <row r="161" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
-    </row>
-    <row r="162" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P162" s="6"/>
+      <c r="S161" s="6"/>
+    </row>
+    <row r="162" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
-    </row>
-    <row r="163" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P163" s="6"/>
+      <c r="S162" s="6"/>
+    </row>
+    <row r="163" spans="17:19" x14ac:dyDescent="0.35">
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
+      <c r="S163" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/Existing Power Stations SA.xlsx
+++ b/data/Existing Power Stations SA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD220B-AE7E-4591-8924-E798F2F895D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A4A64-4D79-42C6-97B4-A342FB8196B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -474,16 +474,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -493,6 +487,24 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,9 +847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,7 +887,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -973,13 +985,13 @@
       <c r="J2" s="6">
         <v>11.654</v>
       </c>
-      <c r="K2" s="13">
-        <v>16.8</v>
+      <c r="K2" s="12">
+        <v>26</v>
       </c>
       <c r="L2" s="6">
         <v>2.1</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="14">
         <v>0.5</v>
       </c>
       <c r="N2" s="6">
@@ -1053,13 +1065,13 @@
       <c r="J3" s="6">
         <v>12.420999999999999</v>
       </c>
-      <c r="K3" s="13">
-        <v>23.1</v>
+      <c r="K3" s="12">
+        <v>26</v>
       </c>
       <c r="L3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="14">
         <v>0.5</v>
       </c>
       <c r="N3" s="6">
@@ -1133,13 +1145,13 @@
       <c r="J4" s="6">
         <v>11.034000000000001</v>
       </c>
-      <c r="K4" s="13">
-        <v>11.8</v>
+      <c r="K4" s="12">
+        <v>26</v>
       </c>
       <c r="L4" s="6">
         <v>3.3</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="14">
         <v>0.5</v>
       </c>
       <c r="N4" s="6">
@@ -1213,13 +1225,13 @@
       <c r="J5" s="6">
         <v>12.61</v>
       </c>
-      <c r="K5" s="13">
-        <v>22.1</v>
+      <c r="K5" s="12">
+        <v>26</v>
       </c>
       <c r="L5" s="6">
         <v>0.9</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <v>0.5</v>
       </c>
       <c r="N5" s="6">
@@ -1287,19 +1299,19 @@
         <v>10</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="9">
+      <c r="I6" s="16">
         <v>46023</v>
       </c>
       <c r="J6" s="6">
         <v>12.131</v>
       </c>
-      <c r="K6" s="13">
-        <v>17</v>
+      <c r="K6" s="12">
+        <v>26</v>
       </c>
       <c r="L6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="14">
         <v>0.5</v>
       </c>
       <c r="N6" s="6">
@@ -1367,19 +1379,19 @@
         <v>6</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="9">
+      <c r="I7" s="16">
         <v>52232</v>
       </c>
       <c r="J7" s="6">
         <v>11.753</v>
       </c>
-      <c r="K7" s="13">
-        <v>18.600000000000001</v>
+      <c r="K7" s="12">
+        <v>26</v>
       </c>
       <c r="L7" s="6">
         <v>1.8</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <v>0.5</v>
       </c>
       <c r="N7" s="6">
@@ -1447,19 +1459,19 @@
         <v>9</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="9">
+      <c r="I8" s="16">
         <v>46753</v>
       </c>
       <c r="J8" s="6">
         <v>13.829000000000001</v>
       </c>
-      <c r="K8" s="13">
-        <v>17.600000000000001</v>
+      <c r="K8" s="12">
+        <v>26</v>
       </c>
       <c r="L8" s="6">
         <v>0.5</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="14">
         <v>0.5</v>
       </c>
       <c r="N8" s="6">
@@ -1527,19 +1539,19 @@
         <v>6</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="9">
+      <c r="I9" s="16">
         <v>47119</v>
       </c>
       <c r="J9" s="6">
         <v>11.243</v>
       </c>
-      <c r="K9" s="13">
-        <v>18.600000000000001</v>
+      <c r="K9" s="12">
+        <v>26</v>
       </c>
       <c r="L9" s="6">
         <v>3.6</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <v>0.5</v>
       </c>
       <c r="N9" s="6">
@@ -1609,19 +1621,19 @@
       <c r="H10" s="9">
         <v>45658</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="17" t="s">
         <v>98</v>
       </c>
       <c r="J10" s="6">
         <v>9.8119999999999994</v>
       </c>
-      <c r="K10" s="13">
-        <v>16.3</v>
+      <c r="K10" s="12">
+        <v>26</v>
       </c>
       <c r="L10" s="6">
         <v>7.2</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="14">
         <v>0.5</v>
       </c>
       <c r="N10" s="6">
@@ -1689,19 +1701,19 @@
         <v>6</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="9">
+      <c r="I11" s="16">
         <v>51136</v>
       </c>
       <c r="J11" s="6">
         <v>10.975</v>
       </c>
-      <c r="K11" s="13">
-        <v>11.2</v>
+      <c r="K11" s="12">
+        <v>26</v>
       </c>
       <c r="L11" s="6">
         <v>5.9</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="14">
         <v>0.5</v>
       </c>
       <c r="N11" s="6">
@@ -1769,19 +1781,19 @@
         <v>3</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="9">
+      <c r="I12" s="16">
         <v>54058</v>
       </c>
       <c r="J12" s="6">
         <v>11.753</v>
       </c>
-      <c r="K12" s="13">
-        <v>21.8</v>
+      <c r="K12" s="12">
+        <v>26</v>
       </c>
       <c r="L12" s="6">
         <v>1.7</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="14">
         <v>0.5</v>
       </c>
       <c r="N12" s="6">
@@ -1849,19 +1861,19 @@
         <v>3</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="9">
+      <c r="I13" s="16">
         <v>55154</v>
       </c>
       <c r="J13" s="6">
         <v>11.004</v>
       </c>
-      <c r="K13" s="13">
-        <v>23.3</v>
+      <c r="K13" s="12">
+        <v>26</v>
       </c>
       <c r="L13" s="6">
         <v>1.9</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="14">
         <v>0.5</v>
       </c>
       <c r="N13" s="6">
@@ -1929,19 +1941,19 @@
         <v>6</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="9">
+      <c r="I14" s="16">
         <v>51502</v>
       </c>
       <c r="J14" s="6">
         <v>11.654</v>
       </c>
-      <c r="K14" s="13">
-        <v>11.4</v>
+      <c r="K14" s="12">
+        <v>26</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="14">
         <v>0.5</v>
       </c>
       <c r="N14" s="6">
@@ -2009,19 +2021,19 @@
         <v>6</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="9">
+      <c r="I15" s="16">
         <v>48580</v>
       </c>
       <c r="J15" s="6">
         <v>11.034000000000001</v>
       </c>
-      <c r="K15" s="13">
-        <v>22.9</v>
+      <c r="K15" s="12">
+        <v>26</v>
       </c>
       <c r="L15" s="6">
         <v>2.4</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="14">
         <v>0.5</v>
       </c>
       <c r="N15" s="6">
@@ -2089,19 +2101,19 @@
         <v>1</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J16" s="6">
         <v>9.8119999999999994</v>
       </c>
-      <c r="K16" s="13">
-        <v>16.3</v>
+      <c r="K16" s="12">
+        <v>26</v>
       </c>
       <c r="L16" s="6">
         <v>7.2</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="14">
         <v>0.5</v>
       </c>
       <c r="N16" s="6">
@@ -2169,19 +2181,19 @@
         <v>6</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="11">
+      <c r="I17" s="19">
         <v>51136</v>
       </c>
       <c r="J17" s="6">
         <v>10.917999999999999</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>26</v>
       </c>
       <c r="L17" s="6">
         <v>3.2</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <v>0.5</v>
       </c>
       <c r="N17" s="6">
@@ -2249,7 +2261,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="14">
+      <c r="I18" s="20">
         <v>49064</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -2261,7 +2273,7 @@
       <c r="L18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N18" s="6">
@@ -2329,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="11">
+      <c r="I19" s="19">
         <v>52597</v>
       </c>
       <c r="J19" s="6">
@@ -2341,7 +2353,7 @@
       <c r="L19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N19" s="6">
@@ -2409,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -2421,7 +2433,7 @@
       <c r="L20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N20" s="6">
@@ -2491,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -2503,7 +2515,7 @@
       <c r="L21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N21" s="6">
@@ -2573,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -2585,7 +2597,7 @@
       <c r="L22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N22" s="6">
@@ -2655,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -2667,7 +2679,7 @@
       <c r="L23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N23" s="6">
@@ -2735,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J24" s="5" t="s">
@@ -2747,7 +2759,7 @@
       <c r="L24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N24" s="6">
@@ -2815,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="12">
+      <c r="I25" s="21">
         <v>46022</v>
       </c>
       <c r="J25" s="6">
@@ -2827,7 +2839,7 @@
       <c r="L25" s="6">
         <v>3.4</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N25" s="6">
@@ -2895,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="12">
+      <c r="I26" s="21">
         <v>50040</v>
       </c>
       <c r="J26" s="6">
@@ -2907,7 +2919,7 @@
       <c r="L26" s="6">
         <v>9</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N26" s="6">
@@ -2975,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="9"/>
-      <c r="I27" s="12">
+      <c r="I27" s="21">
         <v>50040</v>
       </c>
       <c r="J27" s="6">
@@ -2987,7 +2999,7 @@
       <c r="L27" s="6">
         <v>9</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N27" s="6">
@@ -3055,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="12">
+      <c r="I28" s="21">
         <v>46022</v>
       </c>
       <c r="J28" s="6">
@@ -3067,7 +3079,7 @@
       <c r="L28" s="6">
         <v>3.4</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N28" s="6">
@@ -3134,10 +3146,10 @@
       <c r="G29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>46023</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J29" s="5" t="s">
@@ -3149,7 +3161,7 @@
       <c r="L29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M29" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N29" s="6">
@@ -3210,10 +3222,10 @@
       <c r="G30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>46023</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="5" t="s">
@@ -3225,7 +3237,7 @@
       <c r="L30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N30" s="6">
@@ -3286,10 +3298,10 @@
       <c r="G31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>46023</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J31" s="5" t="s">
@@ -3301,7 +3313,7 @@
       <c r="L31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N31" s="6">
@@ -3362,7 +3374,7 @@
       <c r="G32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="10" t="str">
+      <c r="I32" s="18" t="str">
         <f>I31</f>
         <v>beyond 2050</v>
       </c>
@@ -3375,7 +3387,7 @@
       <c r="L32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N32" s="6">
@@ -3442,10 +3454,10 @@
       <c r="G33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>46023</v>
       </c>
-      <c r="I33" s="10" t="str">
+      <c r="I33" s="18" t="str">
         <f t="shared" ref="I33:I47" si="2">I32</f>
         <v>beyond 2050</v>
       </c>
@@ -3458,7 +3470,7 @@
       <c r="L33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N33" s="6">
@@ -3525,10 +3537,10 @@
       <c r="G34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>46023</v>
       </c>
-      <c r="I34" s="10" t="str">
+      <c r="I34" s="18" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
@@ -3541,7 +3553,7 @@
       <c r="L34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N34" s="6">
@@ -3602,7 +3614,7 @@
       <c r="G35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="10" t="str">
+      <c r="I35" s="18" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
@@ -3615,7 +3627,7 @@
       <c r="L35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N35" s="6">
@@ -3682,7 +3694,7 @@
       <c r="G36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="10" t="str">
+      <c r="I36" s="18" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
@@ -3695,7 +3707,7 @@
       <c r="L36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N36" s="6">
@@ -3762,7 +3774,7 @@
       <c r="G37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>46023</v>
       </c>
       <c r="I37" s="10" t="str">
@@ -3778,7 +3790,7 @@
       <c r="L37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N37" s="6">
@@ -3839,7 +3851,7 @@
       <c r="G38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>46023</v>
       </c>
       <c r="I38" s="10" t="str">
@@ -3855,7 +3867,7 @@
       <c r="L38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N38" s="6">
@@ -3929,7 +3941,7 @@
       <c r="L39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N39" s="6">
@@ -4003,7 +4015,7 @@
       <c r="L40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N40" s="6">
@@ -4064,7 +4076,7 @@
       <c r="G41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>46023</v>
       </c>
       <c r="I41" s="10" t="str">
@@ -4080,7 +4092,7 @@
       <c r="L41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="17" t="s">
+      <c r="M41" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N41" s="6">
@@ -4154,7 +4166,7 @@
       <c r="L42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N42" s="6">
@@ -4228,7 +4240,7 @@
       <c r="L43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N43" s="6">
@@ -4302,7 +4314,7 @@
       <c r="L44" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N44" s="6">
@@ -4363,7 +4375,7 @@
       <c r="G45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>46023</v>
       </c>
       <c r="I45" s="10" t="str">
@@ -4379,7 +4391,7 @@
       <c r="L45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="M45" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N45" s="6">
@@ -4440,7 +4452,7 @@
       <c r="G46" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>46023</v>
       </c>
       <c r="I46" s="10" t="str">
@@ -4456,7 +4468,7 @@
       <c r="L46" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="M46" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N46" s="6">
@@ -4517,7 +4529,7 @@
       <c r="G47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <v>46023</v>
       </c>
       <c r="I47" s="10" t="str">
@@ -4533,7 +4545,7 @@
       <c r="L47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="M47" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N47" s="6">
@@ -4606,7 +4618,7 @@
       <c r="L48" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M48" s="17" t="s">
+      <c r="M48" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N48" s="6">
@@ -4667,7 +4679,7 @@
       <c r="G49" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>46023</v>
       </c>
       <c r="I49" s="10" t="str">
@@ -4683,7 +4695,7 @@
       <c r="L49" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N49" s="6">
@@ -4744,7 +4756,7 @@
       <c r="G50" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <v>46023</v>
       </c>
       <c r="I50" s="10" t="str">
@@ -4760,7 +4772,7 @@
       <c r="L50" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N50" s="6">
@@ -4834,7 +4846,7 @@
       <c r="L51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M51" s="17" t="s">
+      <c r="M51" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N51" s="6">
@@ -4908,7 +4920,7 @@
       <c r="L52" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M52" s="17" t="s">
+      <c r="M52" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N52" s="6">
@@ -4982,7 +4994,7 @@
       <c r="L53" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M53" s="17" t="s">
+      <c r="M53" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N53" s="6">
@@ -5043,7 +5055,7 @@
       <c r="G54" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>46023</v>
       </c>
       <c r="I54" s="10" t="str">
@@ -5059,7 +5071,7 @@
       <c r="L54" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M54" s="17" t="s">
+      <c r="M54" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N54" s="6">
@@ -5120,7 +5132,7 @@
       <c r="G55" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>46023</v>
       </c>
       <c r="I55" s="10" t="str">
@@ -5136,7 +5148,7 @@
       <c r="L55" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M55" s="17" t="s">
+      <c r="M55" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N55" s="6">
@@ -5197,7 +5209,7 @@
       <c r="G56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>46023</v>
       </c>
       <c r="I56" s="10" t="str">
@@ -5213,7 +5225,7 @@
       <c r="L56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M56" s="17" t="s">
+      <c r="M56" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N56" s="6">
@@ -5274,7 +5286,7 @@
       <c r="G57" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>46023</v>
       </c>
       <c r="I57" s="10" t="str">
@@ -5290,7 +5302,7 @@
       <c r="L57" s="6">
         <v>3.06</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="14">
         <v>0.5</v>
       </c>
       <c r="N57" s="6">
@@ -5351,7 +5363,7 @@
       <c r="G58" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>46023</v>
       </c>
       <c r="I58" s="10" t="str">
@@ -5367,7 +5379,7 @@
       <c r="L58" s="6">
         <v>2.7865000000000002</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="14">
         <v>0.5</v>
       </c>
       <c r="N58" s="6">
@@ -5441,7 +5453,7 @@
       <c r="L59" s="6">
         <v>0.5</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="14">
         <v>0.5</v>
       </c>
       <c r="N59" s="6">
@@ -5521,7 +5533,7 @@
       <c r="L60" s="6">
         <v>0.5</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="14">
         <v>0.5</v>
       </c>
       <c r="N60" s="6">
@@ -5601,7 +5613,7 @@
       <c r="L61" s="6">
         <v>11</v>
       </c>
-      <c r="M61" s="17" t="s">
+      <c r="M61" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N61" s="6">
@@ -5681,7 +5693,7 @@
       <c r="L62" s="6">
         <v>11</v>
       </c>
-      <c r="M62" s="17" t="s">
+      <c r="M62" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N62" s="6">
@@ -5761,7 +5773,7 @@
       <c r="L63" s="6">
         <v>8</v>
       </c>
-      <c r="M63" s="17" t="s">
+      <c r="M63" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N63" s="6">
@@ -5841,7 +5853,7 @@
       <c r="L64" s="6">
         <v>2</v>
       </c>
-      <c r="M64" s="17" t="s">
+      <c r="M64" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N64" s="6">
@@ -5921,7 +5933,7 @@
       <c r="L65" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M65" s="17" t="s">
+      <c r="M65" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N65" s="6">
@@ -5995,7 +6007,7 @@
       <c r="L66" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M66" s="17" t="s">
+      <c r="M66" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N66" s="6">
@@ -6075,7 +6087,7 @@
       <c r="L67" s="6">
         <v>0.5</v>
       </c>
-      <c r="M67" s="17" t="s">
+      <c r="M67" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N67" s="6">
@@ -6149,7 +6161,7 @@
       <c r="L68" s="6">
         <v>0.5</v>
       </c>
-      <c r="M68" s="17" t="s">
+      <c r="M68" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N68" s="6">
@@ -6229,7 +6241,7 @@
       <c r="L69" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M69" s="17" t="s">
+      <c r="M69" s="15" t="s">
         <v>83</v>
       </c>
       <c r="N69" s="6">

--- a/data/Existing Power Stations SA.xlsx
+++ b/data/Existing Power Stations SA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A4A64-4D79-42C6-97B4-A342FB8196B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61CA91F-7688-42E8-BC5B-D6A7A695EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="116">
   <si>
     <t>Owner</t>
   </si>
@@ -236,12 +236,6 @@
     <t>Sasol</t>
   </si>
   <si>
-    <t>Avon_Peaking</t>
-  </si>
-  <si>
-    <t>Dedisa_Peaking</t>
-  </si>
-  <si>
     <t>Sasol_Infrach_Engines</t>
   </si>
   <si>
@@ -378,6 +372,15 @@
   </si>
   <si>
     <t>Min Stable Level (%)</t>
+  </si>
+  <si>
+    <t>Avon</t>
+  </si>
+  <si>
+    <t>Dedisa</t>
+  </si>
+  <si>
+    <t>Max Ramp Down (MW/min)</t>
   </si>
 </sst>
 </file>
@@ -845,11 +848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF163"/>
+  <dimension ref="A1:AG163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
+      <selection pane="topRight" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,20 +866,20 @@
     <col min="7" max="7" width="8.90625" style="5"/>
     <col min="8" max="8" width="15.36328125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.08984375" style="5" customWidth="1"/>
-    <col min="10" max="13" width="11.08984375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.90625" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" style="5" customWidth="1"/>
-    <col min="17" max="18" width="8.90625" style="5"/>
-    <col min="19" max="19" width="11.90625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="8.90625" style="5"/>
-    <col min="23" max="23" width="11.08984375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="10.54296875" customWidth="1"/>
+    <col min="10" max="14" width="11.08984375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="5" customWidth="1"/>
+    <col min="18" max="19" width="8.90625" style="5"/>
+    <col min="20" max="20" width="11.90625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="8.90625" style="5"/>
+    <col min="24" max="24" width="11.08984375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -888,75 +891,78 @@
         <v>2</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="8"/>
+      <c r="AE1" s="3"/>
       <c r="AF1" s="8"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG1" s="8"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -964,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -991,52 +997,55 @@
       <c r="L2" s="6">
         <v>2.1</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="N2" s="14">
         <v>0.5</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>57</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>594</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V2">
         <v>10</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2" s="8">
         <v>-25.94444</v>
       </c>
-      <c r="X2" s="8">
+      <c r="Y2" s="8">
         <v>29.79166</v>
       </c>
-      <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="8"/>
+      <c r="AE2" s="3"/>
       <c r="AF2" s="8"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1071,52 +1080,55 @@
       <c r="L3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N3" s="14">
         <v>0.5</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>57</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>594</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V3">
         <v>10</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3" s="8">
         <v>-26.620069999999998</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Y3" s="8">
         <v>30.09113</v>
       </c>
-      <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="8"/>
+      <c r="AE3" s="3"/>
       <c r="AF3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1151,52 +1163,55 @@
       <c r="L4" s="6">
         <v>3.3</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="N4" s="14">
         <v>0.5</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>57</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>594</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V4">
         <v>10</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4" s="8">
         <v>-25.959540000000001</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="8">
         <v>29.34094</v>
       </c>
-      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="8"/>
+      <c r="AE4" s="3"/>
       <c r="AF4" s="8"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG4" s="8"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1231,52 +1246,55 @@
       <c r="L5" s="6">
         <v>0.9</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="14">
         <v>0.5</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>57</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>594</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V5">
         <v>10</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5" s="8">
         <v>-26.769549999999999</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <v>28.499510000000001</v>
       </c>
-      <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="8"/>
+      <c r="AE5" s="3"/>
       <c r="AF5" s="8"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG5" s="8"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1311,52 +1329,55 @@
       <c r="L6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N6" s="14">
         <v>0.5</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>57</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>594</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q6" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V6">
         <v>10</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6" s="8">
         <v>-26.031379999999999</v>
       </c>
-      <c r="X6" s="8">
+      <c r="Y6" s="8">
         <v>29.601379999999999</v>
       </c>
-      <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="8"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG6" s="8"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1391,52 +1412,55 @@
       <c r="L7" s="6">
         <v>1.8</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N7" s="14">
         <v>0.5</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>57</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>594</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q7" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V7">
         <v>10</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7" s="8">
         <v>-26.088049999999999</v>
       </c>
-      <c r="X7" s="8">
+      <c r="Y7" s="8">
         <v>28.968879999999999</v>
       </c>
-      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="8"/>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="8"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG7" s="8"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1471,52 +1495,55 @@
       <c r="L8" s="6">
         <v>0.5</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="6">
         <v>0.5</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="6">
         <v>57</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>594</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V8">
         <v>10</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8" s="8">
         <v>-26.090779999999999</v>
       </c>
-      <c r="X8" s="8">
+      <c r="Y8" s="8">
         <v>29.474460000000001</v>
       </c>
-      <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="8"/>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="8"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1551,52 +1578,55 @@
       <c r="L9" s="6">
         <v>3.6</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="N9" s="14">
         <v>0.5</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>57</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>594</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V9">
         <v>10</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9" s="8">
         <v>-26.25404</v>
       </c>
-      <c r="X9" s="8">
+      <c r="Y9" s="8">
         <v>29.18008</v>
       </c>
-      <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="8"/>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="8"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1622,7 +1652,7 @@
         <v>45658</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J10" s="6">
         <v>9.8119999999999994</v>
@@ -1633,52 +1663,55 @@
       <c r="L10" s="6">
         <v>7.2</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="N10" s="14">
         <v>0.5</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>80</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="P10" s="6" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V10">
         <v>10</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10" s="8">
         <v>-25.5459</v>
       </c>
-      <c r="X10" s="8">
+      <c r="Y10" s="8">
         <v>28.5502</v>
       </c>
-      <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="8"/>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="8"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1686,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1713,52 +1746,55 @@
       <c r="L11" s="6">
         <v>5.9</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="N11" s="14">
         <v>0.5</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>57</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>594</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q11" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U11">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V11">
         <v>10</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11" s="8">
         <v>-26.740269999999999</v>
       </c>
-      <c r="X11" s="8">
+      <c r="Y11" s="8">
         <v>27.975000000000001</v>
       </c>
-      <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="8"/>
+      <c r="AE11" s="3"/>
       <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG11" s="8"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1766,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1793,52 +1829,55 @@
       <c r="L12" s="6">
         <v>1.7</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="N12" s="14">
         <v>0.5</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>57</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>594</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V12">
         <v>10</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12" s="8">
         <v>-27.095549999999999</v>
       </c>
-      <c r="X12" s="8">
+      <c r="Y12" s="8">
         <v>29.77055</v>
       </c>
-      <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="8"/>
+      <c r="AE12" s="3"/>
       <c r="AF12" s="8"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1873,52 +1912,55 @@
       <c r="L13" s="6">
         <v>1.9</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="N13" s="14">
         <v>0.5</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>57</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <v>594</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U13">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V13">
         <v>10</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13" s="8">
         <v>-27.095549999999999</v>
       </c>
-      <c r="X13" s="8">
+      <c r="Y13" s="8">
         <v>29.77055</v>
       </c>
-      <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="8"/>
+      <c r="AE13" s="3"/>
       <c r="AF13" s="8"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1926,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1953,52 +1995,55 @@
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="6">
+        <v>3</v>
+      </c>
+      <c r="N14" s="14">
         <v>0.5</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>57</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>594</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U14">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V14">
         <v>10</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14" s="8">
         <v>-23.667770000000001</v>
       </c>
-      <c r="X14" s="8">
+      <c r="Y14" s="8">
         <v>27.612770000000001</v>
       </c>
-      <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="8"/>
+      <c r="AE14" s="3"/>
       <c r="AF14" s="8"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2006,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -2033,52 +2078,55 @@
       <c r="L15" s="6">
         <v>2.4</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="N15" s="14">
         <v>0.5</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>57</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <v>594</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q15" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U15">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V15">
         <v>10</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15" s="8">
         <v>-26.280360000000002</v>
       </c>
-      <c r="X15" s="8">
+      <c r="Y15" s="8">
         <v>29.142289999999999</v>
       </c>
-      <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="8"/>
+      <c r="AE15" s="3"/>
       <c r="AF15" s="8"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2086,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -2102,7 +2150,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J16" s="6">
         <v>9.8119999999999994</v>
@@ -2113,52 +2161,55 @@
       <c r="L16" s="6">
         <v>7.2</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="N16" s="14">
         <v>0.5</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>80</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="P16" s="6" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U16">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V16">
         <v>10</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16" s="8">
         <v>-23.42</v>
       </c>
-      <c r="X16" s="8">
+      <c r="Y16" s="8">
         <v>27.33</v>
       </c>
-      <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="8"/>
+      <c r="AE16" s="3"/>
       <c r="AF16" s="8"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -2193,52 +2244,55 @@
       <c r="L17" s="6">
         <v>3.2</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="N17" s="14">
         <v>0.5</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>57</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="6">
         <v>594</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U17">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V17">
         <v>10</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17" s="8">
         <v>-26.775649999999999</v>
       </c>
-      <c r="X17" s="8">
+      <c r="Y17" s="8">
         <v>29.352119999999999</v>
       </c>
-      <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="8"/>
+      <c r="AE17" s="3"/>
       <c r="AF17" s="8"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG17" s="8"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2246,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -2265,68 +2319,71 @@
         <v>49064</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" s="6">
+        <v>81</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
         <v>700</v>
       </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>83</v>
+      <c r="P18" s="6">
+        <v>0</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U18">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V18">
         <v>10</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18" s="5">
         <v>-31.501799999999999</v>
       </c>
-      <c r="X18" s="8">
+      <c r="Y18" s="8">
         <v>18.1143</v>
       </c>
-      <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="8"/>
+      <c r="AE18" s="3"/>
       <c r="AF18" s="8"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG18" s="8"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -2351,54 +2408,57 @@
         <v>8.1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N19" s="6">
+        <v>81</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
         <v>37</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <v>968</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U19">
+        <v>81</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V19">
         <v>3</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>6</v>
       </c>
-      <c r="W19" s="8">
+      <c r="X19" s="8">
         <v>-33.673659999999998</v>
       </c>
-      <c r="X19" s="8">
+      <c r="Y19" s="8">
         <v>18.42811</v>
       </c>
-      <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="8"/>
+      <c r="AE19" s="3"/>
       <c r="AF19" s="8"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG19" s="8"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2422,65 +2482,68 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N20" s="6">
+        <v>81</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="15">
         <v>0</v>
       </c>
       <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
         <v>201</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <v>73.7</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <f>G20</f>
         <v>4</v>
       </c>
-      <c r="R20" s="6">
-        <f t="shared" ref="R20:R22" si="0">F20</f>
+      <c r="S20" s="6">
+        <f t="shared" ref="S20:S22" si="0">F20</f>
         <v>250</v>
       </c>
-      <c r="S20" s="6">
+      <c r="T20" s="6">
         <v>21.7</v>
       </c>
-      <c r="T20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U20">
+      <c r="U20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V20">
         <v>3</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2.4</v>
       </c>
-      <c r="W20" s="8">
+      <c r="X20" s="8">
         <v>-28.562830000000002</v>
       </c>
-      <c r="X20" s="8">
+      <c r="Y20" s="8">
         <v>29.082750000000001</v>
       </c>
-      <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="8"/>
+      <c r="AE20" s="3"/>
       <c r="AF20" s="8"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG20" s="8"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2488,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2504,65 +2567,68 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <v>78</v>
       </c>
-      <c r="Q21" s="6">
-        <f t="shared" ref="Q21:Q69" si="1">G21</f>
+      <c r="R21" s="6">
+        <f t="shared" ref="R21:R69" si="1">G21</f>
         <v>4</v>
       </c>
-      <c r="R21" s="6">
+      <c r="S21" s="6">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="S21" s="6">
+      <c r="T21" s="6">
         <v>27.4</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U21">
+      <c r="U21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V21">
         <v>3</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2.4</v>
       </c>
-      <c r="W21" s="8">
+      <c r="X21" s="8">
         <v>-28.164999999999999</v>
       </c>
-      <c r="X21" s="8">
+      <c r="Y21" s="8">
         <v>29.351199999999999</v>
       </c>
-      <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="8"/>
+      <c r="AE21" s="3"/>
       <c r="AF21" s="8"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG21" s="8"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2570,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2586,65 +2652,68 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" s="6">
+        <v>81</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="15">
         <v>0</v>
       </c>
       <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
         <v>201</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <v>77.900000000000006</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R22" s="6">
+      <c r="S22" s="6">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="S22" s="6">
+      <c r="T22" s="6">
         <v>10</v>
       </c>
-      <c r="T22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U22">
+      <c r="U22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V22">
         <v>3</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2.4</v>
       </c>
-      <c r="W22" s="8">
+      <c r="X22" s="8">
         <v>-34.197220000000002</v>
       </c>
-      <c r="X22" s="8">
+      <c r="Y22" s="8">
         <v>18.973610000000001</v>
       </c>
-      <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="8"/>
+      <c r="AE22" s="3"/>
       <c r="AF22" s="8"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG22" s="8"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2652,7 +2721,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2668,63 +2737,66 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N23" s="6">
+        <v>81</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
         <v>30</v>
       </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>83</v>
+      <c r="P23" s="6">
+        <v>0</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U23">
+        <v>81</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V23">
         <v>3</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>2.4</v>
       </c>
-      <c r="W23" s="8">
+      <c r="X23" s="8">
         <v>-30.62396</v>
       </c>
-      <c r="X23" s="8">
+      <c r="Y23" s="8">
         <v>25.50403</v>
       </c>
-      <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="8"/>
+      <c r="AE23" s="3"/>
       <c r="AF23" s="8"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG23" s="8"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +2804,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -2748,63 +2820,66 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N24" s="6">
+        <v>81</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
         <v>30</v>
       </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>83</v>
+      <c r="P24" s="6">
+        <v>0</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U24">
+        <v>81</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V24">
         <v>3</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2.4</v>
       </c>
-      <c r="W24" s="8">
+      <c r="X24" s="8">
         <v>-29.993369999999999</v>
       </c>
-      <c r="X24" s="8">
+      <c r="Y24" s="8">
         <v>24.733840000000001</v>
       </c>
-      <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="8"/>
+      <c r="AE24" s="3"/>
       <c r="AF24" s="8"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG24" s="8"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2812,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -2839,52 +2914,55 @@
       <c r="L25" s="6">
         <v>3.4</v>
       </c>
-      <c r="M25" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
         <v>2</v>
       </c>
-      <c r="O25" s="6">
+      <c r="P25" s="6">
         <v>161</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q25" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U25">
+        <v>81</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V25">
         <v>6.9</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W25" s="8">
+      <c r="X25" s="8">
         <v>-33.884079999999997</v>
       </c>
-      <c r="X25" s="8">
+      <c r="Y25" s="8">
         <v>18.533609999999999</v>
       </c>
-      <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-      <c r="AE25" s="8"/>
+      <c r="AE25" s="3"/>
       <c r="AF25" s="8"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG25" s="8"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2892,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -2919,52 +2997,55 @@
       <c r="L26" s="6">
         <v>9</v>
       </c>
-      <c r="M26" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N26" s="6">
+      <c r="M26" s="6">
+        <v>9</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
         <v>2</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P26" s="6">
         <v>161</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U26">
+        <v>81</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V26">
         <v>6.9</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W26" s="8">
+      <c r="X26" s="8">
         <v>-33.591999999999999</v>
       </c>
-      <c r="X26" s="8">
+      <c r="Y26" s="8">
         <v>18.460699999999999</v>
       </c>
-      <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="8"/>
+      <c r="AE26" s="3"/>
       <c r="AF26" s="8"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG26" s="8"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2972,7 +3053,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -2999,52 +3080,55 @@
       <c r="L27" s="6">
         <v>9</v>
       </c>
-      <c r="M27" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="M27" s="6">
+        <v>9</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
         <v>2</v>
       </c>
-      <c r="O27" s="6">
+      <c r="P27" s="6">
         <v>161</v>
       </c>
-      <c r="P27" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q27" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U27">
+        <v>81</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V27">
         <v>6.9</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W27" s="8">
+      <c r="X27" s="8">
         <v>-34.165260000000004</v>
       </c>
-      <c r="X27" s="8">
+      <c r="Y27" s="8">
         <v>21.96077</v>
       </c>
-      <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="8"/>
+      <c r="AE27" s="3"/>
       <c r="AF27" s="8"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG27" s="8"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3052,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -3079,60 +3163,63 @@
       <c r="L28" s="6">
         <v>3.4</v>
       </c>
-      <c r="M28" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N28" s="6">
+      <c r="M28" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
         <v>2</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <v>161</v>
       </c>
-      <c r="P28" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q28" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U28">
+        <v>81</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V28">
         <v>6.9</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W28" s="8">
+      <c r="X28" s="8">
         <v>-33.027389999999997</v>
       </c>
-      <c r="X28" s="8">
+      <c r="Y28" s="8">
         <v>27.88382</v>
       </c>
-      <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
-      <c r="AE28" s="8"/>
+      <c r="AE28" s="3"/>
       <c r="AF28" s="8"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG28" s="8"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -3141,74 +3228,77 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H29" s="11">
         <v>46023</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29" s="5">
         <v>32</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N29" s="6">
+        <v>81</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
         <v>1650</v>
       </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>83</v>
+      <c r="P29" s="6">
+        <v>0</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U29">
+        <v>81</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V29">
         <v>6</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>4</v>
       </c>
-      <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="8"/>
+      <c r="AE29" s="3"/>
       <c r="AF29" s="8"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG29" s="8"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -3217,74 +3307,77 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H30" s="11">
         <v>46023</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K30" s="5">
         <v>32</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N30" s="6">
+        <v>81</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
         <v>1610</v>
       </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>83</v>
+      <c r="P30" s="6">
+        <v>0</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U30">
+        <v>81</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V30">
         <v>6</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>4</v>
       </c>
-      <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="8"/>
+      <c r="AE30" s="3"/>
       <c r="AF30" s="8"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG30" s="8"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -3293,71 +3386,74 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H31" s="11">
         <v>46023</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K31" s="5">
         <v>32</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N31" s="6">
+        <v>81</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
         <v>1610</v>
       </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>83</v>
+      <c r="P31" s="6">
+        <v>0</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U31">
+        <v>81</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V31">
         <v>6</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>4</v>
       </c>
-      <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="8"/>
+      <c r="AE31" s="3"/>
       <c r="AF31" s="8"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG31" s="8"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -3369,75 +3465,78 @@
         <v>50</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I32" s="18" t="str">
         <f>I31</f>
         <v>beyond 2050</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N32" s="6">
+        <v>81</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
         <v>3324</v>
       </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>83</v>
+      <c r="P32" s="6">
+        <v>0</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T32" s="6">
+        <v>81</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U32" s="6">
         <v>9</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>8</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32" s="8">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
         <v>-28.432696</v>
       </c>
-      <c r="X32" s="8">
+      <c r="Y32" s="8">
         <v>21.593488000000001</v>
       </c>
-      <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="8"/>
+      <c r="AE32" s="3"/>
       <c r="AF32" s="8"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG32" s="8"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -3449,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H33" s="11">
         <v>46023</v>
@@ -3462,65 +3561,68 @@
         <v>beyond 2050</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N33" s="6">
+        <v>81</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
         <v>3114</v>
       </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>83</v>
+      <c r="P33" s="6">
+        <v>0</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T33" s="6">
+        <v>81</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U33" s="6">
         <v>6</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>8</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33" s="8">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
         <v>-27.872260000000001</v>
       </c>
-      <c r="X33" s="8">
+      <c r="Y33" s="8">
         <v>26.68751</v>
       </c>
-      <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="8"/>
+      <c r="AE33" s="3"/>
       <c r="AF33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG33" s="8"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -3532,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H34" s="11">
         <v>46023</v>
@@ -3545,59 +3647,62 @@
         <v>beyond 2050</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N34" s="6">
+        <v>81</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
         <v>2902</v>
       </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>83</v>
+      <c r="P34" s="6">
+        <v>0</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T34" s="6">
+        <v>81</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U34" s="6">
         <v>6</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>8</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="3"/>
+      <c r="W34">
+        <v>0</v>
+      </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="8"/>
+      <c r="AE34" s="3"/>
       <c r="AF34" s="8"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG34" s="8"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
@@ -3609,75 +3714,78 @@
         <v>100</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I35" s="18" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N35" s="6">
+        <v>81</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
         <v>3554</v>
       </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>83</v>
+      <c r="P35" s="6">
+        <v>0</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T35" s="6">
+        <v>81</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U35" s="6">
         <v>3</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>8</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35" s="8">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
         <v>-28.525200000000002</v>
       </c>
-      <c r="X35" s="8">
+      <c r="Y35" s="8">
         <v>19.3535</v>
       </c>
-      <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
-      <c r="AE35" s="8"/>
+      <c r="AE35" s="3"/>
       <c r="AF35" s="8"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG35" s="8"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -3689,75 +3797,78 @@
         <v>50</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I36" s="18" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N36" s="6">
+        <v>81</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
         <v>3554</v>
       </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>83</v>
+      <c r="P36" s="6">
+        <v>0</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T36" s="6">
+        <v>81</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U36" s="6">
         <v>6</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>8</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36" s="8">
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
         <v>-28.321400000000001</v>
       </c>
-      <c r="X36" s="8">
+      <c r="Y36" s="8">
         <v>21.439</v>
       </c>
-      <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="8"/>
+      <c r="AE36" s="3"/>
       <c r="AF36" s="8"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG36" s="8"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -3769,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H37" s="11">
         <v>46023</v>
@@ -3782,59 +3893,62 @@
         <v>beyond 2050</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N37" s="6">
+        <v>81</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
         <v>2902</v>
       </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>83</v>
+      <c r="P37" s="6">
+        <v>0</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T37" s="6">
+        <v>81</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U37" s="6">
         <v>9</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>8</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="3"/>
+      <c r="W37">
+        <v>0</v>
+      </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="8"/>
+      <c r="AE37" s="3"/>
       <c r="AF37" s="8"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG37" s="8"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -3846,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="11">
         <v>46023</v>
@@ -3859,59 +3973,62 @@
         <v>beyond 2050</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N38" s="6">
+        <v>81</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
         <v>2020</v>
       </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>83</v>
+      <c r="P38" s="6">
+        <v>0</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T38" s="6">
+        <v>81</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U38" s="6">
         <v>9</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>8</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3"/>
+      <c r="W38">
+        <v>0</v>
+      </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-      <c r="AE38" s="8"/>
+      <c r="AE38" s="3"/>
       <c r="AF38" s="8"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG38" s="8"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -3923,72 +4040,75 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I39" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N39" s="6">
+        <v>81</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
         <v>3114</v>
       </c>
-      <c r="O39" s="6">
-        <v>0</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>83</v>
+      <c r="P39" s="6">
+        <v>0</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="T39" s="6">
+        <v>81</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U39" s="6">
         <v>6</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>8</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="3"/>
+      <c r="W39">
+        <v>0</v>
+      </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="8"/>
+      <c r="AE39" s="3"/>
       <c r="AF39" s="8"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG39" s="8"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -3997,72 +4117,75 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I40" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K40" s="5">
         <v>0</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N40" s="6">
+        <v>81</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
         <v>1109</v>
       </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>83</v>
+      <c r="P40" s="6">
+        <v>0</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U40">
+        <v>81</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V40">
         <v>5</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>10</v>
       </c>
-      <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="8"/>
+      <c r="AE40" s="3"/>
       <c r="AF40" s="8"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG40" s="8"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -4071,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H41" s="11">
         <v>46023</v>
@@ -4084,62 +4207,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K41" s="5">
         <v>0</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N41" s="6">
+        <v>81</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
         <v>1109</v>
       </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>83</v>
+      <c r="P41" s="6">
+        <v>0</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U41">
+        <v>81</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V41">
         <v>5</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>10</v>
       </c>
-      <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="8"/>
+      <c r="AE41" s="3"/>
       <c r="AF41" s="8"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG41" s="8"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -4148,72 +4274,75 @@
         <v>627</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I42" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N42" s="6">
+        <v>81</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
         <v>3649</v>
       </c>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>83</v>
+      <c r="P42" s="6">
+        <v>0</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U42">
+        <v>81</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V42">
         <v>5</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3"/>
+      <c r="W42">
+        <v>0</v>
+      </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="8"/>
+      <c r="AE42" s="3"/>
       <c r="AF42" s="8"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG42" s="8"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -4222,72 +4351,75 @@
         <v>417</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I43" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N43" s="6">
+        <v>81</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
         <v>2176</v>
       </c>
-      <c r="O43" s="6">
-        <v>0</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>83</v>
+      <c r="P43" s="6">
+        <v>0</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U43">
+        <v>81</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V43">
         <v>5</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3"/>
+      <c r="W43">
+        <v>0</v>
+      </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-      <c r="AE43" s="8"/>
+      <c r="AE43" s="3"/>
       <c r="AF43" s="8"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG43" s="8"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4296,72 +4428,75 @@
         <v>435</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I44" s="10" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N44" s="6">
+        <v>81</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
         <v>1165</v>
       </c>
-      <c r="O44" s="6">
-        <v>0</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>83</v>
+      <c r="P44" s="6">
+        <v>0</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U44">
+        <v>81</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V44">
         <v>5</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3"/>
+      <c r="W44">
+        <v>0</v>
+      </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
-      <c r="AE44" s="8"/>
+      <c r="AE44" s="3"/>
       <c r="AF44" s="8"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG44" s="8"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -4370,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H45" s="11">
         <v>46023</v>
@@ -4383,62 +4518,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N45" s="6">
+        <v>81</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
         <v>872</v>
       </c>
-      <c r="O45" s="6">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>83</v>
+      <c r="P45" s="6">
+        <v>0</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U45">
+        <v>81</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V45">
         <v>5</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3"/>
+      <c r="W45">
+        <v>0</v>
+      </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="8"/>
+      <c r="AE45" s="3"/>
       <c r="AF45" s="8"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG45" s="8"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -4447,10 +4585,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H46" s="11">
         <v>46023</v>
@@ -4460,62 +4598,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N46" s="6">
+        <v>81</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="15">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
         <v>946</v>
       </c>
-      <c r="O46" s="6">
-        <v>0</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>83</v>
+      <c r="P46" s="6">
+        <v>0</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U46">
+        <v>81</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V46">
         <v>5</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3"/>
+      <c r="W46">
+        <v>0</v>
+      </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="8"/>
+      <c r="AE46" s="3"/>
       <c r="AF46" s="8"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG46" s="8"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -4524,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H47" s="11">
         <v>46023</v>
@@ -4537,62 +4678,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N47" s="6">
+        <v>81</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
         <v>617</v>
       </c>
-      <c r="O47" s="6">
-        <v>0</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>83</v>
+      <c r="P47" s="6">
+        <v>0</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U47">
+        <v>81</v>
+      </c>
+      <c r="U47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V47">
         <v>5</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3"/>
+      <c r="W47">
+        <v>0</v>
+      </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
-      <c r="AE47" s="8"/>
+      <c r="AE47" s="3"/>
       <c r="AF47" s="8"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG47" s="8"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -4601,71 +4745,74 @@
         <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N48" s="6">
+        <v>81</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N48" s="15">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
         <v>1363</v>
       </c>
-      <c r="O48" s="6">
-        <v>0</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>83</v>
+      <c r="P48" s="6">
+        <v>0</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U48">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V48">
         <v>3</v>
       </c>
-      <c r="Y48" s="3"/>
+      <c r="W48">
+        <v>3</v>
+      </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-      <c r="AE48" s="8"/>
+      <c r="AE48" s="3"/>
       <c r="AF48" s="8"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG48" s="8"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -4674,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H49" s="11">
         <v>46023</v>
@@ -4687,62 +4834,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N49" s="6">
+        <v>81</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
         <v>1240</v>
       </c>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>83</v>
+      <c r="P49" s="6">
+        <v>0</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U49">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="U49" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V49">
         <v>3</v>
       </c>
-      <c r="Y49" s="3"/>
+      <c r="W49">
+        <v>3</v>
+      </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-      <c r="AE49" s="8"/>
+      <c r="AE49" s="3"/>
       <c r="AF49" s="8"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG49" s="8"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -4751,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H50" s="11">
         <v>46023</v>
@@ -4764,62 +4914,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N50" s="6">
+        <v>81</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
         <v>1240</v>
       </c>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>83</v>
+      <c r="P50" s="6">
+        <v>0</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U50">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V50">
         <v>3</v>
       </c>
-      <c r="Y50" s="3"/>
+      <c r="W50">
+        <v>3</v>
+      </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-      <c r="AE50" s="8"/>
+      <c r="AE50" s="3"/>
       <c r="AF50" s="8"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG50" s="8"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -4828,72 +4981,75 @@
         <v>634</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I51" s="10" t="str">
         <f t="shared" si="3"/>
         <v>beyond 2050</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N51" s="6">
+        <v>81</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
         <v>1513</v>
       </c>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>83</v>
+      <c r="P51" s="6">
+        <v>0</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U51">
+        <v>81</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V51">
         <v>6</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="3"/>
+      <c r="W51">
+        <v>0</v>
+      </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
-      <c r="AE51" s="8"/>
+      <c r="AE51" s="3"/>
       <c r="AF51" s="8"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG51" s="8"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -4902,72 +5058,75 @@
         <v>564</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I52" s="10" t="str">
         <f t="shared" si="3"/>
         <v>beyond 2050</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N52" s="6">
+        <v>81</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
         <v>1186</v>
       </c>
-      <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>83</v>
+      <c r="P52" s="6">
+        <v>0</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U52">
+        <v>81</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V52">
         <v>6</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3"/>
+      <c r="W52">
+        <v>0</v>
+      </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
-      <c r="AE52" s="8"/>
+      <c r="AE52" s="3"/>
       <c r="AF52" s="8"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG52" s="8"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -4976,72 +5135,75 @@
         <v>154</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I53" s="10" t="str">
         <f t="shared" si="3"/>
         <v>beyond 2050</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N53" s="6">
+        <v>81</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
         <v>868</v>
       </c>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>83</v>
+      <c r="P53" s="6">
+        <v>0</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U53">
+        <v>81</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V53">
         <v>6</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="3"/>
+      <c r="W53">
+        <v>0</v>
+      </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
-      <c r="AE53" s="8"/>
+      <c r="AE53" s="3"/>
       <c r="AF53" s="8"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG53" s="8"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -5050,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H54" s="11">
         <v>46023</v>
@@ -5063,62 +5225,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N54" s="6">
+        <v>81</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N54" s="15">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
         <v>687</v>
       </c>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>83</v>
+      <c r="P54" s="6">
+        <v>0</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U54">
+        <v>81</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V54">
         <v>6</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3"/>
+      <c r="W54">
+        <v>0</v>
+      </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
-      <c r="AE54" s="8"/>
+      <c r="AE54" s="3"/>
       <c r="AF54" s="8"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG54" s="8"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -5127,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H55" s="11">
         <v>46023</v>
@@ -5140,62 +5305,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N55" s="6">
+        <v>81</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
         <v>801</v>
       </c>
-      <c r="O55" s="6">
-        <v>0</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>83</v>
+      <c r="P55" s="6">
+        <v>0</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U55">
+        <v>81</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V55">
         <v>6</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="3"/>
+      <c r="W55">
+        <v>0</v>
+      </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-      <c r="AE55" s="8"/>
+      <c r="AE55" s="3"/>
       <c r="AF55" s="8"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG55" s="8"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -5204,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H56" s="11">
         <v>46023</v>
@@ -5217,62 +5385,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N56" s="6">
+        <v>81</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N56" s="15">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
         <v>617</v>
       </c>
-      <c r="O56" s="6">
-        <v>0</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>83</v>
+      <c r="P56" s="6">
+        <v>0</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U56">
+        <v>81</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V56">
         <v>6</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="3"/>
+      <c r="W56">
+        <v>0</v>
+      </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-      <c r="AE56" s="8"/>
+      <c r="AE56" s="3"/>
       <c r="AF56" s="8"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG56" s="8"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -5284,7 +5455,7 @@
         <v>153</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H57" s="11">
         <v>46023</v>
@@ -5302,54 +5473,57 @@
       <c r="L57" s="6">
         <v>3.06</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="N57" s="14">
         <v>0.5</v>
       </c>
-      <c r="N57" s="6">
+      <c r="O57" s="6">
         <v>173</v>
       </c>
-      <c r="O57" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="P57" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U57">
+        <v>81</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V57">
         <v>6</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>5</v>
       </c>
-      <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
-      <c r="AE57" s="8"/>
+      <c r="AE57" s="3"/>
       <c r="AF57" s="8"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG57" s="8"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -5361,7 +5535,7 @@
         <v>140</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H58" s="11">
         <v>46023</v>
@@ -5379,54 +5553,57 @@
       <c r="L58" s="6">
         <v>2.7865000000000002</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="6">
+        <v>2.7865000000000002</v>
+      </c>
+      <c r="N58" s="14">
         <v>0.5</v>
       </c>
-      <c r="N58" s="6">
+      <c r="O58" s="6">
         <v>173</v>
       </c>
-      <c r="O58" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="P58" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U58">
+        <v>81</v>
+      </c>
+      <c r="U58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V58">
         <v>6</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>5</v>
       </c>
-      <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
-      <c r="AE58" s="8"/>
+      <c r="AE58" s="3"/>
       <c r="AF58" s="8"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG58" s="8"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -5435,10 +5612,10 @@
         <v>160</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I59" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5453,52 +5630,55 @@
       <c r="L59" s="6">
         <v>0.5</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="6">
         <v>0.5</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O59" s="6">
         <v>80</v>
       </c>
-      <c r="O59" s="6">
-        <v>0</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>83</v>
+      <c r="P59" s="6">
+        <v>0</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U59">
+        <v>81</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V59">
         <v>10</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>15</v>
       </c>
-      <c r="W59" s="8">
+      <c r="X59" s="8">
         <v>-26.658000000000001</v>
       </c>
-      <c r="X59" s="8">
+      <c r="Y59" s="8">
         <v>28.113800000000001</v>
       </c>
-      <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
-      <c r="AE59" s="8"/>
+      <c r="AE59" s="3"/>
       <c r="AF59" s="8"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG59" s="8"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -5506,7 +5686,7 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -5515,10 +5695,10 @@
         <v>600</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I60" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5533,60 +5713,63 @@
       <c r="L60" s="6">
         <v>0.5</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="6">
         <v>0.5</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O60" s="6">
         <v>900</v>
       </c>
-      <c r="O60" s="6">
-        <v>0</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>83</v>
+      <c r="P60" s="6">
+        <v>0</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U60">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U60" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V60">
         <v>10</v>
       </c>
-      <c r="W60" s="5">
+      <c r="W60">
+        <v>10</v>
+      </c>
+      <c r="X60" s="5">
         <v>-26.503599999999999</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>29.180299999999999</v>
       </c>
-      <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
-      <c r="AE60" s="8"/>
+      <c r="AE60" s="3"/>
       <c r="AF60" s="8"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG60" s="8"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -5613,60 +5796,63 @@
       <c r="L61" s="6">
         <v>11</v>
       </c>
-      <c r="M61" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N61" s="6">
+      <c r="M61" s="6">
+        <v>11</v>
+      </c>
+      <c r="N61" s="15">
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
         <v>2</v>
       </c>
-      <c r="O61" s="6">
+      <c r="P61" s="6">
         <v>101</v>
       </c>
-      <c r="P61" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q61" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U61">
+        <v>81</v>
+      </c>
+      <c r="U61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V61">
         <v>6.9</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W61" s="8">
+      <c r="X61" s="8">
         <v>-29.251000000000001</v>
       </c>
-      <c r="X61" s="8">
+      <c r="Y61" s="8">
         <v>31.094100000000001</v>
       </c>
-      <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
-      <c r="AE61" s="8"/>
+      <c r="AE61" s="3"/>
       <c r="AF61" s="8"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG61" s="8"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -5693,60 +5879,63 @@
       <c r="L62" s="6">
         <v>11</v>
       </c>
-      <c r="M62" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N62" s="6">
+      <c r="M62" s="6">
+        <v>11</v>
+      </c>
+      <c r="N62" s="15">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
         <v>2</v>
       </c>
-      <c r="O62" s="6">
+      <c r="P62" s="6">
         <v>101</v>
       </c>
-      <c r="P62" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q62" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U62">
+        <v>81</v>
+      </c>
+      <c r="U62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V62">
         <v>6.9</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W62" s="8">
+      <c r="X62" s="8">
         <v>-33.443300000000001</v>
       </c>
-      <c r="X62" s="8">
+      <c r="Y62" s="8">
         <v>25.402200000000001</v>
       </c>
-      <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
-      <c r="AE62" s="8"/>
+      <c r="AE62" s="3"/>
       <c r="AF62" s="8"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG62" s="8"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -5773,60 +5962,63 @@
       <c r="L63" s="6">
         <v>8</v>
       </c>
-      <c r="M63" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N63" s="6">
+      <c r="M63" s="6">
+        <v>8</v>
+      </c>
+      <c r="N63" s="15">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
         <v>950</v>
       </c>
-      <c r="O63" s="6">
-        <v>0</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>83</v>
+      <c r="P63" s="6">
+        <v>0</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U63">
+        <v>81</v>
+      </c>
+      <c r="U63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V63">
         <v>6.9</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W63" s="5">
+      <c r="X63" s="5">
         <v>-26.810199999999998</v>
       </c>
-      <c r="X63" s="8">
+      <c r="Y63" s="8">
         <v>27.8277</v>
       </c>
-      <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
-      <c r="AE63" s="8"/>
+      <c r="AE63" s="3"/>
       <c r="AF63" s="8"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG63" s="8"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -5853,60 +6045,63 @@
       <c r="L64" s="6">
         <v>2</v>
       </c>
-      <c r="M64" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N64" s="6">
+      <c r="M64" s="6">
+        <v>2</v>
+      </c>
+      <c r="N64" s="15">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
         <v>950</v>
       </c>
-      <c r="O64" s="6">
-        <v>0</v>
-      </c>
-      <c r="P64" s="6" t="s">
-        <v>83</v>
+      <c r="P64" s="6">
+        <v>0</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U64">
+        <v>81</v>
+      </c>
+      <c r="U64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V64">
         <v>6.9</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W64" s="5">
+      <c r="X64" s="5">
         <v>-26.810199999999998</v>
       </c>
-      <c r="X64" s="8">
+      <c r="Y64" s="8">
         <v>27.8277</v>
       </c>
-      <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
-      <c r="AE64" s="8"/>
+      <c r="AE64" s="3"/>
       <c r="AF64" s="8"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG64" s="8"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -5925,62 +6120,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N65" s="6">
+        <v>81</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N65" s="15">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
         <v>300</v>
       </c>
-      <c r="O65" s="6">
-        <v>0</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>83</v>
+      <c r="P65" s="6">
+        <v>0</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U65">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="U65" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V65">
         <v>3</v>
       </c>
-      <c r="Y65" s="3"/>
+      <c r="W65">
+        <v>3</v>
+      </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
-      <c r="AE65" s="8"/>
+      <c r="AE65" s="3"/>
       <c r="AF65" s="8"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG65" s="8"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -5999,68 +6197,71 @@
         <v>beyond 2050</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N66" s="6">
+        <v>81</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N66" s="15">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
         <v>300</v>
       </c>
-      <c r="O66" s="6">
-        <v>0</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>83</v>
+      <c r="P66" s="6">
+        <v>0</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U66">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="U66" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V66">
         <v>5</v>
       </c>
-      <c r="W66" s="8">
+      <c r="W66">
+        <v>5</v>
+      </c>
+      <c r="X66" s="8">
         <v>-32.049999999999997</v>
       </c>
-      <c r="X66" s="8">
+      <c r="Y66" s="8">
         <v>28.58333</v>
       </c>
-      <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
-      <c r="AE66" s="8"/>
+      <c r="AE66" s="3"/>
       <c r="AF66" s="8"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG66" s="8"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -6079,62 +6280,65 @@
         <v>beyond 2050</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L67" s="6">
         <v>0.5</v>
       </c>
-      <c r="M67" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N67" s="6">
+      <c r="M67" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N67" s="15">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
         <v>500</v>
       </c>
-      <c r="O67" s="6">
-        <v>0</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>83</v>
+      <c r="P67" s="6">
+        <v>0</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U67">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V67">
         <v>10</v>
       </c>
-      <c r="Y67" s="3"/>
+      <c r="W67">
+        <v>10</v>
+      </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-      <c r="AE67" s="8"/>
+      <c r="AE67" s="3"/>
       <c r="AF67" s="8"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG67" s="8"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -6153,68 +6357,71 @@
         <v>beyond 2050</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L68" s="6">
         <v>0.5</v>
       </c>
-      <c r="M68" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N68" s="6">
+      <c r="M68" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="15">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
         <v>500</v>
       </c>
-      <c r="O68" s="6">
-        <v>0</v>
-      </c>
-      <c r="P68" s="6" t="s">
-        <v>83</v>
+      <c r="P68" s="6">
+        <v>0</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U68">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="U68" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V68">
         <v>10</v>
       </c>
-      <c r="W68" s="5">
+      <c r="W68">
+        <v>10</v>
+      </c>
+      <c r="X68" s="5">
         <v>-25.3447</v>
       </c>
-      <c r="X68" s="8">
+      <c r="Y68" s="8">
         <v>30.393999999999998</v>
       </c>
-      <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
-      <c r="AE68" s="8"/>
+      <c r="AE68" s="3"/>
       <c r="AF68" s="8"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG68" s="8"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -6233,788 +6440,794 @@
         <v>beyond 2050</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M69" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N69" s="6">
+        <v>81</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N69" s="15">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
         <v>300</v>
       </c>
-      <c r="O69" s="6">
-        <v>0</v>
-      </c>
       <c r="P69" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="6">
         <v>72</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="R69" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R69" s="6">
-        <f t="shared" ref="R69" si="4">F69</f>
+      <c r="S69" s="6">
+        <f t="shared" ref="S69" si="4">F69</f>
         <v>45</v>
       </c>
-      <c r="S69" s="6">
+      <c r="T69" s="6">
         <v>2.7</v>
       </c>
-      <c r="T69" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U69">
+      <c r="U69" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V69">
         <v>3</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>2.4</v>
       </c>
-      <c r="W69" s="8">
+      <c r="X69" s="8">
         <v>-34.152999999999999</v>
       </c>
-      <c r="X69" s="8">
+      <c r="Y69" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
-      <c r="AE69" s="8"/>
+      <c r="AE69" s="3"/>
       <c r="AF69" s="8"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG69" s="8"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="P70" s="3"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="Y70" s="3"/>
+      <c r="T70" s="6"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
-      <c r="AE70" s="8"/>
+      <c r="AE70" s="3"/>
       <c r="AF70" s="8"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG70" s="8"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="P71" s="3"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="Y71" s="3"/>
+      <c r="T71" s="6"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
-      <c r="AE71" s="8"/>
+      <c r="AE71" s="3"/>
       <c r="AF71" s="8"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG71" s="8"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="P72" s="3"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="Y72" s="3"/>
+      <c r="T72" s="6"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
-      <c r="AE72" s="8"/>
+      <c r="AE72" s="3"/>
       <c r="AF72" s="8"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O73" s="3"/>
-      <c r="P73" s="6"/>
+      <c r="AG72" s="8"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="P73" s="3"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="Y73" s="3"/>
+      <c r="T73" s="6"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
-      <c r="AE73" s="8"/>
+      <c r="AE73" s="3"/>
       <c r="AF73" s="8"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O74" s="3"/>
-      <c r="P74" s="6"/>
+      <c r="AG73" s="8"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="P74" s="3"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
-      <c r="Y74" s="3"/>
+      <c r="T74" s="6"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
-      <c r="AE74" s="8"/>
+      <c r="AE74" s="3"/>
       <c r="AF74" s="8"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O75" s="3"/>
-      <c r="P75" s="6"/>
+      <c r="AG74" s="8"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="P75" s="3"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
-      <c r="Y75" s="3"/>
+      <c r="T75" s="6"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
-      <c r="AE75" s="8"/>
+      <c r="AE75" s="3"/>
       <c r="AF75" s="8"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="P76" s="6"/>
+      <c r="AG75" s="8"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
-      <c r="Y76" s="3"/>
+      <c r="T76" s="6"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
-      <c r="AE76" s="8"/>
+      <c r="AE76" s="3"/>
       <c r="AF76" s="8"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="P77" s="6"/>
+      <c r="AG76" s="8"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
-      <c r="Y77" s="3"/>
+      <c r="T77" s="6"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
-      <c r="AE77" s="8"/>
+      <c r="AE77" s="3"/>
       <c r="AF77" s="8"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="P78" s="6"/>
+      <c r="AG77" s="8"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="Y78" s="3"/>
+      <c r="T78" s="6"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
-      <c r="AE78" s="8"/>
+      <c r="AE78" s="3"/>
       <c r="AF78" s="8"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="P79" s="6"/>
+      <c r="AG78" s="8"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="Y79" s="3"/>
+      <c r="T79" s="6"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
-      <c r="AE79" s="8"/>
+      <c r="AE79" s="3"/>
       <c r="AF79" s="8"/>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="P80" s="6"/>
+      <c r="AG79" s="8"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
-      <c r="Y80" s="3"/>
+      <c r="T80" s="6"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
-      <c r="AE80" s="8"/>
+      <c r="AE80" s="3"/>
       <c r="AF80" s="8"/>
-    </row>
-    <row r="81" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P81" s="6"/>
+      <c r="AG80" s="8"/>
+    </row>
+    <row r="81" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
-      <c r="Y81" s="3"/>
+      <c r="T81" s="6"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
-      <c r="AE81" s="8"/>
+      <c r="AE81" s="3"/>
       <c r="AF81" s="8"/>
-    </row>
-    <row r="82" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P82" s="6"/>
+      <c r="AG81" s="8"/>
+    </row>
+    <row r="82" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
-      <c r="Y82" s="3"/>
+      <c r="T82" s="6"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-      <c r="AE82" s="8"/>
+      <c r="AE82" s="3"/>
       <c r="AF82" s="8"/>
-    </row>
-    <row r="83" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P83" s="6"/>
+      <c r="AG82" s="8"/>
+    </row>
+    <row r="83" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="Y83" s="3"/>
+      <c r="T83" s="6"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
-      <c r="AE83" s="8"/>
+      <c r="AE83" s="3"/>
       <c r="AF83" s="8"/>
-    </row>
-    <row r="84" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P84" s="6"/>
+      <c r="AG83" s="8"/>
+    </row>
+    <row r="84" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="Y84" s="3"/>
+      <c r="T84" s="6"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
-      <c r="AE84" s="8"/>
+      <c r="AE84" s="3"/>
       <c r="AF84" s="8"/>
-    </row>
-    <row r="85" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P85" s="6"/>
+      <c r="AG84" s="8"/>
+    </row>
+    <row r="85" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="Y85" s="3"/>
+      <c r="T85" s="6"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
-      <c r="AE85" s="8"/>
+      <c r="AE85" s="3"/>
       <c r="AF85" s="8"/>
-    </row>
-    <row r="86" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P86" s="6"/>
+      <c r="AG85" s="8"/>
+    </row>
+    <row r="86" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="Y86" s="3"/>
+      <c r="T86" s="6"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
-      <c r="AE86" s="8"/>
+      <c r="AE86" s="3"/>
       <c r="AF86" s="8"/>
-    </row>
-    <row r="87" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P87" s="6"/>
+      <c r="AG86" s="8"/>
+    </row>
+    <row r="87" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="Y87" s="3"/>
+      <c r="T87" s="6"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
-      <c r="AE87" s="8"/>
+      <c r="AE87" s="3"/>
       <c r="AF87" s="8"/>
-    </row>
-    <row r="88" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P88" s="6"/>
+      <c r="AG87" s="8"/>
+    </row>
+    <row r="88" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="Y88" s="3"/>
+      <c r="T88" s="6"/>
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
-      <c r="AE88" s="8"/>
+      <c r="AE88" s="3"/>
       <c r="AF88" s="8"/>
-    </row>
-    <row r="89" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P89" s="6"/>
+      <c r="AG88" s="8"/>
+    </row>
+    <row r="89" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
-      <c r="Y89" s="3"/>
+      <c r="T89" s="6"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
-      <c r="AE89" s="8"/>
+      <c r="AE89" s="3"/>
       <c r="AF89" s="8"/>
-    </row>
-    <row r="90" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P90" s="6"/>
+      <c r="AG89" s="8"/>
+    </row>
+    <row r="90" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
-      <c r="Y90" s="3"/>
+      <c r="T90" s="6"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-      <c r="AE90" s="8"/>
+      <c r="AE90" s="3"/>
       <c r="AF90" s="8"/>
-    </row>
-    <row r="91" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P91" s="6"/>
+      <c r="AG90" s="8"/>
+    </row>
+    <row r="91" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-      <c r="Y91" s="3"/>
+      <c r="T91" s="6"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
-      <c r="AE91" s="8"/>
+      <c r="AE91" s="3"/>
       <c r="AF91" s="8"/>
-    </row>
-    <row r="92" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P92" s="6"/>
+      <c r="AG91" s="8"/>
+    </row>
+    <row r="92" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
-      <c r="Y92" s="3"/>
+      <c r="T92" s="6"/>
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
-      <c r="AE92" s="8"/>
+      <c r="AE92" s="3"/>
       <c r="AF92" s="8"/>
-    </row>
-    <row r="93" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="P93" s="6"/>
+      <c r="AG92" s="8"/>
+    </row>
+    <row r="93" spans="17:33" x14ac:dyDescent="0.35">
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
-      <c r="Y93" s="3"/>
+      <c r="T93" s="6"/>
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
-      <c r="AE93" s="8"/>
+      <c r="AE93" s="3"/>
       <c r="AF93" s="8"/>
-    </row>
-    <row r="94" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="Q94" s="6"/>
+      <c r="AG93" s="8"/>
+    </row>
+    <row r="94" spans="17:33" x14ac:dyDescent="0.35">
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
-      <c r="Y94" s="3"/>
+      <c r="T94" s="6"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
-      <c r="AE94" s="8"/>
+      <c r="AE94" s="3"/>
       <c r="AF94" s="8"/>
-    </row>
-    <row r="95" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="Q95" s="6"/>
+      <c r="AG94" s="8"/>
+    </row>
+    <row r="95" spans="17:33" x14ac:dyDescent="0.35">
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="Y95" s="3"/>
+      <c r="T95" s="6"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-      <c r="AE95" s="8"/>
+      <c r="AE95" s="3"/>
       <c r="AF95" s="8"/>
-    </row>
-    <row r="96" spans="16:32" x14ac:dyDescent="0.35">
-      <c r="Q96" s="6"/>
+      <c r="AG95" s="8"/>
+    </row>
+    <row r="96" spans="17:33" x14ac:dyDescent="0.35">
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
-      <c r="Y96" s="3"/>
+      <c r="T96" s="6"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
-      <c r="AE96" s="8"/>
+      <c r="AE96" s="3"/>
       <c r="AF96" s="8"/>
-    </row>
-    <row r="97" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q97" s="6"/>
+      <c r="AG96" s="8"/>
+    </row>
+    <row r="97" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-    </row>
-    <row r="98" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q98" s="6"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
-    </row>
-    <row r="99" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q99" s="6"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
-    </row>
-    <row r="100" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q100" s="6"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
-    </row>
-    <row r="101" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q101" s="6"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
-    </row>
-    <row r="102" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q102" s="6"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
-    </row>
-    <row r="103" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q103" s="6"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
-    </row>
-    <row r="104" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q104" s="6"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
-    </row>
-    <row r="105" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q105" s="6"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
-    </row>
-    <row r="106" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q106" s="6"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
-    </row>
-    <row r="107" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q107" s="6"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
-    </row>
-    <row r="108" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q108" s="6"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
-    </row>
-    <row r="109" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q109" s="6"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
-    </row>
-    <row r="110" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q110" s="6"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
-    </row>
-    <row r="111" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q111" s="6"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
-    </row>
-    <row r="112" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q112" s="6"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
-    </row>
-    <row r="113" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q113" s="6"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
-    </row>
-    <row r="114" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q114" s="6"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
-    </row>
-    <row r="115" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q115" s="6"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
-    </row>
-    <row r="116" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q116" s="6"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
-    </row>
-    <row r="117" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q117" s="6"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
-    </row>
-    <row r="118" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q118" s="6"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
-    </row>
-    <row r="119" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q119" s="6"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
-    </row>
-    <row r="120" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q120" s="6"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
-    </row>
-    <row r="121" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q121" s="6"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
-    </row>
-    <row r="122" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q122" s="6"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
-    </row>
-    <row r="123" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q123" s="6"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
-    </row>
-    <row r="124" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q124" s="6"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
-    </row>
-    <row r="125" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q125" s="6"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
-    </row>
-    <row r="126" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q126" s="6"/>
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
-    </row>
-    <row r="127" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q127" s="6"/>
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
-    </row>
-    <row r="128" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q128" s="6"/>
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
-    </row>
-    <row r="129" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q129" s="6"/>
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
-    </row>
-    <row r="130" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q130" s="6"/>
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R130" s="6"/>
       <c r="S130" s="6"/>
-    </row>
-    <row r="131" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q131" s="6"/>
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R131" s="6"/>
       <c r="S131" s="6"/>
-    </row>
-    <row r="132" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q132" s="6"/>
+      <c r="T131" s="6"/>
+    </row>
+    <row r="132" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R132" s="6"/>
       <c r="S132" s="6"/>
-    </row>
-    <row r="133" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q133" s="6"/>
+      <c r="T132" s="6"/>
+    </row>
+    <row r="133" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
-    </row>
-    <row r="134" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q134" s="6"/>
+      <c r="T133" s="6"/>
+    </row>
+    <row r="134" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
-    </row>
-    <row r="135" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q135" s="6"/>
+      <c r="T134" s="6"/>
+    </row>
+    <row r="135" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
-    </row>
-    <row r="136" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q136" s="6"/>
+      <c r="T135" s="6"/>
+    </row>
+    <row r="136" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
-    </row>
-    <row r="137" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q137" s="6"/>
+      <c r="T136" s="6"/>
+    </row>
+    <row r="137" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R137" s="6"/>
       <c r="S137" s="6"/>
-    </row>
-    <row r="138" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q138" s="6"/>
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R138" s="6"/>
       <c r="S138" s="6"/>
-    </row>
-    <row r="139" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q139" s="6"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
-    </row>
-    <row r="140" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q140" s="6"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
-    </row>
-    <row r="141" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q141" s="6"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
-    </row>
-    <row r="142" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q142" s="6"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
-    </row>
-    <row r="143" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q143" s="6"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R143" s="6"/>
       <c r="S143" s="6"/>
-    </row>
-    <row r="144" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q144" s="6"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R144" s="6"/>
       <c r="S144" s="6"/>
-    </row>
-    <row r="145" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q145" s="6"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R145" s="6"/>
       <c r="S145" s="6"/>
-    </row>
-    <row r="146" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q146" s="6"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R146" s="6"/>
       <c r="S146" s="6"/>
-    </row>
-    <row r="147" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q147" s="6"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R147" s="6"/>
       <c r="S147" s="6"/>
-    </row>
-    <row r="148" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q148" s="6"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
-    </row>
-    <row r="149" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q149" s="6"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
-    </row>
-    <row r="150" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q150" s="6"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
-    </row>
-    <row r="151" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q151" s="6"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
-    </row>
-    <row r="152" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q152" s="6"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R152" s="6"/>
       <c r="S152" s="6"/>
-    </row>
-    <row r="153" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q153" s="6"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R153" s="6"/>
       <c r="S153" s="6"/>
-    </row>
-    <row r="154" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q154" s="6"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R154" s="6"/>
       <c r="S154" s="6"/>
-    </row>
-    <row r="155" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q155" s="6"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
-    </row>
-    <row r="156" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q156" s="6"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
-    </row>
-    <row r="157" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q157" s="6"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
-    </row>
-    <row r="158" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q158" s="6"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
-    </row>
-    <row r="159" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q159" s="6"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
-    </row>
-    <row r="160" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q160" s="6"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
-    </row>
-    <row r="161" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q161" s="6"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R161" s="6"/>
       <c r="S161" s="6"/>
-    </row>
-    <row r="162" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q162" s="6"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R162" s="6"/>
       <c r="S162" s="6"/>
-    </row>
-    <row r="163" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q163" s="6"/>
+      <c r="T162" s="6"/>
+    </row>
+    <row r="163" spans="18:20" x14ac:dyDescent="0.35">
       <c r="R163" s="6"/>
       <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/Existing Power Stations SA.xlsx
+++ b/data/Existing Power Stations SA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61CA91F-7688-42E8-BC5B-D6A7A695EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10678FA-678C-42E6-93C1-D2913DAC4D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -444,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,9 +477,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -850,9 +847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H74" sqref="H74"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,7 +887,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -991,8 +988,8 @@
       <c r="J2" s="6">
         <v>11.654</v>
       </c>
-      <c r="K2" s="12">
-        <v>26</v>
+      <c r="K2" s="6">
+        <v>16.8</v>
       </c>
       <c r="L2" s="6">
         <v>2.1</v>
@@ -1000,7 +997,7 @@
       <c r="M2" s="6">
         <v>2.1</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>0.5</v>
       </c>
       <c r="O2" s="6">
@@ -1074,8 +1071,8 @@
       <c r="J3" s="6">
         <v>12.420999999999999</v>
       </c>
-      <c r="K3" s="12">
-        <v>26</v>
+      <c r="K3" s="6">
+        <v>23.1</v>
       </c>
       <c r="L3" s="6">
         <v>1.1000000000000001</v>
@@ -1083,7 +1080,7 @@
       <c r="M3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>0.5</v>
       </c>
       <c r="O3" s="6">
@@ -1157,8 +1154,8 @@
       <c r="J4" s="6">
         <v>11.034000000000001</v>
       </c>
-      <c r="K4" s="12">
-        <v>26</v>
+      <c r="K4" s="6">
+        <v>11.8</v>
       </c>
       <c r="L4" s="6">
         <v>3.3</v>
@@ -1166,7 +1163,7 @@
       <c r="M4" s="6">
         <v>3.3</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>0.5</v>
       </c>
       <c r="O4" s="6">
@@ -1240,8 +1237,8 @@
       <c r="J5" s="6">
         <v>12.61</v>
       </c>
-      <c r="K5" s="12">
-        <v>26</v>
+      <c r="K5" s="6">
+        <v>22.1</v>
       </c>
       <c r="L5" s="6">
         <v>0.9</v>
@@ -1249,7 +1246,7 @@
       <c r="M5" s="6">
         <v>0.9</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>0.5</v>
       </c>
       <c r="O5" s="6">
@@ -1317,14 +1314,14 @@
         <v>10</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>46023</v>
       </c>
       <c r="J6" s="6">
         <v>12.131</v>
       </c>
-      <c r="K6" s="12">
-        <v>26</v>
+      <c r="K6" s="6">
+        <v>17</v>
       </c>
       <c r="L6" s="6">
         <v>1.1000000000000001</v>
@@ -1332,7 +1329,7 @@
       <c r="M6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>0.5</v>
       </c>
       <c r="O6" s="6">
@@ -1400,14 +1397,14 @@
         <v>6</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>52232</v>
       </c>
       <c r="J7" s="6">
         <v>11.753</v>
       </c>
-      <c r="K7" s="12">
-        <v>26</v>
+      <c r="K7" s="6">
+        <v>18.600000000000001</v>
       </c>
       <c r="L7" s="6">
         <v>1.8</v>
@@ -1415,7 +1412,7 @@
       <c r="M7" s="6">
         <v>1.8</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>0.5</v>
       </c>
       <c r="O7" s="6">
@@ -1483,14 +1480,14 @@
         <v>9</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>46753</v>
       </c>
       <c r="J8" s="6">
         <v>13.829000000000001</v>
       </c>
-      <c r="K8" s="12">
-        <v>26</v>
+      <c r="K8" s="6">
+        <v>17.600000000000001</v>
       </c>
       <c r="L8" s="6">
         <v>0.5</v>
@@ -1498,7 +1495,7 @@
       <c r="M8" s="6">
         <v>0.5</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>0.5</v>
       </c>
       <c r="O8" s="6">
@@ -1566,14 +1563,14 @@
         <v>6</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>47119</v>
       </c>
       <c r="J9" s="6">
         <v>11.243</v>
       </c>
-      <c r="K9" s="12">
-        <v>26</v>
+      <c r="K9" s="6">
+        <v>18.600000000000001</v>
       </c>
       <c r="L9" s="6">
         <v>3.6</v>
@@ -1581,7 +1578,7 @@
       <c r="M9" s="6">
         <v>3.6</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>0.5</v>
       </c>
       <c r="O9" s="6">
@@ -1651,14 +1648,14 @@
       <c r="H10" s="9">
         <v>45658</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>96</v>
       </c>
       <c r="J10" s="6">
         <v>9.8119999999999994</v>
       </c>
-      <c r="K10" s="12">
-        <v>26</v>
+      <c r="K10" s="6">
+        <v>16.3</v>
       </c>
       <c r="L10" s="6">
         <v>7.2</v>
@@ -1666,7 +1663,7 @@
       <c r="M10" s="6">
         <v>7.2</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>0.5</v>
       </c>
       <c r="O10" s="6">
@@ -1734,14 +1731,14 @@
         <v>6</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>51136</v>
       </c>
       <c r="J11" s="6">
         <v>10.975</v>
       </c>
-      <c r="K11" s="12">
-        <v>26</v>
+      <c r="K11" s="6">
+        <v>11.2</v>
       </c>
       <c r="L11" s="6">
         <v>5.9</v>
@@ -1749,7 +1746,7 @@
       <c r="M11" s="6">
         <v>5.9</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>0.5</v>
       </c>
       <c r="O11" s="6">
@@ -1817,14 +1814,14 @@
         <v>3</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>54058</v>
       </c>
       <c r="J12" s="6">
         <v>11.753</v>
       </c>
-      <c r="K12" s="12">
-        <v>26</v>
+      <c r="K12" s="6">
+        <v>21.8</v>
       </c>
       <c r="L12" s="6">
         <v>1.7</v>
@@ -1832,7 +1829,7 @@
       <c r="M12" s="6">
         <v>1.7</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>0.5</v>
       </c>
       <c r="O12" s="6">
@@ -1900,14 +1897,14 @@
         <v>3</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>55154</v>
       </c>
       <c r="J13" s="6">
         <v>11.004</v>
       </c>
-      <c r="K13" s="12">
-        <v>26</v>
+      <c r="K13" s="6">
+        <v>23.3</v>
       </c>
       <c r="L13" s="6">
         <v>1.9</v>
@@ -1915,7 +1912,7 @@
       <c r="M13" s="6">
         <v>1.9</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>0.5</v>
       </c>
       <c r="O13" s="6">
@@ -1983,14 +1980,14 @@
         <v>6</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>51502</v>
       </c>
       <c r="J14" s="6">
         <v>11.654</v>
       </c>
-      <c r="K14" s="12">
-        <v>26</v>
+      <c r="K14" s="6">
+        <v>11.4</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
@@ -1998,7 +1995,7 @@
       <c r="M14" s="6">
         <v>3</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>0.5</v>
       </c>
       <c r="O14" s="6">
@@ -2066,14 +2063,14 @@
         <v>6</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>48580</v>
       </c>
       <c r="J15" s="6">
         <v>11.034000000000001</v>
       </c>
-      <c r="K15" s="12">
-        <v>26</v>
+      <c r="K15" s="6">
+        <v>22.9</v>
       </c>
       <c r="L15" s="6">
         <v>2.4</v>
@@ -2081,7 +2078,7 @@
       <c r="M15" s="6">
         <v>2.4</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>0.5</v>
       </c>
       <c r="O15" s="6">
@@ -2149,14 +2146,14 @@
         <v>1</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J16" s="6">
         <v>9.8119999999999994</v>
       </c>
-      <c r="K16" s="12">
-        <v>26</v>
+      <c r="K16" s="6">
+        <v>16.3</v>
       </c>
       <c r="L16" s="6">
         <v>7.2</v>
@@ -2164,7 +2161,7 @@
       <c r="M16" s="6">
         <v>7.2</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>0.5</v>
       </c>
       <c r="O16" s="6">
@@ -2232,13 +2229,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>51136</v>
       </c>
       <c r="J17" s="6">
         <v>10.917999999999999</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="6">
         <v>26</v>
       </c>
       <c r="L17" s="6">
@@ -2247,7 +2244,7 @@
       <c r="M17" s="6">
         <v>3.2</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>0.5</v>
       </c>
       <c r="O17" s="6">
@@ -2315,7 +2312,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>49064</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -2330,7 +2327,7 @@
       <c r="M18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <v>0</v>
       </c>
       <c r="O18" s="6">
@@ -2398,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>52597</v>
       </c>
       <c r="J19" s="6">
@@ -2413,7 +2410,7 @@
       <c r="M19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="14">
         <v>0</v>
       </c>
       <c r="O19" s="6">
@@ -2481,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -2496,7 +2493,7 @@
       <c r="M20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <v>0</v>
       </c>
       <c r="O20" s="6">
@@ -2566,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -2581,7 +2578,7 @@
       <c r="M21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <v>0</v>
       </c>
       <c r="O21" s="6">
@@ -2651,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -2666,7 +2663,7 @@
       <c r="M22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <v>0</v>
       </c>
       <c r="O22" s="6">
@@ -2736,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -2751,7 +2748,7 @@
       <c r="M23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <v>0</v>
       </c>
       <c r="O23" s="6">
@@ -2819,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J24" s="5" t="s">
@@ -2834,7 +2831,7 @@
       <c r="M24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="14">
         <v>0</v>
       </c>
       <c r="O24" s="6">
@@ -2902,7 +2899,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>46022</v>
       </c>
       <c r="J25" s="6">
@@ -2917,7 +2914,7 @@
       <c r="M25" s="6">
         <v>3.4</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="14">
         <v>0</v>
       </c>
       <c r="O25" s="6">
@@ -2985,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <v>50040</v>
       </c>
       <c r="J26" s="6">
@@ -3000,7 +2997,7 @@
       <c r="M26" s="6">
         <v>9</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="14">
         <v>0</v>
       </c>
       <c r="O26" s="6">
@@ -3068,7 +3065,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="9"/>
-      <c r="I27" s="21">
+      <c r="I27" s="20">
         <v>50040</v>
       </c>
       <c r="J27" s="6">
@@ -3083,7 +3080,7 @@
       <c r="M27" s="6">
         <v>9</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="14">
         <v>0</v>
       </c>
       <c r="O27" s="6">
@@ -3151,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="21">
+      <c r="I28" s="20">
         <v>46022</v>
       </c>
       <c r="J28" s="6">
@@ -3166,7 +3163,7 @@
       <c r="M28" s="6">
         <v>3.4</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="14">
         <v>0</v>
       </c>
       <c r="O28" s="6">
@@ -3236,7 +3233,7 @@
       <c r="H29" s="11">
         <v>46023</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J29" s="5" t="s">
@@ -3251,7 +3248,7 @@
       <c r="M29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="14">
         <v>0</v>
       </c>
       <c r="O29" s="6">
@@ -3315,7 +3312,7 @@
       <c r="H30" s="11">
         <v>46023</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J30" s="5" t="s">
@@ -3330,7 +3327,7 @@
       <c r="M30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="14">
         <v>0</v>
       </c>
       <c r="O30" s="6">
@@ -3394,7 +3391,7 @@
       <c r="H31" s="11">
         <v>46023</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J31" s="5" t="s">
@@ -3409,7 +3406,7 @@
       <c r="M31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="14">
         <v>0</v>
       </c>
       <c r="O31" s="6">
@@ -3470,7 +3467,7 @@
       <c r="G32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="18" t="str">
+      <c r="I32" s="17" t="str">
         <f>I31</f>
         <v>beyond 2050</v>
       </c>
@@ -3486,7 +3483,7 @@
       <c r="M32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="14">
         <v>0</v>
       </c>
       <c r="O32" s="6">
@@ -3556,7 +3553,7 @@
       <c r="H33" s="11">
         <v>46023</v>
       </c>
-      <c r="I33" s="18" t="str">
+      <c r="I33" s="17" t="str">
         <f t="shared" ref="I33:I47" si="2">I32</f>
         <v>beyond 2050</v>
       </c>
@@ -3572,7 +3569,7 @@
       <c r="M33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="14">
         <v>0</v>
       </c>
       <c r="O33" s="6">
@@ -3642,7 +3639,7 @@
       <c r="H34" s="11">
         <v>46023</v>
       </c>
-      <c r="I34" s="18" t="str">
+      <c r="I34" s="17" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
@@ -3658,7 +3655,7 @@
       <c r="M34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="14">
         <v>0</v>
       </c>
       <c r="O34" s="6">
@@ -3719,7 +3716,7 @@
       <c r="G35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="18" t="str">
+      <c r="I35" s="17" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
@@ -3735,7 +3732,7 @@
       <c r="M35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="14">
         <v>0</v>
       </c>
       <c r="O35" s="6">
@@ -3802,7 +3799,7 @@
       <c r="G36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="18" t="str">
+      <c r="I36" s="17" t="str">
         <f t="shared" si="2"/>
         <v>beyond 2050</v>
       </c>
@@ -3818,7 +3815,7 @@
       <c r="M36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="14">
         <v>0</v>
       </c>
       <c r="O36" s="6">
@@ -3904,7 +3901,7 @@
       <c r="M37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="14">
         <v>0</v>
       </c>
       <c r="O37" s="6">
@@ -3984,7 +3981,7 @@
       <c r="M38" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="14">
         <v>0</v>
       </c>
       <c r="O38" s="6">
@@ -4061,7 +4058,7 @@
       <c r="M39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="14">
         <v>0</v>
       </c>
       <c r="O39" s="6">
@@ -4138,7 +4135,7 @@
       <c r="M40" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="14">
         <v>0</v>
       </c>
       <c r="O40" s="6">
@@ -4218,7 +4215,7 @@
       <c r="M41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="14">
         <v>0</v>
       </c>
       <c r="O41" s="6">
@@ -4295,7 +4292,7 @@
       <c r="M42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="14">
         <v>0</v>
       </c>
       <c r="O42" s="6">
@@ -4372,7 +4369,7 @@
       <c r="M43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="14">
         <v>0</v>
       </c>
       <c r="O43" s="6">
@@ -4449,7 +4446,7 @@
       <c r="M44" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="14">
         <v>0</v>
       </c>
       <c r="O44" s="6">
@@ -4529,7 +4526,7 @@
       <c r="M45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="14">
         <v>0</v>
       </c>
       <c r="O45" s="6">
@@ -4609,7 +4606,7 @@
       <c r="M46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="14">
         <v>0</v>
       </c>
       <c r="O46" s="6">
@@ -4689,7 +4686,7 @@
       <c r="M47" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="14">
         <v>0</v>
       </c>
       <c r="O47" s="6">
@@ -4765,7 +4762,7 @@
       <c r="M48" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N48" s="14">
         <v>0</v>
       </c>
       <c r="O48" s="6">
@@ -4845,7 +4842,7 @@
       <c r="M49" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="14">
         <v>0</v>
       </c>
       <c r="O49" s="6">
@@ -4925,7 +4922,7 @@
       <c r="M50" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="14">
         <v>0</v>
       </c>
       <c r="O50" s="6">
@@ -5002,7 +4999,7 @@
       <c r="M51" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N51" s="14">
         <v>0</v>
       </c>
       <c r="O51" s="6">
@@ -5079,7 +5076,7 @@
       <c r="M52" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="14">
         <v>0</v>
       </c>
       <c r="O52" s="6">
@@ -5156,7 +5153,7 @@
       <c r="M53" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="14">
         <v>0</v>
       </c>
       <c r="O53" s="6">
@@ -5236,7 +5233,7 @@
       <c r="M54" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="14">
         <v>0</v>
       </c>
       <c r="O54" s="6">
@@ -5316,7 +5313,7 @@
       <c r="M55" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="14">
         <v>0</v>
       </c>
       <c r="O55" s="6">
@@ -5396,7 +5393,7 @@
       <c r="M56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="14">
         <v>0</v>
       </c>
       <c r="O56" s="6">
@@ -5476,7 +5473,7 @@
       <c r="M57" s="6">
         <v>3.06</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="13">
         <v>0.5</v>
       </c>
       <c r="O57" s="6">
@@ -5556,7 +5553,7 @@
       <c r="M58" s="6">
         <v>2.7865000000000002</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N58" s="13">
         <v>0.5</v>
       </c>
       <c r="O58" s="6">
@@ -5633,7 +5630,7 @@
       <c r="M59" s="6">
         <v>0.5</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="13">
         <v>0.5</v>
       </c>
       <c r="O59" s="6">
@@ -5716,7 +5713,7 @@
       <c r="M60" s="6">
         <v>0.5</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N60" s="13">
         <v>0.5</v>
       </c>
       <c r="O60" s="6">
@@ -5799,7 +5796,7 @@
       <c r="M61" s="6">
         <v>11</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N61" s="14">
         <v>0</v>
       </c>
       <c r="O61" s="6">
@@ -5882,7 +5879,7 @@
       <c r="M62" s="6">
         <v>11</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N62" s="14">
         <v>0</v>
       </c>
       <c r="O62" s="6">
@@ -5965,7 +5962,7 @@
       <c r="M63" s="6">
         <v>8</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N63" s="14">
         <v>0</v>
       </c>
       <c r="O63" s="6">
@@ -6048,7 +6045,7 @@
       <c r="M64" s="6">
         <v>2</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N64" s="14">
         <v>0</v>
       </c>
       <c r="O64" s="6">
@@ -6131,7 +6128,7 @@
       <c r="M65" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N65" s="14">
         <v>0</v>
       </c>
       <c r="O65" s="6">
@@ -6208,7 +6205,7 @@
       <c r="M66" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="14">
         <v>0</v>
       </c>
       <c r="O66" s="6">
@@ -6291,7 +6288,7 @@
       <c r="M67" s="6">
         <v>0.5</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N67" s="14">
         <v>0</v>
       </c>
       <c r="O67" s="6">
@@ -6368,7 +6365,7 @@
       <c r="M68" s="6">
         <v>0.5</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N68" s="14">
         <v>0</v>
       </c>
       <c r="O68" s="6">
@@ -6451,7 +6448,7 @@
       <c r="M69" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N69" s="14">
         <v>0</v>
       </c>
       <c r="O69" s="6">
